--- a/src/Courses.xlsx
+++ b/src/Courses.xlsx
@@ -1842,23 +1842,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7AD592"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1929,15 +1912,15 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="AO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="AO1" activeCellId="0" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="AG1" activeCellId="0" sqref="AG1:AS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="39.88"/>
@@ -2073,7 +2056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="301" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -2320,7 +2303,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="128.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>64</v>
       </c>
@@ -2431,7 +2414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="266.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -2546,7 +2529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -2772,7 +2755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="151.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -2883,7 +2866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="278" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
@@ -3132,7 +3115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="301" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
@@ -3245,7 +3228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="301" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>141</v>
       </c>
@@ -3481,7 +3464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>163</v>
       </c>
@@ -3598,7 +3581,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>193</v>
       </c>
@@ -3717,7 +3700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>211</v>
       </c>
@@ -3965,7 +3948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>229</v>
       </c>
@@ -4079,7 +4062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="289.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>245</v>
       </c>
@@ -4203,7 +4186,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="646.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>141</v>
       </c>
@@ -4328,7 +4311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="332" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>274</v>
       </c>
@@ -4544,7 +4527,7 @@
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4620,7 +4603,7 @@
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4820,7 +4803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>318</v>
       </c>
@@ -4942,7 +4925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>328</v>
       </c>
@@ -5060,7 +5043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="128.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>341</v>
       </c>
@@ -5181,7 +5164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -5228,7 +5211,7 @@
       <c r="AR29" s="29"/>
       <c r="AS29" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -5275,7 +5258,7 @@
       <c r="AR30" s="29"/>
       <c r="AS30" s="29"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -5322,7 +5305,7 @@
       <c r="AR31" s="29"/>
       <c r="AS31" s="29"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -5369,7 +5352,7 @@
       <c r="AR32" s="29"/>
       <c r="AS32" s="29"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -5416,7 +5399,7 @@
       <c r="AR33" s="29"/>
       <c r="AS33" s="29"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -5463,7 +5446,7 @@
       <c r="AR34" s="29"/>
       <c r="AS34" s="29"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -5510,7 +5493,7 @@
       <c r="AR35" s="29"/>
       <c r="AS35" s="29"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -5557,7 +5540,7 @@
       <c r="AR36" s="29"/>
       <c r="AS36" s="29"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -5604,7 +5587,7 @@
       <c r="AR37" s="29"/>
       <c r="AS37" s="29"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -5651,7 +5634,7 @@
       <c r="AR38" s="29"/>
       <c r="AS38" s="29"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -5698,7 +5681,7 @@
       <c r="AR39" s="29"/>
       <c r="AS39" s="29"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -5745,7 +5728,7 @@
       <c r="AR40" s="29"/>
       <c r="AS40" s="29"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -5792,7 +5775,7 @@
       <c r="AR41" s="29"/>
       <c r="AS41" s="29"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -5839,7 +5822,7 @@
       <c r="AR42" s="29"/>
       <c r="AS42" s="29"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -5886,7 +5869,7 @@
       <c r="AR43" s="29"/>
       <c r="AS43" s="29"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -5933,7 +5916,7 @@
       <c r="AR44" s="29"/>
       <c r="AS44" s="29"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -5980,7 +5963,7 @@
       <c r="AR45" s="29"/>
       <c r="AS45" s="29"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -6027,7 +6010,7 @@
       <c r="AR46" s="29"/>
       <c r="AS46" s="29"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -6074,7 +6057,7 @@
       <c r="AR47" s="29"/>
       <c r="AS47" s="29"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -6121,7 +6104,7 @@
       <c r="AR48" s="29"/>
       <c r="AS48" s="29"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -6168,7 +6151,7 @@
       <c r="AR49" s="29"/>
       <c r="AS49" s="29"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -6215,7 +6198,7 @@
       <c r="AR50" s="29"/>
       <c r="AS50" s="29"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -6262,7 +6245,7 @@
       <c r="AR51" s="29"/>
       <c r="AS51" s="29"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -6309,7 +6292,7 @@
       <c r="AR52" s="29"/>
       <c r="AS52" s="29"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -6356,7 +6339,7 @@
       <c r="AR53" s="29"/>
       <c r="AS53" s="29"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -6403,7 +6386,7 @@
       <c r="AR54" s="29"/>
       <c r="AS54" s="29"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -6450,7 +6433,7 @@
       <c r="AR55" s="29"/>
       <c r="AS55" s="29"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -6497,7 +6480,7 @@
       <c r="AR56" s="29"/>
       <c r="AS56" s="29"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -6544,7 +6527,7 @@
       <c r="AR57" s="29"/>
       <c r="AS57" s="29"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -6591,7 +6574,7 @@
       <c r="AR58" s="29"/>
       <c r="AS58" s="29"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -6638,7 +6621,7 @@
       <c r="AR59" s="29"/>
       <c r="AS59" s="29"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -6685,7 +6668,7 @@
       <c r="AR60" s="29"/>
       <c r="AS60" s="29"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -6732,7 +6715,7 @@
       <c r="AR61" s="29"/>
       <c r="AS61" s="29"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -6779,7 +6762,7 @@
       <c r="AR62" s="29"/>
       <c r="AS62" s="29"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -6826,7 +6809,7 @@
       <c r="AR63" s="29"/>
       <c r="AS63" s="29"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -6873,7 +6856,7 @@
       <c r="AR64" s="29"/>
       <c r="AS64" s="29"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -6920,7 +6903,7 @@
       <c r="AR65" s="29"/>
       <c r="AS65" s="29"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -6967,7 +6950,7 @@
       <c r="AR66" s="29"/>
       <c r="AS66" s="29"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -7014,7 +6997,7 @@
       <c r="AR67" s="29"/>
       <c r="AS67" s="29"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -7061,7 +7044,7 @@
       <c r="AR68" s="29"/>
       <c r="AS68" s="29"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -7108,7 +7091,7 @@
       <c r="AR69" s="29"/>
       <c r="AS69" s="29"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -7155,7 +7138,7 @@
       <c r="AR70" s="29"/>
       <c r="AS70" s="29"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -7202,7 +7185,7 @@
       <c r="AR71" s="29"/>
       <c r="AS71" s="29"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -7249,7 +7232,7 @@
       <c r="AR72" s="29"/>
       <c r="AS72" s="29"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -7296,7 +7279,7 @@
       <c r="AR73" s="29"/>
       <c r="AS73" s="29"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -7343,7 +7326,7 @@
       <c r="AR74" s="29"/>
       <c r="AS74" s="29"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -7390,7 +7373,7 @@
       <c r="AR75" s="29"/>
       <c r="AS75" s="29"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -7437,7 +7420,7 @@
       <c r="AR76" s="29"/>
       <c r="AS76" s="29"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -7484,7 +7467,7 @@
       <c r="AR77" s="29"/>
       <c r="AS77" s="29"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -7531,7 +7514,7 @@
       <c r="AR78" s="29"/>
       <c r="AS78" s="29"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -7578,7 +7561,7 @@
       <c r="AR79" s="29"/>
       <c r="AS79" s="29"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -7625,7 +7608,7 @@
       <c r="AR80" s="29"/>
       <c r="AS80" s="29"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -7672,7 +7655,7 @@
       <c r="AR81" s="29"/>
       <c r="AS81" s="29"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -7719,7 +7702,7 @@
       <c r="AR82" s="29"/>
       <c r="AS82" s="29"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -7766,7 +7749,7 @@
       <c r="AR83" s="29"/>
       <c r="AS83" s="29"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -7813,7 +7796,7 @@
       <c r="AR84" s="29"/>
       <c r="AS84" s="29"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -7860,7 +7843,7 @@
       <c r="AR85" s="29"/>
       <c r="AS85" s="29"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -7907,7 +7890,7 @@
       <c r="AR86" s="29"/>
       <c r="AS86" s="29"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -7954,7 +7937,7 @@
       <c r="AR87" s="29"/>
       <c r="AS87" s="29"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -8001,7 +7984,7 @@
       <c r="AR88" s="29"/>
       <c r="AS88" s="29"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -8048,7 +8031,7 @@
       <c r="AR89" s="29"/>
       <c r="AS89" s="29"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -8095,7 +8078,7 @@
       <c r="AR90" s="29"/>
       <c r="AS90" s="29"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -8142,7 +8125,7 @@
       <c r="AR91" s="29"/>
       <c r="AS91" s="29"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -8189,7 +8172,7 @@
       <c r="AR92" s="29"/>
       <c r="AS92" s="29"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -8236,7 +8219,7 @@
       <c r="AR93" s="29"/>
       <c r="AS93" s="29"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -8283,7 +8266,7 @@
       <c r="AR94" s="29"/>
       <c r="AS94" s="29"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="29"/>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
@@ -8330,7 +8313,7 @@
       <c r="AR95" s="29"/>
       <c r="AS95" s="29"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -8377,7 +8360,7 @@
       <c r="AR96" s="29"/>
       <c r="AS96" s="29"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -8424,7 +8407,7 @@
       <c r="AR97" s="29"/>
       <c r="AS97" s="29"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="29"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -8471,7 +8454,7 @@
       <c r="AR98" s="29"/>
       <c r="AS98" s="29"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -8518,7 +8501,7 @@
       <c r="AR99" s="29"/>
       <c r="AS99" s="29"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -8565,7 +8548,7 @@
       <c r="AR100" s="29"/>
       <c r="AS100" s="29"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -8612,7 +8595,7 @@
       <c r="AR101" s="29"/>
       <c r="AS101" s="29"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -8659,7 +8642,7 @@
       <c r="AR102" s="29"/>
       <c r="AS102" s="29"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -8706,7 +8689,7 @@
       <c r="AR103" s="29"/>
       <c r="AS103" s="29"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -8753,7 +8736,7 @@
       <c r="AR104" s="29"/>
       <c r="AS104" s="29"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -8800,7 +8783,7 @@
       <c r="AR105" s="29"/>
       <c r="AS105" s="29"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -8847,7 +8830,7 @@
       <c r="AR106" s="29"/>
       <c r="AS106" s="29"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -8894,7 +8877,7 @@
       <c r="AR107" s="29"/>
       <c r="AS107" s="29"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -8941,7 +8924,7 @@
       <c r="AR108" s="29"/>
       <c r="AS108" s="29"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -8988,7 +8971,7 @@
       <c r="AR109" s="29"/>
       <c r="AS109" s="29"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -9035,7 +9018,7 @@
       <c r="AR110" s="29"/>
       <c r="AS110" s="29"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -9082,7 +9065,7 @@
       <c r="AR111" s="29"/>
       <c r="AS111" s="29"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -9129,7 +9112,7 @@
       <c r="AR112" s="29"/>
       <c r="AS112" s="29"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -9176,7 +9159,7 @@
       <c r="AR113" s="29"/>
       <c r="AS113" s="29"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -9223,7 +9206,7 @@
       <c r="AR114" s="29"/>
       <c r="AS114" s="29"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="29"/>
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
@@ -9270,7 +9253,7 @@
       <c r="AR115" s="29"/>
       <c r="AS115" s="29"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -9317,7 +9300,7 @@
       <c r="AR116" s="29"/>
       <c r="AS116" s="29"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
@@ -9364,7 +9347,7 @@
       <c r="AR117" s="29"/>
       <c r="AS117" s="29"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
@@ -9411,7 +9394,7 @@
       <c r="AR118" s="29"/>
       <c r="AS118" s="29"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
@@ -9458,7 +9441,7 @@
       <c r="AR119" s="29"/>
       <c r="AS119" s="29"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="29"/>
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
@@ -9505,7 +9488,7 @@
       <c r="AR120" s="29"/>
       <c r="AS120" s="29"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="29"/>
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
@@ -9552,7 +9535,7 @@
       <c r="AR121" s="29"/>
       <c r="AS121" s="29"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -9599,7 +9582,7 @@
       <c r="AR122" s="29"/>
       <c r="AS122" s="29"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="29"/>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
@@ -9646,7 +9629,7 @@
       <c r="AR123" s="29"/>
       <c r="AS123" s="29"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="29"/>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -9693,7 +9676,7 @@
       <c r="AR124" s="29"/>
       <c r="AS124" s="29"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="29"/>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -9740,7 +9723,7 @@
       <c r="AR125" s="29"/>
       <c r="AS125" s="29"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -9787,7 +9770,7 @@
       <c r="AR126" s="29"/>
       <c r="AS126" s="29"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -9834,7 +9817,7 @@
       <c r="AR127" s="29"/>
       <c r="AS127" s="29"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="29"/>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -9881,7 +9864,7 @@
       <c r="AR128" s="29"/>
       <c r="AS128" s="29"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="29"/>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -9928,7 +9911,7 @@
       <c r="AR129" s="29"/>
       <c r="AS129" s="29"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="29"/>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -9975,7 +9958,7 @@
       <c r="AR130" s="29"/>
       <c r="AS130" s="29"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="29"/>
       <c r="B131" s="29"/>
       <c r="C131" s="29"/>
@@ -10022,7 +10005,7 @@
       <c r="AR131" s="29"/>
       <c r="AS131" s="29"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -10069,7 +10052,7 @@
       <c r="AR132" s="29"/>
       <c r="AS132" s="29"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -10116,7 +10099,7 @@
       <c r="AR133" s="29"/>
       <c r="AS133" s="29"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="29"/>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -10163,7 +10146,7 @@
       <c r="AR134" s="29"/>
       <c r="AS134" s="29"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -10210,7 +10193,7 @@
       <c r="AR135" s="29"/>
       <c r="AS135" s="29"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="29"/>
       <c r="B136" s="29"/>
       <c r="C136" s="29"/>
@@ -10257,7 +10240,7 @@
       <c r="AR136" s="29"/>
       <c r="AS136" s="29"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="29"/>
       <c r="B137" s="29"/>
       <c r="C137" s="29"/>
@@ -10304,7 +10287,7 @@
       <c r="AR137" s="29"/>
       <c r="AS137" s="29"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="29"/>
       <c r="B138" s="29"/>
       <c r="C138" s="29"/>
@@ -10351,7 +10334,7 @@
       <c r="AR138" s="29"/>
       <c r="AS138" s="29"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="29"/>
       <c r="B139" s="29"/>
       <c r="C139" s="29"/>
@@ -10398,7 +10381,7 @@
       <c r="AR139" s="29"/>
       <c r="AS139" s="29"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -10445,7 +10428,7 @@
       <c r="AR140" s="29"/>
       <c r="AS140" s="29"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -10492,7 +10475,7 @@
       <c r="AR141" s="29"/>
       <c r="AS141" s="29"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
@@ -10539,7 +10522,7 @@
       <c r="AR142" s="29"/>
       <c r="AS142" s="29"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -10586,7 +10569,7 @@
       <c r="AR143" s="29"/>
       <c r="AS143" s="29"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -10633,7 +10616,7 @@
       <c r="AR144" s="29"/>
       <c r="AS144" s="29"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
@@ -10680,7 +10663,7 @@
       <c r="AR145" s="29"/>
       <c r="AS145" s="29"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
@@ -10727,7 +10710,7 @@
       <c r="AR146" s="29"/>
       <c r="AS146" s="29"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="29"/>
       <c r="B147" s="29"/>
       <c r="C147" s="29"/>
@@ -10774,7 +10757,7 @@
       <c r="AR147" s="29"/>
       <c r="AS147" s="29"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="29"/>
       <c r="B148" s="29"/>
       <c r="C148" s="29"/>
@@ -10821,7 +10804,7 @@
       <c r="AR148" s="29"/>
       <c r="AS148" s="29"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="29"/>
@@ -10868,7 +10851,7 @@
       <c r="AR149" s="29"/>
       <c r="AS149" s="29"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="29"/>
       <c r="B150" s="29"/>
       <c r="C150" s="29"/>
@@ -10915,7 +10898,7 @@
       <c r="AR150" s="29"/>
       <c r="AS150" s="29"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="29"/>
@@ -10962,7 +10945,7 @@
       <c r="AR151" s="29"/>
       <c r="AS151" s="29"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="29"/>
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
@@ -11009,7 +10992,7 @@
       <c r="AR152" s="29"/>
       <c r="AS152" s="29"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="29"/>
@@ -11056,7 +11039,7 @@
       <c r="AR153" s="29"/>
       <c r="AS153" s="29"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="29"/>
       <c r="B154" s="29"/>
       <c r="C154" s="29"/>
@@ -11103,7 +11086,7 @@
       <c r="AR154" s="29"/>
       <c r="AS154" s="29"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="29"/>
       <c r="B155" s="29"/>
       <c r="C155" s="29"/>
@@ -11150,7 +11133,7 @@
       <c r="AR155" s="29"/>
       <c r="AS155" s="29"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="29"/>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
@@ -11197,7 +11180,7 @@
       <c r="AR156" s="29"/>
       <c r="AS156" s="29"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -11244,7 +11227,7 @@
       <c r="AR157" s="29"/>
       <c r="AS157" s="29"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -11291,7 +11274,7 @@
       <c r="AR158" s="29"/>
       <c r="AS158" s="29"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="29"/>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
@@ -11338,7 +11321,7 @@
       <c r="AR159" s="29"/>
       <c r="AS159" s="29"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="29"/>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
@@ -11385,7 +11368,7 @@
       <c r="AR160" s="29"/>
       <c r="AS160" s="29"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="C161" s="29"/>
@@ -11432,7 +11415,7 @@
       <c r="AR161" s="29"/>
       <c r="AS161" s="29"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="29"/>
       <c r="B162" s="29"/>
       <c r="C162" s="29"/>
@@ -11479,7 +11462,7 @@
       <c r="AR162" s="29"/>
       <c r="AS162" s="29"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="29"/>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
@@ -11526,7 +11509,7 @@
       <c r="AR163" s="29"/>
       <c r="AS163" s="29"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="29"/>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -11573,7 +11556,7 @@
       <c r="AR164" s="29"/>
       <c r="AS164" s="29"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="29"/>
       <c r="B165" s="29"/>
       <c r="C165" s="29"/>
@@ -11620,7 +11603,7 @@
       <c r="AR165" s="29"/>
       <c r="AS165" s="29"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="29"/>
       <c r="B166" s="29"/>
       <c r="C166" s="29"/>
@@ -11667,7 +11650,7 @@
       <c r="AR166" s="29"/>
       <c r="AS166" s="29"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="29"/>
       <c r="B167" s="29"/>
       <c r="C167" s="29"/>
@@ -11714,7 +11697,7 @@
       <c r="AR167" s="29"/>
       <c r="AS167" s="29"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="29"/>
       <c r="B168" s="29"/>
       <c r="C168" s="29"/>
@@ -11761,7 +11744,7 @@
       <c r="AR168" s="29"/>
       <c r="AS168" s="29"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="29"/>
       <c r="B169" s="29"/>
       <c r="C169" s="29"/>
@@ -11808,7 +11791,7 @@
       <c r="AR169" s="29"/>
       <c r="AS169" s="29"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="29"/>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
@@ -11855,7 +11838,7 @@
       <c r="AR170" s="29"/>
       <c r="AS170" s="29"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="29"/>
       <c r="B171" s="29"/>
       <c r="C171" s="29"/>
@@ -11902,7 +11885,7 @@
       <c r="AR171" s="29"/>
       <c r="AS171" s="29"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
@@ -11949,7 +11932,7 @@
       <c r="AR172" s="29"/>
       <c r="AS172" s="29"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="29"/>
       <c r="B173" s="29"/>
       <c r="C173" s="29"/>
@@ -11996,7 +11979,7 @@
       <c r="AR173" s="29"/>
       <c r="AS173" s="29"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="29"/>
       <c r="B174" s="29"/>
       <c r="C174" s="29"/>
@@ -12043,7 +12026,7 @@
       <c r="AR174" s="29"/>
       <c r="AS174" s="29"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
       <c r="C175" s="29"/>
@@ -12090,7 +12073,7 @@
       <c r="AR175" s="29"/>
       <c r="AS175" s="29"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="29"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
@@ -12137,7 +12120,7 @@
       <c r="AR176" s="29"/>
       <c r="AS176" s="29"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="29"/>
       <c r="B177" s="29"/>
       <c r="C177" s="29"/>
@@ -12184,7 +12167,7 @@
       <c r="AR177" s="29"/>
       <c r="AS177" s="29"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="29"/>
       <c r="B178" s="29"/>
       <c r="C178" s="29"/>
@@ -12231,7 +12214,7 @@
       <c r="AR178" s="29"/>
       <c r="AS178" s="29"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="29"/>
       <c r="B179" s="29"/>
       <c r="C179" s="29"/>
@@ -12278,7 +12261,7 @@
       <c r="AR179" s="29"/>
       <c r="AS179" s="29"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="29"/>
       <c r="B180" s="29"/>
       <c r="C180" s="29"/>
@@ -12325,7 +12308,7 @@
       <c r="AR180" s="29"/>
       <c r="AS180" s="29"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
@@ -12372,7 +12355,7 @@
       <c r="AR181" s="29"/>
       <c r="AS181" s="29"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="29"/>
       <c r="B182" s="29"/>
       <c r="C182" s="29"/>
@@ -12419,7 +12402,7 @@
       <c r="AR182" s="29"/>
       <c r="AS182" s="29"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="29"/>
       <c r="B183" s="29"/>
       <c r="C183" s="29"/>
@@ -12466,7 +12449,7 @@
       <c r="AR183" s="29"/>
       <c r="AS183" s="29"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="29"/>
       <c r="B184" s="29"/>
       <c r="C184" s="29"/>
@@ -12513,7 +12496,7 @@
       <c r="AR184" s="29"/>
       <c r="AS184" s="29"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="29"/>
       <c r="B185" s="29"/>
       <c r="C185" s="29"/>
@@ -12560,7 +12543,7 @@
       <c r="AR185" s="29"/>
       <c r="AS185" s="29"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="29"/>
       <c r="B186" s="29"/>
       <c r="C186" s="29"/>
@@ -12607,7 +12590,7 @@
       <c r="AR186" s="29"/>
       <c r="AS186" s="29"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="29"/>
       <c r="B187" s="29"/>
       <c r="C187" s="29"/>
@@ -12654,7 +12637,7 @@
       <c r="AR187" s="29"/>
       <c r="AS187" s="29"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="29"/>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
@@ -12701,7 +12684,7 @@
       <c r="AR188" s="29"/>
       <c r="AS188" s="29"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="29"/>
       <c r="B189" s="29"/>
       <c r="C189" s="29"/>
@@ -12748,7 +12731,7 @@
       <c r="AR189" s="29"/>
       <c r="AS189" s="29"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="29"/>
       <c r="B190" s="29"/>
       <c r="C190" s="29"/>
@@ -12795,7 +12778,7 @@
       <c r="AR190" s="29"/>
       <c r="AS190" s="29"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="29"/>
       <c r="B191" s="29"/>
       <c r="C191" s="29"/>
@@ -12842,7 +12825,7 @@
       <c r="AR191" s="29"/>
       <c r="AS191" s="29"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="29"/>
@@ -12889,7 +12872,7 @@
       <c r="AR192" s="29"/>
       <c r="AS192" s="29"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
@@ -12936,7 +12919,7 @@
       <c r="AR193" s="29"/>
       <c r="AS193" s="29"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
@@ -12983,7 +12966,7 @@
       <c r="AR194" s="29"/>
       <c r="AS194" s="29"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="29"/>
@@ -13030,7 +13013,7 @@
       <c r="AR195" s="29"/>
       <c r="AS195" s="29"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -13077,7 +13060,7 @@
       <c r="AR196" s="29"/>
       <c r="AS196" s="29"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
@@ -13124,7 +13107,7 @@
       <c r="AR197" s="29"/>
       <c r="AS197" s="29"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
@@ -13171,7 +13154,7 @@
       <c r="AR198" s="29"/>
       <c r="AS198" s="29"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
@@ -13218,7 +13201,7 @@
       <c r="AR199" s="29"/>
       <c r="AS199" s="29"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
@@ -13265,7 +13248,7 @@
       <c r="AR200" s="29"/>
       <c r="AS200" s="29"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="29"/>
@@ -13312,7 +13295,7 @@
       <c r="AR201" s="29"/>
       <c r="AS201" s="29"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
@@ -13359,7 +13342,7 @@
       <c r="AR202" s="29"/>
       <c r="AS202" s="29"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
@@ -13406,7 +13389,7 @@
       <c r="AR203" s="29"/>
       <c r="AS203" s="29"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -13453,7 +13436,7 @@
       <c r="AR204" s="29"/>
       <c r="AS204" s="29"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -13500,7 +13483,7 @@
       <c r="AR205" s="29"/>
       <c r="AS205" s="29"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
@@ -13547,7 +13530,7 @@
       <c r="AR206" s="29"/>
       <c r="AS206" s="29"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
@@ -13594,7 +13577,7 @@
       <c r="AR207" s="29"/>
       <c r="AS207" s="29"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
@@ -13641,7 +13624,7 @@
       <c r="AR208" s="29"/>
       <c r="AS208" s="29"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
@@ -13688,7 +13671,7 @@
       <c r="AR209" s="29"/>
       <c r="AS209" s="29"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
@@ -13735,7 +13718,7 @@
       <c r="AR210" s="29"/>
       <c r="AS210" s="29"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
@@ -13782,7 +13765,7 @@
       <c r="AR211" s="29"/>
       <c r="AS211" s="29"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
@@ -13829,7 +13812,7 @@
       <c r="AR212" s="29"/>
       <c r="AS212" s="29"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="29"/>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
@@ -13876,7 +13859,7 @@
       <c r="AR213" s="29"/>
       <c r="AS213" s="29"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
@@ -13923,7 +13906,7 @@
       <c r="AR214" s="29"/>
       <c r="AS214" s="29"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="29"/>
@@ -13970,7 +13953,7 @@
       <c r="AR215" s="29"/>
       <c r="AS215" s="29"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -14017,7 +14000,7 @@
       <c r="AR216" s="29"/>
       <c r="AS216" s="29"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
@@ -14064,7 +14047,7 @@
       <c r="AR217" s="29"/>
       <c r="AS217" s="29"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="29"/>
@@ -14111,7 +14094,7 @@
       <c r="AR218" s="29"/>
       <c r="AS218" s="29"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="29"/>
@@ -14158,7 +14141,7 @@
       <c r="AR219" s="29"/>
       <c r="AS219" s="29"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
@@ -14205,7 +14188,7 @@
       <c r="AR220" s="29"/>
       <c r="AS220" s="29"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
@@ -14252,7 +14235,7 @@
       <c r="AR221" s="29"/>
       <c r="AS221" s="29"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
@@ -14299,7 +14282,7 @@
       <c r="AR222" s="29"/>
       <c r="AS222" s="29"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
@@ -14346,7 +14329,7 @@
       <c r="AR223" s="29"/>
       <c r="AS223" s="29"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
@@ -14393,7 +14376,7 @@
       <c r="AR224" s="29"/>
       <c r="AS224" s="29"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -14440,7 +14423,7 @@
       <c r="AR225" s="29"/>
       <c r="AS225" s="29"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
@@ -14487,7 +14470,7 @@
       <c r="AR226" s="29"/>
       <c r="AS226" s="29"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
@@ -14534,7 +14517,7 @@
       <c r="AR227" s="29"/>
       <c r="AS227" s="29"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -14581,7 +14564,7 @@
       <c r="AR228" s="29"/>
       <c r="AS228" s="29"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="29"/>
@@ -14628,7 +14611,7 @@
       <c r="AR229" s="29"/>
       <c r="AS229" s="29"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
@@ -14675,7 +14658,7 @@
       <c r="AR230" s="29"/>
       <c r="AS230" s="29"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -14722,7 +14705,7 @@
       <c r="AR231" s="29"/>
       <c r="AS231" s="29"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
@@ -14769,7 +14752,7 @@
       <c r="AR232" s="29"/>
       <c r="AS232" s="29"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
@@ -14816,7 +14799,7 @@
       <c r="AR233" s="29"/>
       <c r="AS233" s="29"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="29"/>
@@ -14863,7 +14846,7 @@
       <c r="AR234" s="29"/>
       <c r="AS234" s="29"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="29"/>
       <c r="B235" s="29"/>
       <c r="C235" s="29"/>
@@ -14910,7 +14893,7 @@
       <c r="AR235" s="29"/>
       <c r="AS235" s="29"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -14957,7 +14940,7 @@
       <c r="AR236" s="29"/>
       <c r="AS236" s="29"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
@@ -15004,7 +14987,7 @@
       <c r="AR237" s="29"/>
       <c r="AS237" s="29"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
@@ -15051,7 +15034,7 @@
       <c r="AR238" s="29"/>
       <c r="AS238" s="29"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="29"/>
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
@@ -15098,7 +15081,7 @@
       <c r="AR239" s="29"/>
       <c r="AS239" s="29"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
@@ -15145,7 +15128,7 @@
       <c r="AR240" s="29"/>
       <c r="AS240" s="29"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
@@ -15192,7 +15175,7 @@
       <c r="AR241" s="29"/>
       <c r="AS241" s="29"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
@@ -15239,7 +15222,7 @@
       <c r="AR242" s="29"/>
       <c r="AS242" s="29"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="29"/>
@@ -15286,7 +15269,7 @@
       <c r="AR243" s="29"/>
       <c r="AS243" s="29"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="29"/>
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
@@ -15333,7 +15316,7 @@
       <c r="AR244" s="29"/>
       <c r="AS244" s="29"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="29"/>
@@ -15380,7 +15363,7 @@
       <c r="AR245" s="29"/>
       <c r="AS245" s="29"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="29"/>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -15427,7 +15410,7 @@
       <c r="AR246" s="29"/>
       <c r="AS246" s="29"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -15474,7 +15457,7 @@
       <c r="AR247" s="29"/>
       <c r="AS247" s="29"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="29"/>
       <c r="B248" s="29"/>
       <c r="C248" s="29"/>
@@ -15521,7 +15504,7 @@
       <c r="AR248" s="29"/>
       <c r="AS248" s="29"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="29"/>
       <c r="B249" s="29"/>
       <c r="C249" s="29"/>
@@ -15568,7 +15551,7 @@
       <c r="AR249" s="29"/>
       <c r="AS249" s="29"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="29"/>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
@@ -15615,7 +15598,7 @@
       <c r="AR250" s="29"/>
       <c r="AS250" s="29"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="29"/>
       <c r="B251" s="29"/>
       <c r="C251" s="29"/>
@@ -15662,7 +15645,7 @@
       <c r="AR251" s="29"/>
       <c r="AS251" s="29"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="29"/>
       <c r="B252" s="29"/>
       <c r="C252" s="29"/>
@@ -15709,7 +15692,7 @@
       <c r="AR252" s="29"/>
       <c r="AS252" s="29"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="29"/>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
@@ -15756,7 +15739,7 @@
       <c r="AR253" s="29"/>
       <c r="AS253" s="29"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="29"/>
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
@@ -15803,7 +15786,7 @@
       <c r="AR254" s="29"/>
       <c r="AS254" s="29"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="29"/>
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
@@ -15850,7 +15833,7 @@
       <c r="AR255" s="29"/>
       <c r="AS255" s="29"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="29"/>
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
@@ -15897,7 +15880,7 @@
       <c r="AR256" s="29"/>
       <c r="AS256" s="29"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="29"/>
@@ -15944,7 +15927,7 @@
       <c r="AR257" s="29"/>
       <c r="AS257" s="29"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="29"/>
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
@@ -15991,7 +15974,7 @@
       <c r="AR258" s="29"/>
       <c r="AS258" s="29"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="29"/>
       <c r="B259" s="29"/>
       <c r="C259" s="29"/>
@@ -16038,7 +16021,7 @@
       <c r="AR259" s="29"/>
       <c r="AS259" s="29"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="29"/>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
@@ -16085,7 +16068,7 @@
       <c r="AR260" s="29"/>
       <c r="AS260" s="29"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="29"/>
       <c r="B261" s="29"/>
       <c r="C261" s="29"/>
@@ -16132,7 +16115,7 @@
       <c r="AR261" s="29"/>
       <c r="AS261" s="29"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="29"/>
       <c r="B262" s="29"/>
       <c r="C262" s="29"/>
@@ -16179,7 +16162,7 @@
       <c r="AR262" s="29"/>
       <c r="AS262" s="29"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="29"/>
       <c r="B263" s="29"/>
       <c r="C263" s="29"/>
@@ -16226,7 +16209,7 @@
       <c r="AR263" s="29"/>
       <c r="AS263" s="29"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="29"/>
       <c r="B264" s="29"/>
       <c r="C264" s="29"/>
@@ -16273,7 +16256,7 @@
       <c r="AR264" s="29"/>
       <c r="AS264" s="29"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="29"/>
       <c r="B265" s="29"/>
       <c r="C265" s="29"/>
@@ -16320,7 +16303,7 @@
       <c r="AR265" s="29"/>
       <c r="AS265" s="29"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="29"/>
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
@@ -16367,7 +16350,7 @@
       <c r="AR266" s="29"/>
       <c r="AS266" s="29"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="29"/>
       <c r="B267" s="29"/>
       <c r="C267" s="29"/>
@@ -16414,7 +16397,7 @@
       <c r="AR267" s="29"/>
       <c r="AS267" s="29"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="29"/>
       <c r="B268" s="29"/>
       <c r="C268" s="29"/>
@@ -16461,7 +16444,7 @@
       <c r="AR268" s="29"/>
       <c r="AS268" s="29"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="29"/>
       <c r="B269" s="29"/>
       <c r="C269" s="29"/>
@@ -16508,7 +16491,7 @@
       <c r="AR269" s="29"/>
       <c r="AS269" s="29"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="29"/>
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
@@ -16555,7 +16538,7 @@
       <c r="AR270" s="29"/>
       <c r="AS270" s="29"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="29"/>
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
@@ -16602,7 +16585,7 @@
       <c r="AR271" s="29"/>
       <c r="AS271" s="29"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="29"/>
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
@@ -16649,7 +16632,7 @@
       <c r="AR272" s="29"/>
       <c r="AS272" s="29"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="29"/>
       <c r="B273" s="29"/>
       <c r="C273" s="29"/>
@@ -16696,7 +16679,7 @@
       <c r="AR273" s="29"/>
       <c r="AS273" s="29"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="29"/>
       <c r="B274" s="29"/>
       <c r="C274" s="29"/>
@@ -16743,7 +16726,7 @@
       <c r="AR274" s="29"/>
       <c r="AS274" s="29"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="29"/>
       <c r="B275" s="29"/>
       <c r="C275" s="29"/>
@@ -16790,7 +16773,7 @@
       <c r="AR275" s="29"/>
       <c r="AS275" s="29"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="29"/>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -16837,7 +16820,7 @@
       <c r="AR276" s="29"/>
       <c r="AS276" s="29"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="29"/>
       <c r="B277" s="29"/>
       <c r="C277" s="29"/>
@@ -16884,7 +16867,7 @@
       <c r="AR277" s="29"/>
       <c r="AS277" s="29"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="29"/>
       <c r="B278" s="29"/>
       <c r="C278" s="29"/>
@@ -16931,7 +16914,7 @@
       <c r="AR278" s="29"/>
       <c r="AS278" s="29"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="29"/>
       <c r="B279" s="29"/>
       <c r="C279" s="29"/>
@@ -16978,7 +16961,7 @@
       <c r="AR279" s="29"/>
       <c r="AS279" s="29"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="29"/>
       <c r="B280" s="29"/>
       <c r="C280" s="29"/>
@@ -17025,7 +17008,7 @@
       <c r="AR280" s="29"/>
       <c r="AS280" s="29"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="29"/>
       <c r="B281" s="29"/>
       <c r="C281" s="29"/>
@@ -17072,7 +17055,7 @@
       <c r="AR281" s="29"/>
       <c r="AS281" s="29"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="29"/>
       <c r="B282" s="29"/>
       <c r="C282" s="29"/>
@@ -17119,7 +17102,7 @@
       <c r="AR282" s="29"/>
       <c r="AS282" s="29"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="29"/>
       <c r="B283" s="29"/>
       <c r="C283" s="29"/>
@@ -17166,7 +17149,7 @@
       <c r="AR283" s="29"/>
       <c r="AS283" s="29"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="29"/>
       <c r="B284" s="29"/>
       <c r="C284" s="29"/>
@@ -17213,7 +17196,7 @@
       <c r="AR284" s="29"/>
       <c r="AS284" s="29"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="29"/>
       <c r="B285" s="29"/>
       <c r="C285" s="29"/>
@@ -17260,7 +17243,7 @@
       <c r="AR285" s="29"/>
       <c r="AS285" s="29"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="29"/>
       <c r="B286" s="29"/>
       <c r="C286" s="29"/>
@@ -17307,7 +17290,7 @@
       <c r="AR286" s="29"/>
       <c r="AS286" s="29"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="29"/>
       <c r="B287" s="29"/>
       <c r="C287" s="29"/>
@@ -17354,7 +17337,7 @@
       <c r="AR287" s="29"/>
       <c r="AS287" s="29"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="29"/>
       <c r="B288" s="29"/>
       <c r="C288" s="29"/>
@@ -17401,7 +17384,7 @@
       <c r="AR288" s="29"/>
       <c r="AS288" s="29"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="29"/>
       <c r="B289" s="29"/>
       <c r="C289" s="29"/>
@@ -17448,7 +17431,7 @@
       <c r="AR289" s="29"/>
       <c r="AS289" s="29"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="29"/>
       <c r="B290" s="29"/>
       <c r="C290" s="29"/>
@@ -17495,7 +17478,7 @@
       <c r="AR290" s="29"/>
       <c r="AS290" s="29"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="29"/>
       <c r="B291" s="29"/>
       <c r="C291" s="29"/>
@@ -17542,7 +17525,7 @@
       <c r="AR291" s="29"/>
       <c r="AS291" s="29"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="29"/>
       <c r="B292" s="29"/>
       <c r="C292" s="29"/>
@@ -17589,7 +17572,7 @@
       <c r="AR292" s="29"/>
       <c r="AS292" s="29"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="29"/>
       <c r="B293" s="29"/>
       <c r="C293" s="29"/>
@@ -17636,7 +17619,7 @@
       <c r="AR293" s="29"/>
       <c r="AS293" s="29"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="29"/>
       <c r="B294" s="29"/>
       <c r="C294" s="29"/>
@@ -17683,7 +17666,7 @@
       <c r="AR294" s="29"/>
       <c r="AS294" s="29"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="29"/>
       <c r="B295" s="29"/>
       <c r="C295" s="29"/>
@@ -17730,7 +17713,7 @@
       <c r="AR295" s="29"/>
       <c r="AS295" s="29"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -17777,7 +17760,7 @@
       <c r="AR296" s="29"/>
       <c r="AS296" s="29"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="29"/>
       <c r="B297" s="29"/>
       <c r="C297" s="29"/>
@@ -17824,7 +17807,7 @@
       <c r="AR297" s="29"/>
       <c r="AS297" s="29"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="29"/>
       <c r="B298" s="29"/>
       <c r="C298" s="29"/>
@@ -17871,7 +17854,7 @@
       <c r="AR298" s="29"/>
       <c r="AS298" s="29"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="29"/>
       <c r="B299" s="29"/>
       <c r="C299" s="29"/>
@@ -17918,7 +17901,7 @@
       <c r="AR299" s="29"/>
       <c r="AS299" s="29"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="29"/>
       <c r="B300" s="29"/>
       <c r="C300" s="29"/>
@@ -17965,7 +17948,7 @@
       <c r="AR300" s="29"/>
       <c r="AS300" s="29"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="29"/>
       <c r="B301" s="29"/>
       <c r="C301" s="29"/>
@@ -18012,7 +17995,7 @@
       <c r="AR301" s="29"/>
       <c r="AS301" s="29"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="29"/>
       <c r="B302" s="29"/>
       <c r="C302" s="29"/>
@@ -18059,7 +18042,7 @@
       <c r="AR302" s="29"/>
       <c r="AS302" s="29"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="29"/>
       <c r="B303" s="29"/>
       <c r="C303" s="29"/>
@@ -18106,7 +18089,7 @@
       <c r="AR303" s="29"/>
       <c r="AS303" s="29"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="29"/>
       <c r="B304" s="29"/>
       <c r="C304" s="29"/>
@@ -18153,7 +18136,7 @@
       <c r="AR304" s="29"/>
       <c r="AS304" s="29"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="29"/>
       <c r="B305" s="29"/>
       <c r="C305" s="29"/>
@@ -18200,7 +18183,7 @@
       <c r="AR305" s="29"/>
       <c r="AS305" s="29"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="29"/>
       <c r="B306" s="29"/>
       <c r="C306" s="29"/>
@@ -18247,7 +18230,7 @@
       <c r="AR306" s="29"/>
       <c r="AS306" s="29"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="29"/>
       <c r="B307" s="29"/>
       <c r="C307" s="29"/>
@@ -18294,7 +18277,7 @@
       <c r="AR307" s="29"/>
       <c r="AS307" s="29"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="29"/>
       <c r="B308" s="29"/>
       <c r="C308" s="29"/>
@@ -18341,7 +18324,7 @@
       <c r="AR308" s="29"/>
       <c r="AS308" s="29"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="29"/>
       <c r="B309" s="29"/>
       <c r="C309" s="29"/>
@@ -18388,7 +18371,7 @@
       <c r="AR309" s="29"/>
       <c r="AS309" s="29"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="29"/>
       <c r="B310" s="29"/>
       <c r="C310" s="29"/>
@@ -18435,7 +18418,7 @@
       <c r="AR310" s="29"/>
       <c r="AS310" s="29"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="29"/>
       <c r="B311" s="29"/>
       <c r="C311" s="29"/>
@@ -18482,7 +18465,7 @@
       <c r="AR311" s="29"/>
       <c r="AS311" s="29"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="29"/>
       <c r="B312" s="29"/>
       <c r="C312" s="29"/>
@@ -18529,7 +18512,7 @@
       <c r="AR312" s="29"/>
       <c r="AS312" s="29"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="29"/>
       <c r="B313" s="29"/>
       <c r="C313" s="29"/>
@@ -18576,7 +18559,7 @@
       <c r="AR313" s="29"/>
       <c r="AS313" s="29"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="29"/>
       <c r="B314" s="29"/>
       <c r="C314" s="29"/>
@@ -18623,7 +18606,7 @@
       <c r="AR314" s="29"/>
       <c r="AS314" s="29"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="29"/>
       <c r="B315" s="29"/>
       <c r="C315" s="29"/>
@@ -18670,7 +18653,7 @@
       <c r="AR315" s="29"/>
       <c r="AS315" s="29"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="29"/>
       <c r="B316" s="29"/>
       <c r="C316" s="29"/>
@@ -18717,7 +18700,7 @@
       <c r="AR316" s="29"/>
       <c r="AS316" s="29"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="29"/>
       <c r="B317" s="29"/>
       <c r="C317" s="29"/>
@@ -18764,7 +18747,7 @@
       <c r="AR317" s="29"/>
       <c r="AS317" s="29"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="29"/>
       <c r="B318" s="29"/>
       <c r="C318" s="29"/>
@@ -18811,7 +18794,7 @@
       <c r="AR318" s="29"/>
       <c r="AS318" s="29"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="29"/>
       <c r="B319" s="29"/>
       <c r="C319" s="29"/>
@@ -18858,7 +18841,7 @@
       <c r="AR319" s="29"/>
       <c r="AS319" s="29"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="29"/>
       <c r="B320" s="29"/>
       <c r="C320" s="29"/>
@@ -18905,7 +18888,7 @@
       <c r="AR320" s="29"/>
       <c r="AS320" s="29"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="29"/>
       <c r="B321" s="29"/>
       <c r="C321" s="29"/>
@@ -18952,7 +18935,7 @@
       <c r="AR321" s="29"/>
       <c r="AS321" s="29"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="29"/>
       <c r="B322" s="29"/>
       <c r="C322" s="29"/>
@@ -18999,7 +18982,7 @@
       <c r="AR322" s="29"/>
       <c r="AS322" s="29"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="29"/>
       <c r="B323" s="29"/>
       <c r="C323" s="29"/>
@@ -19046,7 +19029,7 @@
       <c r="AR323" s="29"/>
       <c r="AS323" s="29"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="29"/>
       <c r="B324" s="29"/>
       <c r="C324" s="29"/>
@@ -19093,7 +19076,7 @@
       <c r="AR324" s="29"/>
       <c r="AS324" s="29"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="29"/>
       <c r="B325" s="29"/>
       <c r="C325" s="29"/>
@@ -19140,7 +19123,7 @@
       <c r="AR325" s="29"/>
       <c r="AS325" s="29"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="29"/>
       <c r="B326" s="29"/>
       <c r="C326" s="29"/>
@@ -19187,7 +19170,7 @@
       <c r="AR326" s="29"/>
       <c r="AS326" s="29"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="29"/>
       <c r="B327" s="29"/>
       <c r="C327" s="29"/>
@@ -19234,7 +19217,7 @@
       <c r="AR327" s="29"/>
       <c r="AS327" s="29"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="29"/>
       <c r="B328" s="29"/>
       <c r="C328" s="29"/>
@@ -19281,7 +19264,7 @@
       <c r="AR328" s="29"/>
       <c r="AS328" s="29"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="29"/>
       <c r="B329" s="29"/>
       <c r="C329" s="29"/>
@@ -19328,7 +19311,7 @@
       <c r="AR329" s="29"/>
       <c r="AS329" s="29"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="29"/>
       <c r="B330" s="29"/>
       <c r="C330" s="29"/>
@@ -19375,7 +19358,7 @@
       <c r="AR330" s="29"/>
       <c r="AS330" s="29"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="29"/>
       <c r="B331" s="29"/>
       <c r="C331" s="29"/>
@@ -19422,7 +19405,7 @@
       <c r="AR331" s="29"/>
       <c r="AS331" s="29"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="29"/>
       <c r="B332" s="29"/>
       <c r="C332" s="29"/>
@@ -19469,7 +19452,7 @@
       <c r="AR332" s="29"/>
       <c r="AS332" s="29"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="29"/>
       <c r="B333" s="29"/>
       <c r="C333" s="29"/>
@@ -19516,7 +19499,7 @@
       <c r="AR333" s="29"/>
       <c r="AS333" s="29"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="29"/>
       <c r="B334" s="29"/>
       <c r="C334" s="29"/>
@@ -19563,7 +19546,7 @@
       <c r="AR334" s="29"/>
       <c r="AS334" s="29"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="29"/>
       <c r="B335" s="29"/>
       <c r="C335" s="29"/>
@@ -19610,7 +19593,7 @@
       <c r="AR335" s="29"/>
       <c r="AS335" s="29"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="29"/>
       <c r="B336" s="29"/>
       <c r="C336" s="29"/>
@@ -19657,7 +19640,7 @@
       <c r="AR336" s="29"/>
       <c r="AS336" s="29"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="29"/>
       <c r="B337" s="29"/>
       <c r="C337" s="29"/>
@@ -19704,7 +19687,7 @@
       <c r="AR337" s="29"/>
       <c r="AS337" s="29"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="29"/>
       <c r="B338" s="29"/>
       <c r="C338" s="29"/>
@@ -19751,7 +19734,7 @@
       <c r="AR338" s="29"/>
       <c r="AS338" s="29"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="29"/>
       <c r="B339" s="29"/>
       <c r="C339" s="29"/>
@@ -19798,7 +19781,7 @@
       <c r="AR339" s="29"/>
       <c r="AS339" s="29"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="29"/>
       <c r="B340" s="29"/>
       <c r="C340" s="29"/>
@@ -19845,7 +19828,7 @@
       <c r="AR340" s="29"/>
       <c r="AS340" s="29"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="29"/>
       <c r="B341" s="29"/>
       <c r="C341" s="29"/>
@@ -19892,7 +19875,7 @@
       <c r="AR341" s="29"/>
       <c r="AS341" s="29"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="29"/>
       <c r="B342" s="29"/>
       <c r="C342" s="29"/>
@@ -19939,7 +19922,7 @@
       <c r="AR342" s="29"/>
       <c r="AS342" s="29"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="29"/>
       <c r="B343" s="29"/>
       <c r="C343" s="29"/>
@@ -19986,7 +19969,7 @@
       <c r="AR343" s="29"/>
       <c r="AS343" s="29"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="29"/>
       <c r="B344" s="29"/>
       <c r="C344" s="29"/>
@@ -20033,7 +20016,7 @@
       <c r="AR344" s="29"/>
       <c r="AS344" s="29"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="29"/>
       <c r="B345" s="29"/>
       <c r="C345" s="29"/>
@@ -20080,7 +20063,7 @@
       <c r="AR345" s="29"/>
       <c r="AS345" s="29"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="29"/>
       <c r="B346" s="29"/>
       <c r="C346" s="29"/>
@@ -20127,7 +20110,7 @@
       <c r="AR346" s="29"/>
       <c r="AS346" s="29"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="29"/>
       <c r="B347" s="29"/>
       <c r="C347" s="29"/>
@@ -20174,7 +20157,7 @@
       <c r="AR347" s="29"/>
       <c r="AS347" s="29"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="29"/>
       <c r="B348" s="29"/>
       <c r="C348" s="29"/>
@@ -20221,7 +20204,7 @@
       <c r="AR348" s="29"/>
       <c r="AS348" s="29"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="29"/>
       <c r="B349" s="29"/>
       <c r="C349" s="29"/>
@@ -20268,7 +20251,7 @@
       <c r="AR349" s="29"/>
       <c r="AS349" s="29"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="29"/>
       <c r="B350" s="29"/>
       <c r="C350" s="29"/>
@@ -20315,7 +20298,7 @@
       <c r="AR350" s="29"/>
       <c r="AS350" s="29"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="29"/>
       <c r="B351" s="29"/>
       <c r="C351" s="29"/>
@@ -20362,7 +20345,7 @@
       <c r="AR351" s="29"/>
       <c r="AS351" s="29"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="29"/>
       <c r="B352" s="29"/>
       <c r="C352" s="29"/>
@@ -20409,7 +20392,7 @@
       <c r="AR352" s="29"/>
       <c r="AS352" s="29"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="29"/>
       <c r="B353" s="29"/>
       <c r="C353" s="29"/>
@@ -20456,7 +20439,7 @@
       <c r="AR353" s="29"/>
       <c r="AS353" s="29"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="29"/>
       <c r="B354" s="29"/>
       <c r="C354" s="29"/>
@@ -20503,7 +20486,7 @@
       <c r="AR354" s="29"/>
       <c r="AS354" s="29"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="29"/>
       <c r="B355" s="29"/>
       <c r="C355" s="29"/>
@@ -20550,7 +20533,7 @@
       <c r="AR355" s="29"/>
       <c r="AS355" s="29"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="29"/>
       <c r="B356" s="29"/>
       <c r="C356" s="29"/>
@@ -20597,7 +20580,7 @@
       <c r="AR356" s="29"/>
       <c r="AS356" s="29"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="29"/>
       <c r="B357" s="29"/>
       <c r="C357" s="29"/>
@@ -20644,7 +20627,7 @@
       <c r="AR357" s="29"/>
       <c r="AS357" s="29"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="29"/>
       <c r="B358" s="29"/>
       <c r="C358" s="29"/>
@@ -20691,7 +20674,7 @@
       <c r="AR358" s="29"/>
       <c r="AS358" s="29"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="29"/>
       <c r="B359" s="29"/>
       <c r="C359" s="29"/>
@@ -20738,7 +20721,7 @@
       <c r="AR359" s="29"/>
       <c r="AS359" s="29"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="29"/>
       <c r="B360" s="29"/>
       <c r="C360" s="29"/>
@@ -20785,7 +20768,7 @@
       <c r="AR360" s="29"/>
       <c r="AS360" s="29"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="29"/>
       <c r="B361" s="29"/>
       <c r="C361" s="29"/>
@@ -20832,7 +20815,7 @@
       <c r="AR361" s="29"/>
       <c r="AS361" s="29"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="29"/>
       <c r="B362" s="29"/>
       <c r="C362" s="29"/>
@@ -20879,7 +20862,7 @@
       <c r="AR362" s="29"/>
       <c r="AS362" s="29"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="29"/>
       <c r="B363" s="29"/>
       <c r="C363" s="29"/>
@@ -20926,7 +20909,7 @@
       <c r="AR363" s="29"/>
       <c r="AS363" s="29"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="29"/>
       <c r="B364" s="29"/>
       <c r="C364" s="29"/>
@@ -20973,7 +20956,7 @@
       <c r="AR364" s="29"/>
       <c r="AS364" s="29"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="29"/>
       <c r="B365" s="29"/>
       <c r="C365" s="29"/>
@@ -21020,7 +21003,7 @@
       <c r="AR365" s="29"/>
       <c r="AS365" s="29"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="29"/>
       <c r="B366" s="29"/>
       <c r="C366" s="29"/>
@@ -21067,7 +21050,7 @@
       <c r="AR366" s="29"/>
       <c r="AS366" s="29"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="29"/>
       <c r="B367" s="29"/>
       <c r="C367" s="29"/>
@@ -21114,7 +21097,7 @@
       <c r="AR367" s="29"/>
       <c r="AS367" s="29"/>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="29"/>
       <c r="B368" s="29"/>
       <c r="C368" s="29"/>
@@ -21161,7 +21144,7 @@
       <c r="AR368" s="29"/>
       <c r="AS368" s="29"/>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="29"/>
       <c r="B369" s="29"/>
       <c r="C369" s="29"/>
@@ -21208,7 +21191,7 @@
       <c r="AR369" s="29"/>
       <c r="AS369" s="29"/>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="29"/>
       <c r="B370" s="29"/>
       <c r="C370" s="29"/>
@@ -21255,7 +21238,7 @@
       <c r="AR370" s="29"/>
       <c r="AS370" s="29"/>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="29"/>
       <c r="B371" s="29"/>
       <c r="C371" s="29"/>
@@ -21302,7 +21285,7 @@
       <c r="AR371" s="29"/>
       <c r="AS371" s="29"/>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="29"/>
       <c r="B372" s="29"/>
       <c r="C372" s="29"/>
@@ -21349,7 +21332,7 @@
       <c r="AR372" s="29"/>
       <c r="AS372" s="29"/>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="29"/>
       <c r="B373" s="29"/>
       <c r="C373" s="29"/>
@@ -21396,7 +21379,7 @@
       <c r="AR373" s="29"/>
       <c r="AS373" s="29"/>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="29"/>
       <c r="B374" s="29"/>
       <c r="C374" s="29"/>
@@ -21443,7 +21426,7 @@
       <c r="AR374" s="29"/>
       <c r="AS374" s="29"/>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="29"/>
       <c r="B375" s="29"/>
       <c r="C375" s="29"/>
@@ -21490,7 +21473,7 @@
       <c r="AR375" s="29"/>
       <c r="AS375" s="29"/>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="29"/>
       <c r="B376" s="29"/>
       <c r="C376" s="29"/>
@@ -21537,7 +21520,7 @@
       <c r="AR376" s="29"/>
       <c r="AS376" s="29"/>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="29"/>
       <c r="B377" s="29"/>
       <c r="C377" s="29"/>
@@ -21584,7 +21567,7 @@
       <c r="AR377" s="29"/>
       <c r="AS377" s="29"/>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="29"/>
       <c r="B378" s="29"/>
       <c r="C378" s="29"/>
@@ -21631,7 +21614,7 @@
       <c r="AR378" s="29"/>
       <c r="AS378" s="29"/>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="29"/>
       <c r="B379" s="29"/>
       <c r="C379" s="29"/>
@@ -21678,7 +21661,7 @@
       <c r="AR379" s="29"/>
       <c r="AS379" s="29"/>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="29"/>
       <c r="B380" s="29"/>
       <c r="C380" s="29"/>
@@ -21725,7 +21708,7 @@
       <c r="AR380" s="29"/>
       <c r="AS380" s="29"/>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="29"/>
       <c r="B381" s="29"/>
       <c r="C381" s="29"/>
@@ -21772,7 +21755,7 @@
       <c r="AR381" s="29"/>
       <c r="AS381" s="29"/>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="29"/>
       <c r="B382" s="29"/>
       <c r="C382" s="29"/>
@@ -21819,7 +21802,7 @@
       <c r="AR382" s="29"/>
       <c r="AS382" s="29"/>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="29"/>
       <c r="B383" s="29"/>
       <c r="C383" s="29"/>
@@ -21866,7 +21849,7 @@
       <c r="AR383" s="29"/>
       <c r="AS383" s="29"/>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="29"/>
       <c r="B384" s="29"/>
       <c r="C384" s="29"/>
@@ -21913,7 +21896,7 @@
       <c r="AR384" s="29"/>
       <c r="AS384" s="29"/>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="29"/>
       <c r="B385" s="29"/>
       <c r="C385" s="29"/>
@@ -21960,7 +21943,7 @@
       <c r="AR385" s="29"/>
       <c r="AS385" s="29"/>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="29"/>
       <c r="B386" s="29"/>
       <c r="C386" s="29"/>
@@ -22007,7 +21990,7 @@
       <c r="AR386" s="29"/>
       <c r="AS386" s="29"/>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="29"/>
       <c r="B387" s="29"/>
       <c r="C387" s="29"/>
@@ -22054,7 +22037,7 @@
       <c r="AR387" s="29"/>
       <c r="AS387" s="29"/>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="29"/>
       <c r="B388" s="29"/>
       <c r="C388" s="29"/>
@@ -22101,7 +22084,7 @@
       <c r="AR388" s="29"/>
       <c r="AS388" s="29"/>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="29"/>
       <c r="B389" s="29"/>
       <c r="C389" s="29"/>
@@ -22148,7 +22131,7 @@
       <c r="AR389" s="29"/>
       <c r="AS389" s="29"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="29"/>
       <c r="B390" s="29"/>
       <c r="C390" s="29"/>
@@ -22195,7 +22178,7 @@
       <c r="AR390" s="29"/>
       <c r="AS390" s="29"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="29"/>
       <c r="B391" s="29"/>
       <c r="C391" s="29"/>
@@ -22242,7 +22225,7 @@
       <c r="AR391" s="29"/>
       <c r="AS391" s="29"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="29"/>
       <c r="B392" s="29"/>
       <c r="C392" s="29"/>
@@ -22289,7 +22272,7 @@
       <c r="AR392" s="29"/>
       <c r="AS392" s="29"/>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="29"/>
       <c r="B393" s="29"/>
       <c r="C393" s="29"/>
@@ -22336,7 +22319,7 @@
       <c r="AR393" s="29"/>
       <c r="AS393" s="29"/>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="29"/>
       <c r="B394" s="29"/>
       <c r="C394" s="29"/>
@@ -22383,7 +22366,7 @@
       <c r="AR394" s="29"/>
       <c r="AS394" s="29"/>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="29"/>
       <c r="B395" s="29"/>
       <c r="C395" s="29"/>
@@ -22430,7 +22413,7 @@
       <c r="AR395" s="29"/>
       <c r="AS395" s="29"/>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="29"/>
       <c r="B396" s="29"/>
       <c r="C396" s="29"/>
@@ -22477,7 +22460,7 @@
       <c r="AR396" s="29"/>
       <c r="AS396" s="29"/>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="29"/>
       <c r="B397" s="29"/>
       <c r="C397" s="29"/>
@@ -22524,7 +22507,7 @@
       <c r="AR397" s="29"/>
       <c r="AS397" s="29"/>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="29"/>
       <c r="B398" s="29"/>
       <c r="C398" s="29"/>
@@ -22571,7 +22554,7 @@
       <c r="AR398" s="29"/>
       <c r="AS398" s="29"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="29"/>
       <c r="B399" s="29"/>
       <c r="C399" s="29"/>
@@ -22618,7 +22601,7 @@
       <c r="AR399" s="29"/>
       <c r="AS399" s="29"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="29"/>
       <c r="B400" s="29"/>
       <c r="C400" s="29"/>
@@ -22665,7 +22648,7 @@
       <c r="AR400" s="29"/>
       <c r="AS400" s="29"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="29"/>
       <c r="B401" s="29"/>
       <c r="C401" s="29"/>
@@ -22712,7 +22695,7 @@
       <c r="AR401" s="29"/>
       <c r="AS401" s="29"/>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="29"/>
       <c r="B402" s="29"/>
       <c r="C402" s="29"/>
@@ -22759,7 +22742,7 @@
       <c r="AR402" s="29"/>
       <c r="AS402" s="29"/>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="29"/>
       <c r="B403" s="29"/>
       <c r="C403" s="29"/>
@@ -22806,7 +22789,7 @@
       <c r="AR403" s="29"/>
       <c r="AS403" s="29"/>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="29"/>
       <c r="B404" s="29"/>
       <c r="C404" s="29"/>
@@ -22853,7 +22836,7 @@
       <c r="AR404" s="29"/>
       <c r="AS404" s="29"/>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="29"/>
       <c r="B405" s="29"/>
       <c r="C405" s="29"/>
@@ -22900,7 +22883,7 @@
       <c r="AR405" s="29"/>
       <c r="AS405" s="29"/>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="29"/>
       <c r="B406" s="29"/>
       <c r="C406" s="29"/>
@@ -22947,7 +22930,7 @@
       <c r="AR406" s="29"/>
       <c r="AS406" s="29"/>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="29"/>
       <c r="B407" s="29"/>
       <c r="C407" s="29"/>
@@ -22994,7 +22977,7 @@
       <c r="AR407" s="29"/>
       <c r="AS407" s="29"/>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="29"/>
       <c r="B408" s="29"/>
       <c r="C408" s="29"/>
@@ -23041,7 +23024,7 @@
       <c r="AR408" s="29"/>
       <c r="AS408" s="29"/>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="29"/>
       <c r="B409" s="29"/>
       <c r="C409" s="29"/>
@@ -23088,7 +23071,7 @@
       <c r="AR409" s="29"/>
       <c r="AS409" s="29"/>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="29"/>
       <c r="B410" s="29"/>
       <c r="C410" s="29"/>
@@ -23135,7 +23118,7 @@
       <c r="AR410" s="29"/>
       <c r="AS410" s="29"/>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="29"/>
       <c r="B411" s="29"/>
       <c r="C411" s="29"/>
@@ -23182,7 +23165,7 @@
       <c r="AR411" s="29"/>
       <c r="AS411" s="29"/>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="29"/>
       <c r="B412" s="29"/>
       <c r="C412" s="29"/>
@@ -23229,7 +23212,7 @@
       <c r="AR412" s="29"/>
       <c r="AS412" s="29"/>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="29"/>
       <c r="B413" s="29"/>
       <c r="C413" s="29"/>
@@ -23276,7 +23259,7 @@
       <c r="AR413" s="29"/>
       <c r="AS413" s="29"/>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="29"/>
       <c r="B414" s="29"/>
       <c r="C414" s="29"/>
@@ -23323,7 +23306,7 @@
       <c r="AR414" s="29"/>
       <c r="AS414" s="29"/>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="29"/>
       <c r="B415" s="29"/>
       <c r="C415" s="29"/>
@@ -23370,7 +23353,7 @@
       <c r="AR415" s="29"/>
       <c r="AS415" s="29"/>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="29"/>
       <c r="B416" s="29"/>
       <c r="C416" s="29"/>
@@ -23417,7 +23400,7 @@
       <c r="AR416" s="29"/>
       <c r="AS416" s="29"/>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="29"/>
       <c r="B417" s="29"/>
       <c r="C417" s="29"/>
@@ -23464,7 +23447,7 @@
       <c r="AR417" s="29"/>
       <c r="AS417" s="29"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="29"/>
       <c r="B418" s="29"/>
       <c r="C418" s="29"/>
@@ -23511,7 +23494,7 @@
       <c r="AR418" s="29"/>
       <c r="AS418" s="29"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="29"/>
       <c r="B419" s="29"/>
       <c r="C419" s="29"/>
@@ -23558,7 +23541,7 @@
       <c r="AR419" s="29"/>
       <c r="AS419" s="29"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="29"/>
       <c r="B420" s="29"/>
       <c r="C420" s="29"/>
@@ -23605,7 +23588,7 @@
       <c r="AR420" s="29"/>
       <c r="AS420" s="29"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="29"/>
       <c r="B421" s="29"/>
       <c r="C421" s="29"/>
@@ -23652,7 +23635,7 @@
       <c r="AR421" s="29"/>
       <c r="AS421" s="29"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="29"/>
       <c r="B422" s="29"/>
       <c r="C422" s="29"/>
@@ -23699,7 +23682,7 @@
       <c r="AR422" s="29"/>
       <c r="AS422" s="29"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="29"/>
       <c r="B423" s="29"/>
       <c r="C423" s="29"/>
@@ -23746,7 +23729,7 @@
       <c r="AR423" s="29"/>
       <c r="AS423" s="29"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="29"/>
       <c r="B424" s="29"/>
       <c r="C424" s="29"/>
@@ -23793,7 +23776,7 @@
       <c r="AR424" s="29"/>
       <c r="AS424" s="29"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="29"/>
       <c r="B425" s="29"/>
       <c r="C425" s="29"/>
@@ -23840,7 +23823,7 @@
       <c r="AR425" s="29"/>
       <c r="AS425" s="29"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="29"/>
       <c r="B426" s="29"/>
       <c r="C426" s="29"/>
@@ -23887,7 +23870,7 @@
       <c r="AR426" s="29"/>
       <c r="AS426" s="29"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="29"/>
       <c r="B427" s="29"/>
       <c r="C427" s="29"/>
@@ -23934,7 +23917,7 @@
       <c r="AR427" s="29"/>
       <c r="AS427" s="29"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="29"/>
       <c r="B428" s="29"/>
       <c r="C428" s="29"/>
@@ -23981,7 +23964,7 @@
       <c r="AR428" s="29"/>
       <c r="AS428" s="29"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="29"/>
       <c r="B429" s="29"/>
       <c r="C429" s="29"/>
@@ -24028,7 +24011,7 @@
       <c r="AR429" s="29"/>
       <c r="AS429" s="29"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="29"/>
       <c r="B430" s="29"/>
       <c r="C430" s="29"/>
@@ -24075,7 +24058,7 @@
       <c r="AR430" s="29"/>
       <c r="AS430" s="29"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="29"/>
       <c r="B431" s="29"/>
       <c r="C431" s="29"/>
@@ -24122,7 +24105,7 @@
       <c r="AR431" s="29"/>
       <c r="AS431" s="29"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="29"/>
       <c r="B432" s="29"/>
       <c r="C432" s="29"/>
@@ -24169,7 +24152,7 @@
       <c r="AR432" s="29"/>
       <c r="AS432" s="29"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="29"/>
       <c r="B433" s="29"/>
       <c r="C433" s="29"/>
@@ -24216,7 +24199,7 @@
       <c r="AR433" s="29"/>
       <c r="AS433" s="29"/>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="29"/>
       <c r="B434" s="29"/>
       <c r="C434" s="29"/>
@@ -24263,7 +24246,7 @@
       <c r="AR434" s="29"/>
       <c r="AS434" s="29"/>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="29"/>
       <c r="B435" s="29"/>
       <c r="C435" s="29"/>
@@ -24310,7 +24293,7 @@
       <c r="AR435" s="29"/>
       <c r="AS435" s="29"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="29"/>
       <c r="B436" s="29"/>
       <c r="C436" s="29"/>
@@ -24357,7 +24340,7 @@
       <c r="AR436" s="29"/>
       <c r="AS436" s="29"/>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="29"/>
       <c r="B437" s="29"/>
       <c r="C437" s="29"/>
@@ -24404,7 +24387,7 @@
       <c r="AR437" s="29"/>
       <c r="AS437" s="29"/>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="29"/>
       <c r="B438" s="29"/>
       <c r="C438" s="29"/>
@@ -24451,7 +24434,7 @@
       <c r="AR438" s="29"/>
       <c r="AS438" s="29"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="29"/>
       <c r="B439" s="29"/>
       <c r="C439" s="29"/>
@@ -24498,7 +24481,7 @@
       <c r="AR439" s="29"/>
       <c r="AS439" s="29"/>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="29"/>
       <c r="B440" s="29"/>
       <c r="C440" s="29"/>
@@ -24545,7 +24528,7 @@
       <c r="AR440" s="29"/>
       <c r="AS440" s="29"/>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="29"/>
       <c r="B441" s="29"/>
       <c r="C441" s="29"/>
@@ -24592,7 +24575,7 @@
       <c r="AR441" s="29"/>
       <c r="AS441" s="29"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="29"/>
       <c r="B442" s="29"/>
       <c r="C442" s="29"/>
@@ -24639,7 +24622,7 @@
       <c r="AR442" s="29"/>
       <c r="AS442" s="29"/>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="29"/>
       <c r="B443" s="29"/>
       <c r="C443" s="29"/>
@@ -24686,7 +24669,7 @@
       <c r="AR443" s="29"/>
       <c r="AS443" s="29"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="29"/>
       <c r="B444" s="29"/>
       <c r="C444" s="29"/>
@@ -24733,7 +24716,7 @@
       <c r="AR444" s="29"/>
       <c r="AS444" s="29"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="29"/>
       <c r="B445" s="29"/>
       <c r="C445" s="29"/>
@@ -24780,7 +24763,7 @@
       <c r="AR445" s="29"/>
       <c r="AS445" s="29"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="29"/>
       <c r="B446" s="29"/>
       <c r="C446" s="29"/>
@@ -24827,7 +24810,7 @@
       <c r="AR446" s="29"/>
       <c r="AS446" s="29"/>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="29"/>
       <c r="B447" s="29"/>
       <c r="C447" s="29"/>
@@ -24874,7 +24857,7 @@
       <c r="AR447" s="29"/>
       <c r="AS447" s="29"/>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="29"/>
       <c r="B448" s="29"/>
       <c r="C448" s="29"/>
@@ -24921,7 +24904,7 @@
       <c r="AR448" s="29"/>
       <c r="AS448" s="29"/>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="29"/>
       <c r="B449" s="29"/>
       <c r="C449" s="29"/>
@@ -24968,7 +24951,7 @@
       <c r="AR449" s="29"/>
       <c r="AS449" s="29"/>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="29"/>
       <c r="B450" s="29"/>
       <c r="C450" s="29"/>
@@ -25015,7 +24998,7 @@
       <c r="AR450" s="29"/>
       <c r="AS450" s="29"/>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="29"/>
       <c r="B451" s="29"/>
       <c r="C451" s="29"/>
@@ -25062,7 +25045,7 @@
       <c r="AR451" s="29"/>
       <c r="AS451" s="29"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="29"/>
       <c r="B452" s="29"/>
       <c r="C452" s="29"/>
@@ -25109,7 +25092,7 @@
       <c r="AR452" s="29"/>
       <c r="AS452" s="29"/>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="29"/>
       <c r="B453" s="29"/>
       <c r="C453" s="29"/>
@@ -25156,7 +25139,7 @@
       <c r="AR453" s="29"/>
       <c r="AS453" s="29"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="29"/>
       <c r="B454" s="29"/>
       <c r="C454" s="29"/>
@@ -25203,7 +25186,7 @@
       <c r="AR454" s="29"/>
       <c r="AS454" s="29"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="29"/>
       <c r="B455" s="29"/>
       <c r="C455" s="29"/>
@@ -25250,7 +25233,7 @@
       <c r="AR455" s="29"/>
       <c r="AS455" s="29"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="29"/>
       <c r="B456" s="29"/>
       <c r="C456" s="29"/>
@@ -25297,7 +25280,7 @@
       <c r="AR456" s="29"/>
       <c r="AS456" s="29"/>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="29"/>
       <c r="B457" s="29"/>
       <c r="C457" s="29"/>
@@ -25344,7 +25327,7 @@
       <c r="AR457" s="29"/>
       <c r="AS457" s="29"/>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="29"/>
       <c r="B458" s="29"/>
       <c r="C458" s="29"/>
@@ -25391,7 +25374,7 @@
       <c r="AR458" s="29"/>
       <c r="AS458" s="29"/>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="29"/>
       <c r="B459" s="29"/>
       <c r="C459" s="29"/>
@@ -25438,7 +25421,7 @@
       <c r="AR459" s="29"/>
       <c r="AS459" s="29"/>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="29"/>
       <c r="B460" s="29"/>
       <c r="C460" s="29"/>
@@ -25485,7 +25468,7 @@
       <c r="AR460" s="29"/>
       <c r="AS460" s="29"/>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="29"/>
       <c r="B461" s="29"/>
       <c r="C461" s="29"/>
@@ -25532,7 +25515,7 @@
       <c r="AR461" s="29"/>
       <c r="AS461" s="29"/>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="29"/>
       <c r="B462" s="29"/>
       <c r="C462" s="29"/>
@@ -25579,7 +25562,7 @@
       <c r="AR462" s="29"/>
       <c r="AS462" s="29"/>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="29"/>
       <c r="B463" s="29"/>
       <c r="C463" s="29"/>
@@ -25626,7 +25609,7 @@
       <c r="AR463" s="29"/>
       <c r="AS463" s="29"/>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="29"/>
       <c r="B464" s="29"/>
       <c r="C464" s="29"/>
@@ -25673,7 +25656,7 @@
       <c r="AR464" s="29"/>
       <c r="AS464" s="29"/>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="29"/>
       <c r="B465" s="29"/>
       <c r="C465" s="29"/>
@@ -25720,7 +25703,7 @@
       <c r="AR465" s="29"/>
       <c r="AS465" s="29"/>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="29"/>
       <c r="B466" s="29"/>
       <c r="C466" s="29"/>
@@ -25767,7 +25750,7 @@
       <c r="AR466" s="29"/>
       <c r="AS466" s="29"/>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="29"/>
       <c r="B467" s="29"/>
       <c r="C467" s="29"/>
@@ -25814,7 +25797,7 @@
       <c r="AR467" s="29"/>
       <c r="AS467" s="29"/>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="29"/>
       <c r="B468" s="29"/>
       <c r="C468" s="29"/>
@@ -25861,7 +25844,7 @@
       <c r="AR468" s="29"/>
       <c r="AS468" s="29"/>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="29"/>
       <c r="B469" s="29"/>
       <c r="C469" s="29"/>
@@ -25908,7 +25891,7 @@
       <c r="AR469" s="29"/>
       <c r="AS469" s="29"/>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="29"/>
       <c r="B470" s="29"/>
       <c r="C470" s="29"/>
@@ -25955,7 +25938,7 @@
       <c r="AR470" s="29"/>
       <c r="AS470" s="29"/>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="29"/>
       <c r="B471" s="29"/>
       <c r="C471" s="29"/>
@@ -26002,7 +25985,7 @@
       <c r="AR471" s="29"/>
       <c r="AS471" s="29"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="29"/>
       <c r="B472" s="29"/>
       <c r="C472" s="29"/>
@@ -26049,7 +26032,7 @@
       <c r="AR472" s="29"/>
       <c r="AS472" s="29"/>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="29"/>
       <c r="B473" s="29"/>
       <c r="C473" s="29"/>
@@ -26096,7 +26079,7 @@
       <c r="AR473" s="29"/>
       <c r="AS473" s="29"/>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="29"/>
       <c r="B474" s="29"/>
       <c r="C474" s="29"/>
@@ -26143,7 +26126,7 @@
       <c r="AR474" s="29"/>
       <c r="AS474" s="29"/>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="29"/>
       <c r="B475" s="29"/>
       <c r="C475" s="29"/>
@@ -26190,7 +26173,7 @@
       <c r="AR475" s="29"/>
       <c r="AS475" s="29"/>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="29"/>
       <c r="B476" s="29"/>
       <c r="C476" s="29"/>
@@ -26237,7 +26220,7 @@
       <c r="AR476" s="29"/>
       <c r="AS476" s="29"/>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="29"/>
       <c r="B477" s="29"/>
       <c r="C477" s="29"/>
@@ -26284,7 +26267,7 @@
       <c r="AR477" s="29"/>
       <c r="AS477" s="29"/>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="29"/>
       <c r="B478" s="29"/>
       <c r="C478" s="29"/>
@@ -26331,7 +26314,7 @@
       <c r="AR478" s="29"/>
       <c r="AS478" s="29"/>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="29"/>
       <c r="B479" s="29"/>
       <c r="C479" s="29"/>
@@ -26378,7 +26361,7 @@
       <c r="AR479" s="29"/>
       <c r="AS479" s="29"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="29"/>
       <c r="B480" s="29"/>
       <c r="C480" s="29"/>
@@ -26425,7 +26408,7 @@
       <c r="AR480" s="29"/>
       <c r="AS480" s="29"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="29"/>
       <c r="B481" s="29"/>
       <c r="C481" s="29"/>
@@ -26472,7 +26455,7 @@
       <c r="AR481" s="29"/>
       <c r="AS481" s="29"/>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="29"/>
       <c r="B482" s="29"/>
       <c r="C482" s="29"/>
@@ -26519,7 +26502,7 @@
       <c r="AR482" s="29"/>
       <c r="AS482" s="29"/>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="29"/>
       <c r="B483" s="29"/>
       <c r="C483" s="29"/>
@@ -26566,7 +26549,7 @@
       <c r="AR483" s="29"/>
       <c r="AS483" s="29"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="29"/>
       <c r="B484" s="29"/>
       <c r="C484" s="29"/>
@@ -26613,7 +26596,7 @@
       <c r="AR484" s="29"/>
       <c r="AS484" s="29"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="29"/>
       <c r="B485" s="29"/>
       <c r="C485" s="29"/>
@@ -26660,7 +26643,7 @@
       <c r="AR485" s="29"/>
       <c r="AS485" s="29"/>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="29"/>
       <c r="B486" s="29"/>
       <c r="C486" s="29"/>
@@ -26707,7 +26690,7 @@
       <c r="AR486" s="29"/>
       <c r="AS486" s="29"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="29"/>
       <c r="B487" s="29"/>
       <c r="C487" s="29"/>
@@ -26754,7 +26737,7 @@
       <c r="AR487" s="29"/>
       <c r="AS487" s="29"/>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="29"/>
       <c r="B488" s="29"/>
       <c r="C488" s="29"/>
@@ -26801,7 +26784,7 @@
       <c r="AR488" s="29"/>
       <c r="AS488" s="29"/>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="29"/>
       <c r="B489" s="29"/>
       <c r="C489" s="29"/>
@@ -26848,7 +26831,7 @@
       <c r="AR489" s="29"/>
       <c r="AS489" s="29"/>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="29"/>
       <c r="B490" s="29"/>
       <c r="C490" s="29"/>
@@ -26895,7 +26878,7 @@
       <c r="AR490" s="29"/>
       <c r="AS490" s="29"/>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="29"/>
       <c r="B491" s="29"/>
       <c r="C491" s="29"/>
@@ -26942,7 +26925,7 @@
       <c r="AR491" s="29"/>
       <c r="AS491" s="29"/>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="29"/>
       <c r="B492" s="29"/>
       <c r="C492" s="29"/>
@@ -26989,7 +26972,7 @@
       <c r="AR492" s="29"/>
       <c r="AS492" s="29"/>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="29"/>
       <c r="B493" s="29"/>
       <c r="C493" s="29"/>
@@ -27036,7 +27019,7 @@
       <c r="AR493" s="29"/>
       <c r="AS493" s="29"/>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="29"/>
       <c r="B494" s="29"/>
       <c r="C494" s="29"/>
@@ -27083,7 +27066,7 @@
       <c r="AR494" s="29"/>
       <c r="AS494" s="29"/>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="29"/>
       <c r="B495" s="29"/>
       <c r="C495" s="29"/>
@@ -27130,7 +27113,7 @@
       <c r="AR495" s="29"/>
       <c r="AS495" s="29"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="29"/>
       <c r="B496" s="29"/>
       <c r="C496" s="29"/>
@@ -27177,7 +27160,7 @@
       <c r="AR496" s="29"/>
       <c r="AS496" s="29"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="29"/>
       <c r="B497" s="29"/>
       <c r="C497" s="29"/>
@@ -27224,7 +27207,7 @@
       <c r="AR497" s="29"/>
       <c r="AS497" s="29"/>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="29"/>
       <c r="B498" s="29"/>
       <c r="C498" s="29"/>
@@ -27271,7 +27254,7 @@
       <c r="AR498" s="29"/>
       <c r="AS498" s="29"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="29"/>
       <c r="B499" s="29"/>
       <c r="C499" s="29"/>
@@ -27318,7 +27301,7 @@
       <c r="AR499" s="29"/>
       <c r="AS499" s="29"/>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="29"/>
       <c r="B500" s="29"/>
       <c r="C500" s="29"/>
@@ -27365,7 +27348,7 @@
       <c r="AR500" s="29"/>
       <c r="AS500" s="29"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="29"/>
       <c r="B501" s="29"/>
       <c r="C501" s="29"/>
@@ -27412,7 +27395,7 @@
       <c r="AR501" s="29"/>
       <c r="AS501" s="29"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="29"/>
       <c r="B502" s="29"/>
       <c r="C502" s="29"/>
@@ -27459,7 +27442,7 @@
       <c r="AR502" s="29"/>
       <c r="AS502" s="29"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="29"/>
       <c r="B503" s="29"/>
       <c r="C503" s="29"/>
@@ -27506,7 +27489,7 @@
       <c r="AR503" s="29"/>
       <c r="AS503" s="29"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="29"/>
       <c r="B504" s="29"/>
       <c r="C504" s="29"/>
@@ -27553,7 +27536,7 @@
       <c r="AR504" s="29"/>
       <c r="AS504" s="29"/>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="29"/>
       <c r="B505" s="29"/>
       <c r="C505" s="29"/>
@@ -27600,7 +27583,7 @@
       <c r="AR505" s="29"/>
       <c r="AS505" s="29"/>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="29"/>
       <c r="B506" s="29"/>
       <c r="C506" s="29"/>
@@ -27647,7 +27630,7 @@
       <c r="AR506" s="29"/>
       <c r="AS506" s="29"/>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="29"/>
       <c r="B507" s="29"/>
       <c r="C507" s="29"/>
@@ -27694,7 +27677,7 @@
       <c r="AR507" s="29"/>
       <c r="AS507" s="29"/>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="29"/>
       <c r="B508" s="29"/>
       <c r="C508" s="29"/>
@@ -27741,7 +27724,7 @@
       <c r="AR508" s="29"/>
       <c r="AS508" s="29"/>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="29"/>
       <c r="B509" s="29"/>
       <c r="C509" s="29"/>
@@ -27788,7 +27771,7 @@
       <c r="AR509" s="29"/>
       <c r="AS509" s="29"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="29"/>
       <c r="B510" s="29"/>
       <c r="C510" s="29"/>
@@ -27835,7 +27818,7 @@
       <c r="AR510" s="29"/>
       <c r="AS510" s="29"/>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="29"/>
       <c r="B511" s="29"/>
       <c r="C511" s="29"/>
@@ -27882,7 +27865,7 @@
       <c r="AR511" s="29"/>
       <c r="AS511" s="29"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="29"/>
       <c r="B512" s="29"/>
       <c r="C512" s="29"/>
@@ -27929,7 +27912,7 @@
       <c r="AR512" s="29"/>
       <c r="AS512" s="29"/>
     </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="29"/>
       <c r="B513" s="29"/>
       <c r="C513" s="29"/>
@@ -27976,7 +27959,7 @@
       <c r="AR513" s="29"/>
       <c r="AS513" s="29"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="29"/>
       <c r="B514" s="29"/>
       <c r="C514" s="29"/>
@@ -28023,7 +28006,7 @@
       <c r="AR514" s="29"/>
       <c r="AS514" s="29"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="29"/>
       <c r="B515" s="29"/>
       <c r="C515" s="29"/>
@@ -28070,7 +28053,7 @@
       <c r="AR515" s="29"/>
       <c r="AS515" s="29"/>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="29"/>
       <c r="B516" s="29"/>
       <c r="C516" s="29"/>
@@ -28117,7 +28100,7 @@
       <c r="AR516" s="29"/>
       <c r="AS516" s="29"/>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="29"/>
       <c r="B517" s="29"/>
       <c r="C517" s="29"/>
@@ -28164,7 +28147,7 @@
       <c r="AR517" s="29"/>
       <c r="AS517" s="29"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="29"/>
       <c r="B518" s="29"/>
       <c r="C518" s="29"/>
@@ -28211,7 +28194,7 @@
       <c r="AR518" s="29"/>
       <c r="AS518" s="29"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="29"/>
       <c r="B519" s="29"/>
       <c r="C519" s="29"/>
@@ -28258,7 +28241,7 @@
       <c r="AR519" s="29"/>
       <c r="AS519" s="29"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="29"/>
       <c r="B520" s="29"/>
       <c r="C520" s="29"/>
@@ -28305,7 +28288,7 @@
       <c r="AR520" s="29"/>
       <c r="AS520" s="29"/>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="29"/>
       <c r="B521" s="29"/>
       <c r="C521" s="29"/>
@@ -28352,7 +28335,7 @@
       <c r="AR521" s="29"/>
       <c r="AS521" s="29"/>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="29"/>
       <c r="B522" s="29"/>
       <c r="C522" s="29"/>
@@ -28399,7 +28382,7 @@
       <c r="AR522" s="29"/>
       <c r="AS522" s="29"/>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="29"/>
       <c r="B523" s="29"/>
       <c r="C523" s="29"/>
@@ -28446,7 +28429,7 @@
       <c r="AR523" s="29"/>
       <c r="AS523" s="29"/>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="29"/>
       <c r="B524" s="29"/>
       <c r="C524" s="29"/>
@@ -28493,7 +28476,7 @@
       <c r="AR524" s="29"/>
       <c r="AS524" s="29"/>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="29"/>
       <c r="B525" s="29"/>
       <c r="C525" s="29"/>
@@ -28540,7 +28523,7 @@
       <c r="AR525" s="29"/>
       <c r="AS525" s="29"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="29"/>
       <c r="B526" s="29"/>
       <c r="C526" s="29"/>
@@ -28587,7 +28570,7 @@
       <c r="AR526" s="29"/>
       <c r="AS526" s="29"/>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="29"/>
       <c r="B527" s="29"/>
       <c r="C527" s="29"/>
@@ -28634,7 +28617,7 @@
       <c r="AR527" s="29"/>
       <c r="AS527" s="29"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="29"/>
       <c r="B528" s="29"/>
       <c r="C528" s="29"/>
@@ -28681,7 +28664,7 @@
       <c r="AR528" s="29"/>
       <c r="AS528" s="29"/>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="29"/>
       <c r="B529" s="29"/>
       <c r="C529" s="29"/>
@@ -28728,7 +28711,7 @@
       <c r="AR529" s="29"/>
       <c r="AS529" s="29"/>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="29"/>
       <c r="B530" s="29"/>
       <c r="C530" s="29"/>
@@ -28775,7 +28758,7 @@
       <c r="AR530" s="29"/>
       <c r="AS530" s="29"/>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="29"/>
       <c r="B531" s="29"/>
       <c r="C531" s="29"/>
@@ -28822,7 +28805,7 @@
       <c r="AR531" s="29"/>
       <c r="AS531" s="29"/>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="29"/>
       <c r="B532" s="29"/>
       <c r="C532" s="29"/>
@@ -28869,7 +28852,7 @@
       <c r="AR532" s="29"/>
       <c r="AS532" s="29"/>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="29"/>
       <c r="B533" s="29"/>
       <c r="C533" s="29"/>
@@ -28916,7 +28899,7 @@
       <c r="AR533" s="29"/>
       <c r="AS533" s="29"/>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="29"/>
       <c r="B534" s="29"/>
       <c r="C534" s="29"/>
@@ -28963,7 +28946,7 @@
       <c r="AR534" s="29"/>
       <c r="AS534" s="29"/>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="29"/>
       <c r="B535" s="29"/>
       <c r="C535" s="29"/>
@@ -29010,7 +28993,7 @@
       <c r="AR535" s="29"/>
       <c r="AS535" s="29"/>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="29"/>
       <c r="B536" s="29"/>
       <c r="C536" s="29"/>
@@ -29057,7 +29040,7 @@
       <c r="AR536" s="29"/>
       <c r="AS536" s="29"/>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="29"/>
       <c r="B537" s="29"/>
       <c r="C537" s="29"/>
@@ -29104,7 +29087,7 @@
       <c r="AR537" s="29"/>
       <c r="AS537" s="29"/>
     </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="29"/>
       <c r="B538" s="29"/>
       <c r="C538" s="29"/>
@@ -29151,7 +29134,7 @@
       <c r="AR538" s="29"/>
       <c r="AS538" s="29"/>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="29"/>
       <c r="B539" s="29"/>
       <c r="C539" s="29"/>
@@ -29198,7 +29181,7 @@
       <c r="AR539" s="29"/>
       <c r="AS539" s="29"/>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="29"/>
       <c r="B540" s="29"/>
       <c r="C540" s="29"/>
@@ -29245,7 +29228,7 @@
       <c r="AR540" s="29"/>
       <c r="AS540" s="29"/>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="29"/>
       <c r="B541" s="29"/>
       <c r="C541" s="29"/>
@@ -29292,7 +29275,7 @@
       <c r="AR541" s="29"/>
       <c r="AS541" s="29"/>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="29"/>
       <c r="B542" s="29"/>
       <c r="C542" s="29"/>
@@ -29339,7 +29322,7 @@
       <c r="AR542" s="29"/>
       <c r="AS542" s="29"/>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="29"/>
       <c r="B543" s="29"/>
       <c r="C543" s="29"/>
@@ -29386,7 +29369,7 @@
       <c r="AR543" s="29"/>
       <c r="AS543" s="29"/>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="29"/>
       <c r="B544" s="29"/>
       <c r="C544" s="29"/>
@@ -29433,7 +29416,7 @@
       <c r="AR544" s="29"/>
       <c r="AS544" s="29"/>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="29"/>
       <c r="B545" s="29"/>
       <c r="C545" s="29"/>
@@ -29480,7 +29463,7 @@
       <c r="AR545" s="29"/>
       <c r="AS545" s="29"/>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="29"/>
       <c r="B546" s="29"/>
       <c r="C546" s="29"/>
@@ -29527,7 +29510,7 @@
       <c r="AR546" s="29"/>
       <c r="AS546" s="29"/>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="29"/>
       <c r="B547" s="29"/>
       <c r="C547" s="29"/>
@@ -29574,7 +29557,7 @@
       <c r="AR547" s="29"/>
       <c r="AS547" s="29"/>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="29"/>
       <c r="B548" s="29"/>
       <c r="C548" s="29"/>
@@ -29621,7 +29604,7 @@
       <c r="AR548" s="29"/>
       <c r="AS548" s="29"/>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="29"/>
       <c r="B549" s="29"/>
       <c r="C549" s="29"/>
@@ -29668,7 +29651,7 @@
       <c r="AR549" s="29"/>
       <c r="AS549" s="29"/>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="29"/>
       <c r="B550" s="29"/>
       <c r="C550" s="29"/>
@@ -29715,7 +29698,7 @@
       <c r="AR550" s="29"/>
       <c r="AS550" s="29"/>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="29"/>
       <c r="B551" s="29"/>
       <c r="C551" s="29"/>
@@ -29762,7 +29745,7 @@
       <c r="AR551" s="29"/>
       <c r="AS551" s="29"/>
     </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="29"/>
       <c r="B552" s="29"/>
       <c r="C552" s="29"/>
@@ -29809,7 +29792,7 @@
       <c r="AR552" s="29"/>
       <c r="AS552" s="29"/>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="29"/>
       <c r="B553" s="29"/>
       <c r="C553" s="29"/>
@@ -29856,7 +29839,7 @@
       <c r="AR553" s="29"/>
       <c r="AS553" s="29"/>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="29"/>
       <c r="B554" s="29"/>
       <c r="C554" s="29"/>
@@ -29903,7 +29886,7 @@
       <c r="AR554" s="29"/>
       <c r="AS554" s="29"/>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="29"/>
       <c r="B555" s="29"/>
       <c r="C555" s="29"/>
@@ -29950,7 +29933,7 @@
       <c r="AR555" s="29"/>
       <c r="AS555" s="29"/>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="29"/>
       <c r="B556" s="29"/>
       <c r="C556" s="29"/>
@@ -29997,7 +29980,7 @@
       <c r="AR556" s="29"/>
       <c r="AS556" s="29"/>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="29"/>
       <c r="B557" s="29"/>
       <c r="C557" s="29"/>
@@ -30044,7 +30027,7 @@
       <c r="AR557" s="29"/>
       <c r="AS557" s="29"/>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="29"/>
       <c r="B558" s="29"/>
       <c r="C558" s="29"/>
@@ -30091,7 +30074,7 @@
       <c r="AR558" s="29"/>
       <c r="AS558" s="29"/>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="29"/>
       <c r="B559" s="29"/>
       <c r="C559" s="29"/>
@@ -30138,7 +30121,7 @@
       <c r="AR559" s="29"/>
       <c r="AS559" s="29"/>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="29"/>
       <c r="B560" s="29"/>
       <c r="C560" s="29"/>
@@ -30185,7 +30168,7 @@
       <c r="AR560" s="29"/>
       <c r="AS560" s="29"/>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="29"/>
       <c r="B561" s="29"/>
       <c r="C561" s="29"/>
@@ -30232,7 +30215,7 @@
       <c r="AR561" s="29"/>
       <c r="AS561" s="29"/>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="29"/>
       <c r="B562" s="29"/>
       <c r="C562" s="29"/>
@@ -30279,7 +30262,7 @@
       <c r="AR562" s="29"/>
       <c r="AS562" s="29"/>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="29"/>
       <c r="B563" s="29"/>
       <c r="C563" s="29"/>
@@ -30326,7 +30309,7 @@
       <c r="AR563" s="29"/>
       <c r="AS563" s="29"/>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="29"/>
       <c r="B564" s="29"/>
       <c r="C564" s="29"/>
@@ -30373,7 +30356,7 @@
       <c r="AR564" s="29"/>
       <c r="AS564" s="29"/>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="29"/>
       <c r="B565" s="29"/>
       <c r="C565" s="29"/>
@@ -30420,7 +30403,7 @@
       <c r="AR565" s="29"/>
       <c r="AS565" s="29"/>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="29"/>
       <c r="B566" s="29"/>
       <c r="C566" s="29"/>
@@ -30467,7 +30450,7 @@
       <c r="AR566" s="29"/>
       <c r="AS566" s="29"/>
     </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="29"/>
       <c r="B567" s="29"/>
       <c r="C567" s="29"/>
@@ -30514,7 +30497,7 @@
       <c r="AR567" s="29"/>
       <c r="AS567" s="29"/>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="29"/>
       <c r="B568" s="29"/>
       <c r="C568" s="29"/>
@@ -30561,7 +30544,7 @@
       <c r="AR568" s="29"/>
       <c r="AS568" s="29"/>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="29"/>
       <c r="B569" s="29"/>
       <c r="C569" s="29"/>
@@ -30608,7 +30591,7 @@
       <c r="AR569" s="29"/>
       <c r="AS569" s="29"/>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="29"/>
       <c r="B570" s="29"/>
       <c r="C570" s="29"/>
@@ -30655,7 +30638,7 @@
       <c r="AR570" s="29"/>
       <c r="AS570" s="29"/>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="29"/>
       <c r="B571" s="29"/>
       <c r="C571" s="29"/>
@@ -30702,7 +30685,7 @@
       <c r="AR571" s="29"/>
       <c r="AS571" s="29"/>
     </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="29"/>
       <c r="B572" s="29"/>
       <c r="C572" s="29"/>
@@ -30749,7 +30732,7 @@
       <c r="AR572" s="29"/>
       <c r="AS572" s="29"/>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="29"/>
       <c r="B573" s="29"/>
       <c r="C573" s="29"/>
@@ -30796,7 +30779,7 @@
       <c r="AR573" s="29"/>
       <c r="AS573" s="29"/>
     </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="29"/>
       <c r="B574" s="29"/>
       <c r="C574" s="29"/>
@@ -30843,7 +30826,7 @@
       <c r="AR574" s="29"/>
       <c r="AS574" s="29"/>
     </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="29"/>
       <c r="B575" s="29"/>
       <c r="C575" s="29"/>
@@ -30890,7 +30873,7 @@
       <c r="AR575" s="29"/>
       <c r="AS575" s="29"/>
     </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="29"/>
       <c r="B576" s="29"/>
       <c r="C576" s="29"/>
@@ -30937,7 +30920,7 @@
       <c r="AR576" s="29"/>
       <c r="AS576" s="29"/>
     </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="29"/>
       <c r="B577" s="29"/>
       <c r="C577" s="29"/>
@@ -30984,7 +30967,7 @@
       <c r="AR577" s="29"/>
       <c r="AS577" s="29"/>
     </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="29"/>
       <c r="B578" s="29"/>
       <c r="C578" s="29"/>
@@ -31031,7 +31014,7 @@
       <c r="AR578" s="29"/>
       <c r="AS578" s="29"/>
     </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="29"/>
       <c r="B579" s="29"/>
       <c r="C579" s="29"/>
@@ -31078,7 +31061,7 @@
       <c r="AR579" s="29"/>
       <c r="AS579" s="29"/>
     </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="29"/>
       <c r="B580" s="29"/>
       <c r="C580" s="29"/>
@@ -31125,7 +31108,7 @@
       <c r="AR580" s="29"/>
       <c r="AS580" s="29"/>
     </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="29"/>
       <c r="B581" s="29"/>
       <c r="C581" s="29"/>
@@ -31172,7 +31155,7 @@
       <c r="AR581" s="29"/>
       <c r="AS581" s="29"/>
     </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="29"/>
       <c r="B582" s="29"/>
       <c r="C582" s="29"/>
@@ -31219,7 +31202,7 @@
       <c r="AR582" s="29"/>
       <c r="AS582" s="29"/>
     </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="29"/>
       <c r="B583" s="29"/>
       <c r="C583" s="29"/>
@@ -31266,7 +31249,7 @@
       <c r="AR583" s="29"/>
       <c r="AS583" s="29"/>
     </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="29"/>
       <c r="B584" s="29"/>
       <c r="C584" s="29"/>
@@ -31313,7 +31296,7 @@
       <c r="AR584" s="29"/>
       <c r="AS584" s="29"/>
     </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="29"/>
       <c r="B585" s="29"/>
       <c r="C585" s="29"/>
@@ -31360,7 +31343,7 @@
       <c r="AR585" s="29"/>
       <c r="AS585" s="29"/>
     </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="29"/>
       <c r="B586" s="29"/>
       <c r="C586" s="29"/>
@@ -31407,7 +31390,7 @@
       <c r="AR586" s="29"/>
       <c r="AS586" s="29"/>
     </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="29"/>
       <c r="B587" s="29"/>
       <c r="C587" s="29"/>
@@ -31454,7 +31437,7 @@
       <c r="AR587" s="29"/>
       <c r="AS587" s="29"/>
     </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="29"/>
       <c r="B588" s="29"/>
       <c r="C588" s="29"/>
@@ -31501,7 +31484,7 @@
       <c r="AR588" s="29"/>
       <c r="AS588" s="29"/>
     </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="29"/>
       <c r="B589" s="29"/>
       <c r="C589" s="29"/>
@@ -31548,7 +31531,7 @@
       <c r="AR589" s="29"/>
       <c r="AS589" s="29"/>
     </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="29"/>
       <c r="B590" s="29"/>
       <c r="C590" s="29"/>
@@ -31595,7 +31578,7 @@
       <c r="AR590" s="29"/>
       <c r="AS590" s="29"/>
     </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="29"/>
       <c r="B591" s="29"/>
       <c r="C591" s="29"/>
@@ -31642,7 +31625,7 @@
       <c r="AR591" s="29"/>
       <c r="AS591" s="29"/>
     </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="29"/>
       <c r="B592" s="29"/>
       <c r="C592" s="29"/>
@@ -31689,7 +31672,7 @@
       <c r="AR592" s="29"/>
       <c r="AS592" s="29"/>
     </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="29"/>
       <c r="B593" s="29"/>
       <c r="C593" s="29"/>
@@ -31736,7 +31719,7 @@
       <c r="AR593" s="29"/>
       <c r="AS593" s="29"/>
     </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="29"/>
       <c r="B594" s="29"/>
       <c r="C594" s="29"/>
@@ -31783,7 +31766,7 @@
       <c r="AR594" s="29"/>
       <c r="AS594" s="29"/>
     </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="29"/>
       <c r="B595" s="29"/>
       <c r="C595" s="29"/>
@@ -31830,7 +31813,7 @@
       <c r="AR595" s="29"/>
       <c r="AS595" s="29"/>
     </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="29"/>
       <c r="B596" s="29"/>
       <c r="C596" s="29"/>
@@ -31877,7 +31860,7 @@
       <c r="AR596" s="29"/>
       <c r="AS596" s="29"/>
     </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="29"/>
       <c r="B597" s="29"/>
       <c r="C597" s="29"/>
@@ -31924,7 +31907,7 @@
       <c r="AR597" s="29"/>
       <c r="AS597" s="29"/>
     </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="29"/>
       <c r="B598" s="29"/>
       <c r="C598" s="29"/>
@@ -31971,7 +31954,7 @@
       <c r="AR598" s="29"/>
       <c r="AS598" s="29"/>
     </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="29"/>
       <c r="B599" s="29"/>
       <c r="C599" s="29"/>
@@ -32018,7 +32001,7 @@
       <c r="AR599" s="29"/>
       <c r="AS599" s="29"/>
     </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="29"/>
       <c r="B600" s="29"/>
       <c r="C600" s="29"/>
@@ -32065,7 +32048,7 @@
       <c r="AR600" s="29"/>
       <c r="AS600" s="29"/>
     </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="29"/>
       <c r="B601" s="29"/>
       <c r="C601" s="29"/>
@@ -32112,7 +32095,7 @@
       <c r="AR601" s="29"/>
       <c r="AS601" s="29"/>
     </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="29"/>
       <c r="B602" s="29"/>
       <c r="C602" s="29"/>
@@ -32159,7 +32142,7 @@
       <c r="AR602" s="29"/>
       <c r="AS602" s="29"/>
     </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="29"/>
       <c r="B603" s="29"/>
       <c r="C603" s="29"/>
@@ -32206,7 +32189,7 @@
       <c r="AR603" s="29"/>
       <c r="AS603" s="29"/>
     </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="29"/>
       <c r="B604" s="29"/>
       <c r="C604" s="29"/>
@@ -32253,7 +32236,7 @@
       <c r="AR604" s="29"/>
       <c r="AS604" s="29"/>
     </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="29"/>
       <c r="B605" s="29"/>
       <c r="C605" s="29"/>
@@ -32300,7 +32283,7 @@
       <c r="AR605" s="29"/>
       <c r="AS605" s="29"/>
     </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="29"/>
       <c r="B606" s="29"/>
       <c r="C606" s="29"/>
@@ -32347,7 +32330,7 @@
       <c r="AR606" s="29"/>
       <c r="AS606" s="29"/>
     </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="29"/>
       <c r="B607" s="29"/>
       <c r="C607" s="29"/>
@@ -32394,7 +32377,7 @@
       <c r="AR607" s="29"/>
       <c r="AS607" s="29"/>
     </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="29"/>
       <c r="B608" s="29"/>
       <c r="C608" s="29"/>
@@ -32441,7 +32424,7 @@
       <c r="AR608" s="29"/>
       <c r="AS608" s="29"/>
     </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="29"/>
       <c r="B609" s="29"/>
       <c r="C609" s="29"/>
@@ -32488,7 +32471,7 @@
       <c r="AR609" s="29"/>
       <c r="AS609" s="29"/>
     </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="29"/>
       <c r="B610" s="29"/>
       <c r="C610" s="29"/>
@@ -32535,7 +32518,7 @@
       <c r="AR610" s="29"/>
       <c r="AS610" s="29"/>
     </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="29"/>
       <c r="B611" s="29"/>
       <c r="C611" s="29"/>
@@ -32582,7 +32565,7 @@
       <c r="AR611" s="29"/>
       <c r="AS611" s="29"/>
     </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="29"/>
       <c r="B612" s="29"/>
       <c r="C612" s="29"/>
@@ -32629,7 +32612,7 @@
       <c r="AR612" s="29"/>
       <c r="AS612" s="29"/>
     </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="29"/>
       <c r="B613" s="29"/>
       <c r="C613" s="29"/>
@@ -32676,7 +32659,7 @@
       <c r="AR613" s="29"/>
       <c r="AS613" s="29"/>
     </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="29"/>
       <c r="B614" s="29"/>
       <c r="C614" s="29"/>
@@ -32723,7 +32706,7 @@
       <c r="AR614" s="29"/>
       <c r="AS614" s="29"/>
     </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="29"/>
       <c r="B615" s="29"/>
       <c r="C615" s="29"/>
@@ -32770,7 +32753,7 @@
       <c r="AR615" s="29"/>
       <c r="AS615" s="29"/>
     </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="29"/>
       <c r="B616" s="29"/>
       <c r="C616" s="29"/>
@@ -32817,7 +32800,7 @@
       <c r="AR616" s="29"/>
       <c r="AS616" s="29"/>
     </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="29"/>
       <c r="B617" s="29"/>
       <c r="C617" s="29"/>
@@ -32864,7 +32847,7 @@
       <c r="AR617" s="29"/>
       <c r="AS617" s="29"/>
     </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="29"/>
       <c r="B618" s="29"/>
       <c r="C618" s="29"/>
@@ -32911,7 +32894,7 @@
       <c r="AR618" s="29"/>
       <c r="AS618" s="29"/>
     </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="29"/>
       <c r="B619" s="29"/>
       <c r="C619" s="29"/>
@@ -32958,7 +32941,7 @@
       <c r="AR619" s="29"/>
       <c r="AS619" s="29"/>
     </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="29"/>
       <c r="B620" s="29"/>
       <c r="C620" s="29"/>
@@ -33005,7 +32988,7 @@
       <c r="AR620" s="29"/>
       <c r="AS620" s="29"/>
     </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="29"/>
       <c r="B621" s="29"/>
       <c r="C621" s="29"/>
@@ -33052,7 +33035,7 @@
       <c r="AR621" s="29"/>
       <c r="AS621" s="29"/>
     </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="29"/>
       <c r="B622" s="29"/>
       <c r="C622" s="29"/>
@@ -33099,7 +33082,7 @@
       <c r="AR622" s="29"/>
       <c r="AS622" s="29"/>
     </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="29"/>
       <c r="B623" s="29"/>
       <c r="C623" s="29"/>
@@ -33146,7 +33129,7 @@
       <c r="AR623" s="29"/>
       <c r="AS623" s="29"/>
     </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="29"/>
       <c r="B624" s="29"/>
       <c r="C624" s="29"/>
@@ -33193,7 +33176,7 @@
       <c r="AR624" s="29"/>
       <c r="AS624" s="29"/>
     </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="29"/>
       <c r="B625" s="29"/>
       <c r="C625" s="29"/>
@@ -33240,7 +33223,7 @@
       <c r="AR625" s="29"/>
       <c r="AS625" s="29"/>
     </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="29"/>
       <c r="B626" s="29"/>
       <c r="C626" s="29"/>
@@ -33287,7 +33270,7 @@
       <c r="AR626" s="29"/>
       <c r="AS626" s="29"/>
     </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="29"/>
       <c r="B627" s="29"/>
       <c r="C627" s="29"/>
@@ -33334,7 +33317,7 @@
       <c r="AR627" s="29"/>
       <c r="AS627" s="29"/>
     </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="29"/>
       <c r="B628" s="29"/>
       <c r="C628" s="29"/>
@@ -33381,7 +33364,7 @@
       <c r="AR628" s="29"/>
       <c r="AS628" s="29"/>
     </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="29"/>
       <c r="B629" s="29"/>
       <c r="C629" s="29"/>
@@ -33428,7 +33411,7 @@
       <c r="AR629" s="29"/>
       <c r="AS629" s="29"/>
     </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="29"/>
       <c r="B630" s="29"/>
       <c r="C630" s="29"/>
@@ -33475,7 +33458,7 @@
       <c r="AR630" s="29"/>
       <c r="AS630" s="29"/>
     </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="29"/>
       <c r="B631" s="29"/>
       <c r="C631" s="29"/>
@@ -33522,7 +33505,7 @@
       <c r="AR631" s="29"/>
       <c r="AS631" s="29"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="29"/>
       <c r="B632" s="29"/>
       <c r="C632" s="29"/>
@@ -33569,7 +33552,7 @@
       <c r="AR632" s="29"/>
       <c r="AS632" s="29"/>
     </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="29"/>
       <c r="B633" s="29"/>
       <c r="C633" s="29"/>
@@ -33616,7 +33599,7 @@
       <c r="AR633" s="29"/>
       <c r="AS633" s="29"/>
     </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="29"/>
       <c r="B634" s="29"/>
       <c r="C634" s="29"/>
@@ -33663,7 +33646,7 @@
       <c r="AR634" s="29"/>
       <c r="AS634" s="29"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="29"/>
       <c r="B635" s="29"/>
       <c r="C635" s="29"/>
@@ -33710,7 +33693,7 @@
       <c r="AR635" s="29"/>
       <c r="AS635" s="29"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="29"/>
       <c r="B636" s="29"/>
       <c r="C636" s="29"/>
@@ -33757,7 +33740,7 @@
       <c r="AR636" s="29"/>
       <c r="AS636" s="29"/>
     </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="29"/>
       <c r="B637" s="29"/>
       <c r="C637" s="29"/>
@@ -33804,7 +33787,7 @@
       <c r="AR637" s="29"/>
       <c r="AS637" s="29"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="29"/>
       <c r="B638" s="29"/>
       <c r="C638" s="29"/>
@@ -33851,7 +33834,7 @@
       <c r="AR638" s="29"/>
       <c r="AS638" s="29"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="29"/>
       <c r="B639" s="29"/>
       <c r="C639" s="29"/>
@@ -33898,7 +33881,7 @@
       <c r="AR639" s="29"/>
       <c r="AS639" s="29"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="29"/>
       <c r="B640" s="29"/>
       <c r="C640" s="29"/>
@@ -33945,7 +33928,7 @@
       <c r="AR640" s="29"/>
       <c r="AS640" s="29"/>
     </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="29"/>
       <c r="B641" s="29"/>
       <c r="C641" s="29"/>
@@ -33992,7 +33975,7 @@
       <c r="AR641" s="29"/>
       <c r="AS641" s="29"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="29"/>
       <c r="B642" s="29"/>
       <c r="C642" s="29"/>
@@ -34039,7 +34022,7 @@
       <c r="AR642" s="29"/>
       <c r="AS642" s="29"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="29"/>
       <c r="B643" s="29"/>
       <c r="C643" s="29"/>
@@ -34086,7 +34069,7 @@
       <c r="AR643" s="29"/>
       <c r="AS643" s="29"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="29"/>
       <c r="B644" s="29"/>
       <c r="C644" s="29"/>
@@ -34133,7 +34116,7 @@
       <c r="AR644" s="29"/>
       <c r="AS644" s="29"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="29"/>
       <c r="B645" s="29"/>
       <c r="C645" s="29"/>
@@ -34180,7 +34163,7 @@
       <c r="AR645" s="29"/>
       <c r="AS645" s="29"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="29"/>
       <c r="B646" s="29"/>
       <c r="C646" s="29"/>
@@ -34227,7 +34210,7 @@
       <c r="AR646" s="29"/>
       <c r="AS646" s="29"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="29"/>
       <c r="B647" s="29"/>
       <c r="C647" s="29"/>
@@ -34274,7 +34257,7 @@
       <c r="AR647" s="29"/>
       <c r="AS647" s="29"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="29"/>
       <c r="B648" s="29"/>
       <c r="C648" s="29"/>
@@ -34321,7 +34304,7 @@
       <c r="AR648" s="29"/>
       <c r="AS648" s="29"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="29"/>
       <c r="B649" s="29"/>
       <c r="C649" s="29"/>
@@ -34368,7 +34351,7 @@
       <c r="AR649" s="29"/>
       <c r="AS649" s="29"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="29"/>
       <c r="B650" s="29"/>
       <c r="C650" s="29"/>
@@ -34415,7 +34398,7 @@
       <c r="AR650" s="29"/>
       <c r="AS650" s="29"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="29"/>
       <c r="B651" s="29"/>
       <c r="C651" s="29"/>
@@ -34462,7 +34445,7 @@
       <c r="AR651" s="29"/>
       <c r="AS651" s="29"/>
     </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="29"/>
       <c r="B652" s="29"/>
       <c r="C652" s="29"/>
@@ -34509,7 +34492,7 @@
       <c r="AR652" s="29"/>
       <c r="AS652" s="29"/>
     </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="29"/>
       <c r="B653" s="29"/>
       <c r="C653" s="29"/>
@@ -34556,7 +34539,7 @@
       <c r="AR653" s="29"/>
       <c r="AS653" s="29"/>
     </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="29"/>
       <c r="B654" s="29"/>
       <c r="C654" s="29"/>
@@ -34603,7 +34586,7 @@
       <c r="AR654" s="29"/>
       <c r="AS654" s="29"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="29"/>
       <c r="B655" s="29"/>
       <c r="C655" s="29"/>
@@ -34650,7 +34633,7 @@
       <c r="AR655" s="29"/>
       <c r="AS655" s="29"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="29"/>
       <c r="B656" s="29"/>
       <c r="C656" s="29"/>
@@ -34697,7 +34680,7 @@
       <c r="AR656" s="29"/>
       <c r="AS656" s="29"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="29"/>
       <c r="B657" s="29"/>
       <c r="C657" s="29"/>
@@ -34744,7 +34727,7 @@
       <c r="AR657" s="29"/>
       <c r="AS657" s="29"/>
     </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="29"/>
       <c r="B658" s="29"/>
       <c r="C658" s="29"/>
@@ -34791,7 +34774,7 @@
       <c r="AR658" s="29"/>
       <c r="AS658" s="29"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="29"/>
       <c r="B659" s="29"/>
       <c r="C659" s="29"/>
@@ -34838,7 +34821,7 @@
       <c r="AR659" s="29"/>
       <c r="AS659" s="29"/>
     </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="29"/>
       <c r="B660" s="29"/>
       <c r="C660" s="29"/>
@@ -34885,7 +34868,7 @@
       <c r="AR660" s="29"/>
       <c r="AS660" s="29"/>
     </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="29"/>
       <c r="B661" s="29"/>
       <c r="C661" s="29"/>
@@ -34932,7 +34915,7 @@
       <c r="AR661" s="29"/>
       <c r="AS661" s="29"/>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="29"/>
       <c r="B662" s="29"/>
       <c r="C662" s="29"/>
@@ -34979,7 +34962,7 @@
       <c r="AR662" s="29"/>
       <c r="AS662" s="29"/>
     </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="29"/>
       <c r="B663" s="29"/>
       <c r="C663" s="29"/>
@@ -35026,7 +35009,7 @@
       <c r="AR663" s="29"/>
       <c r="AS663" s="29"/>
     </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="29"/>
       <c r="B664" s="29"/>
       <c r="C664" s="29"/>
@@ -35073,7 +35056,7 @@
       <c r="AR664" s="29"/>
       <c r="AS664" s="29"/>
     </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="29"/>
       <c r="B665" s="29"/>
       <c r="C665" s="29"/>
@@ -35120,7 +35103,7 @@
       <c r="AR665" s="29"/>
       <c r="AS665" s="29"/>
     </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="29"/>
       <c r="B666" s="29"/>
       <c r="C666" s="29"/>
@@ -35167,7 +35150,7 @@
       <c r="AR666" s="29"/>
       <c r="AS666" s="29"/>
     </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="29"/>
       <c r="B667" s="29"/>
       <c r="C667" s="29"/>
@@ -35214,7 +35197,7 @@
       <c r="AR667" s="29"/>
       <c r="AS667" s="29"/>
     </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="29"/>
       <c r="B668" s="29"/>
       <c r="C668" s="29"/>
@@ -35261,7 +35244,7 @@
       <c r="AR668" s="29"/>
       <c r="AS668" s="29"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="29"/>
       <c r="B669" s="29"/>
       <c r="C669" s="29"/>
@@ -35308,7 +35291,7 @@
       <c r="AR669" s="29"/>
       <c r="AS669" s="29"/>
     </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="29"/>
       <c r="B670" s="29"/>
       <c r="C670" s="29"/>
@@ -35355,7 +35338,7 @@
       <c r="AR670" s="29"/>
       <c r="AS670" s="29"/>
     </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="29"/>
       <c r="B671" s="29"/>
       <c r="C671" s="29"/>
@@ -35402,7 +35385,7 @@
       <c r="AR671" s="29"/>
       <c r="AS671" s="29"/>
     </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="29"/>
       <c r="B672" s="29"/>
       <c r="C672" s="29"/>
@@ -35449,7 +35432,7 @@
       <c r="AR672" s="29"/>
       <c r="AS672" s="29"/>
     </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="29"/>
       <c r="B673" s="29"/>
       <c r="C673" s="29"/>
@@ -35496,7 +35479,7 @@
       <c r="AR673" s="29"/>
       <c r="AS673" s="29"/>
     </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="29"/>
       <c r="B674" s="29"/>
       <c r="C674" s="29"/>
@@ -35543,7 +35526,7 @@
       <c r="AR674" s="29"/>
       <c r="AS674" s="29"/>
     </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="29"/>
       <c r="B675" s="29"/>
       <c r="C675" s="29"/>
@@ -35590,7 +35573,7 @@
       <c r="AR675" s="29"/>
       <c r="AS675" s="29"/>
     </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="29"/>
       <c r="B676" s="29"/>
       <c r="C676" s="29"/>
@@ -35637,7 +35620,7 @@
       <c r="AR676" s="29"/>
       <c r="AS676" s="29"/>
     </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="29"/>
       <c r="B677" s="29"/>
       <c r="C677" s="29"/>
@@ -35684,7 +35667,7 @@
       <c r="AR677" s="29"/>
       <c r="AS677" s="29"/>
     </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="29"/>
       <c r="B678" s="29"/>
       <c r="C678" s="29"/>
@@ -35731,7 +35714,7 @@
       <c r="AR678" s="29"/>
       <c r="AS678" s="29"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="29"/>
       <c r="B679" s="29"/>
       <c r="C679" s="29"/>
@@ -35778,7 +35761,7 @@
       <c r="AR679" s="29"/>
       <c r="AS679" s="29"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="29"/>
       <c r="B680" s="29"/>
       <c r="C680" s="29"/>
@@ -35825,7 +35808,7 @@
       <c r="AR680" s="29"/>
       <c r="AS680" s="29"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="29"/>
       <c r="B681" s="29"/>
       <c r="C681" s="29"/>
@@ -35872,7 +35855,7 @@
       <c r="AR681" s="29"/>
       <c r="AS681" s="29"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="29"/>
       <c r="B682" s="29"/>
       <c r="C682" s="29"/>
@@ -35919,7 +35902,7 @@
       <c r="AR682" s="29"/>
       <c r="AS682" s="29"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="29"/>
       <c r="B683" s="29"/>
       <c r="C683" s="29"/>
@@ -35966,7 +35949,7 @@
       <c r="AR683" s="29"/>
       <c r="AS683" s="29"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="29"/>
       <c r="B684" s="29"/>
       <c r="C684" s="29"/>
@@ -36013,7 +35996,7 @@
       <c r="AR684" s="29"/>
       <c r="AS684" s="29"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="29"/>
       <c r="B685" s="29"/>
       <c r="C685" s="29"/>
@@ -36060,7 +36043,7 @@
       <c r="AR685" s="29"/>
       <c r="AS685" s="29"/>
     </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="29"/>
       <c r="B686" s="29"/>
       <c r="C686" s="29"/>
@@ -36107,7 +36090,7 @@
       <c r="AR686" s="29"/>
       <c r="AS686" s="29"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="29"/>
       <c r="B687" s="29"/>
       <c r="C687" s="29"/>
@@ -36154,7 +36137,7 @@
       <c r="AR687" s="29"/>
       <c r="AS687" s="29"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="29"/>
       <c r="B688" s="29"/>
       <c r="C688" s="29"/>
@@ -36201,7 +36184,7 @@
       <c r="AR688" s="29"/>
       <c r="AS688" s="29"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="29"/>
       <c r="B689" s="29"/>
       <c r="C689" s="29"/>
@@ -36248,7 +36231,7 @@
       <c r="AR689" s="29"/>
       <c r="AS689" s="29"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="29"/>
       <c r="B690" s="29"/>
       <c r="C690" s="29"/>
@@ -36295,7 +36278,7 @@
       <c r="AR690" s="29"/>
       <c r="AS690" s="29"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="29"/>
       <c r="B691" s="29"/>
       <c r="C691" s="29"/>
@@ -36342,7 +36325,7 @@
       <c r="AR691" s="29"/>
       <c r="AS691" s="29"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="29"/>
       <c r="B692" s="29"/>
       <c r="C692" s="29"/>
@@ -36389,7 +36372,7 @@
       <c r="AR692" s="29"/>
       <c r="AS692" s="29"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="29"/>
       <c r="B693" s="29"/>
       <c r="C693" s="29"/>
@@ -36436,7 +36419,7 @@
       <c r="AR693" s="29"/>
       <c r="AS693" s="29"/>
     </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="29"/>
       <c r="B694" s="29"/>
       <c r="C694" s="29"/>
@@ -36483,7 +36466,7 @@
       <c r="AR694" s="29"/>
       <c r="AS694" s="29"/>
     </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="29"/>
       <c r="B695" s="29"/>
       <c r="C695" s="29"/>
@@ -36530,7 +36513,7 @@
       <c r="AR695" s="29"/>
       <c r="AS695" s="29"/>
     </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="29"/>
       <c r="B696" s="29"/>
       <c r="C696" s="29"/>
@@ -36577,7 +36560,7 @@
       <c r="AR696" s="29"/>
       <c r="AS696" s="29"/>
     </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="29"/>
       <c r="B697" s="29"/>
       <c r="C697" s="29"/>
@@ -36624,7 +36607,7 @@
       <c r="AR697" s="29"/>
       <c r="AS697" s="29"/>
     </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="29"/>
       <c r="B698" s="29"/>
       <c r="C698" s="29"/>
@@ -36671,7 +36654,7 @@
       <c r="AR698" s="29"/>
       <c r="AS698" s="29"/>
     </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="29"/>
       <c r="B699" s="29"/>
       <c r="C699" s="29"/>
@@ -36718,7 +36701,7 @@
       <c r="AR699" s="29"/>
       <c r="AS699" s="29"/>
     </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="29"/>
       <c r="B700" s="29"/>
       <c r="C700" s="29"/>
@@ -36765,7 +36748,7 @@
       <c r="AR700" s="29"/>
       <c r="AS700" s="29"/>
     </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="29"/>
       <c r="B701" s="29"/>
       <c r="C701" s="29"/>
@@ -36812,7 +36795,7 @@
       <c r="AR701" s="29"/>
       <c r="AS701" s="29"/>
     </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="29"/>
       <c r="B702" s="29"/>
       <c r="C702" s="29"/>
@@ -36859,7 +36842,7 @@
       <c r="AR702" s="29"/>
       <c r="AS702" s="29"/>
     </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="29"/>
       <c r="B703" s="29"/>
       <c r="C703" s="29"/>
@@ -36906,7 +36889,7 @@
       <c r="AR703" s="29"/>
       <c r="AS703" s="29"/>
     </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="29"/>
       <c r="B704" s="29"/>
       <c r="C704" s="29"/>
@@ -36953,7 +36936,7 @@
       <c r="AR704" s="29"/>
       <c r="AS704" s="29"/>
     </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="29"/>
       <c r="B705" s="29"/>
       <c r="C705" s="29"/>
@@ -37000,7 +36983,7 @@
       <c r="AR705" s="29"/>
       <c r="AS705" s="29"/>
     </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="29"/>
       <c r="B706" s="29"/>
       <c r="C706" s="29"/>
@@ -37047,7 +37030,7 @@
       <c r="AR706" s="29"/>
       <c r="AS706" s="29"/>
     </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="29"/>
       <c r="B707" s="29"/>
       <c r="C707" s="29"/>
@@ -37094,7 +37077,7 @@
       <c r="AR707" s="29"/>
       <c r="AS707" s="29"/>
     </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="29"/>
       <c r="B708" s="29"/>
       <c r="C708" s="29"/>
@@ -37141,7 +37124,7 @@
       <c r="AR708" s="29"/>
       <c r="AS708" s="29"/>
     </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="29"/>
       <c r="B709" s="29"/>
       <c r="C709" s="29"/>
@@ -37188,7 +37171,7 @@
       <c r="AR709" s="29"/>
       <c r="AS709" s="29"/>
     </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="29"/>
       <c r="B710" s="29"/>
       <c r="C710" s="29"/>
@@ -37235,7 +37218,7 @@
       <c r="AR710" s="29"/>
       <c r="AS710" s="29"/>
     </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="29"/>
       <c r="B711" s="29"/>
       <c r="C711" s="29"/>
@@ -37282,7 +37265,7 @@
       <c r="AR711" s="29"/>
       <c r="AS711" s="29"/>
     </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="29"/>
       <c r="B712" s="29"/>
       <c r="C712" s="29"/>
@@ -37329,7 +37312,7 @@
       <c r="AR712" s="29"/>
       <c r="AS712" s="29"/>
     </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="29"/>
       <c r="B713" s="29"/>
       <c r="C713" s="29"/>
@@ -37376,7 +37359,7 @@
       <c r="AR713" s="29"/>
       <c r="AS713" s="29"/>
     </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="29"/>
       <c r="B714" s="29"/>
       <c r="C714" s="29"/>
@@ -37423,7 +37406,7 @@
       <c r="AR714" s="29"/>
       <c r="AS714" s="29"/>
     </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="29"/>
       <c r="B715" s="29"/>
       <c r="C715" s="29"/>
@@ -37470,7 +37453,7 @@
       <c r="AR715" s="29"/>
       <c r="AS715" s="29"/>
     </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="29"/>
       <c r="B716" s="29"/>
       <c r="C716" s="29"/>
@@ -37517,7 +37500,7 @@
       <c r="AR716" s="29"/>
       <c r="AS716" s="29"/>
     </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="29"/>
       <c r="B717" s="29"/>
       <c r="C717" s="29"/>
@@ -37564,7 +37547,7 @@
       <c r="AR717" s="29"/>
       <c r="AS717" s="29"/>
     </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="29"/>
       <c r="B718" s="29"/>
       <c r="C718" s="29"/>
@@ -37611,7 +37594,7 @@
       <c r="AR718" s="29"/>
       <c r="AS718" s="29"/>
     </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="29"/>
       <c r="B719" s="29"/>
       <c r="C719" s="29"/>
@@ -37658,7 +37641,7 @@
       <c r="AR719" s="29"/>
       <c r="AS719" s="29"/>
     </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="29"/>
       <c r="B720" s="29"/>
       <c r="C720" s="29"/>
@@ -37705,7 +37688,7 @@
       <c r="AR720" s="29"/>
       <c r="AS720" s="29"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="29"/>
       <c r="B721" s="29"/>
       <c r="C721" s="29"/>
@@ -37752,7 +37735,7 @@
       <c r="AR721" s="29"/>
       <c r="AS721" s="29"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="29"/>
       <c r="B722" s="29"/>
       <c r="C722" s="29"/>
@@ -37799,7 +37782,7 @@
       <c r="AR722" s="29"/>
       <c r="AS722" s="29"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="29"/>
       <c r="B723" s="29"/>
       <c r="C723" s="29"/>
@@ -37846,7 +37829,7 @@
       <c r="AR723" s="29"/>
       <c r="AS723" s="29"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="29"/>
       <c r="B724" s="29"/>
       <c r="C724" s="29"/>
@@ -37893,7 +37876,7 @@
       <c r="AR724" s="29"/>
       <c r="AS724" s="29"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="29"/>
       <c r="B725" s="29"/>
       <c r="C725" s="29"/>
@@ -37940,7 +37923,7 @@
       <c r="AR725" s="29"/>
       <c r="AS725" s="29"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="29"/>
       <c r="B726" s="29"/>
       <c r="C726" s="29"/>
@@ -37987,7 +37970,7 @@
       <c r="AR726" s="29"/>
       <c r="AS726" s="29"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="29"/>
       <c r="B727" s="29"/>
       <c r="C727" s="29"/>
@@ -38034,7 +38017,7 @@
       <c r="AR727" s="29"/>
       <c r="AS727" s="29"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="29"/>
       <c r="B728" s="29"/>
       <c r="C728" s="29"/>
@@ -38081,7 +38064,7 @@
       <c r="AR728" s="29"/>
       <c r="AS728" s="29"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="29"/>
       <c r="B729" s="29"/>
       <c r="C729" s="29"/>
@@ -38128,7 +38111,7 @@
       <c r="AR729" s="29"/>
       <c r="AS729" s="29"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="29"/>
       <c r="B730" s="29"/>
       <c r="C730" s="29"/>
@@ -38175,7 +38158,7 @@
       <c r="AR730" s="29"/>
       <c r="AS730" s="29"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="29"/>
       <c r="B731" s="29"/>
       <c r="C731" s="29"/>
@@ -38222,7 +38205,7 @@
       <c r="AR731" s="29"/>
       <c r="AS731" s="29"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="29"/>
       <c r="B732" s="29"/>
       <c r="C732" s="29"/>
@@ -38269,7 +38252,7 @@
       <c r="AR732" s="29"/>
       <c r="AS732" s="29"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="29"/>
       <c r="B733" s="29"/>
       <c r="C733" s="29"/>
@@ -38316,7 +38299,7 @@
       <c r="AR733" s="29"/>
       <c r="AS733" s="29"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="29"/>
       <c r="B734" s="29"/>
       <c r="C734" s="29"/>
@@ -38363,7 +38346,7 @@
       <c r="AR734" s="29"/>
       <c r="AS734" s="29"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="29"/>
       <c r="B735" s="29"/>
       <c r="C735" s="29"/>
@@ -38410,7 +38393,7 @@
       <c r="AR735" s="29"/>
       <c r="AS735" s="29"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="29"/>
       <c r="B736" s="29"/>
       <c r="C736" s="29"/>
@@ -38457,7 +38440,7 @@
       <c r="AR736" s="29"/>
       <c r="AS736" s="29"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="29"/>
       <c r="B737" s="29"/>
       <c r="C737" s="29"/>
@@ -38504,7 +38487,7 @@
       <c r="AR737" s="29"/>
       <c r="AS737" s="29"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="29"/>
       <c r="B738" s="29"/>
       <c r="C738" s="29"/>
@@ -38551,7 +38534,7 @@
       <c r="AR738" s="29"/>
       <c r="AS738" s="29"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="29"/>
       <c r="B739" s="29"/>
       <c r="C739" s="29"/>
@@ -38598,7 +38581,7 @@
       <c r="AR739" s="29"/>
       <c r="AS739" s="29"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="29"/>
       <c r="B740" s="29"/>
       <c r="C740" s="29"/>
@@ -38645,7 +38628,7 @@
       <c r="AR740" s="29"/>
       <c r="AS740" s="29"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="29"/>
       <c r="B741" s="29"/>
       <c r="C741" s="29"/>
@@ -38692,7 +38675,7 @@
       <c r="AR741" s="29"/>
       <c r="AS741" s="29"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="29"/>
       <c r="B742" s="29"/>
       <c r="C742" s="29"/>
@@ -38739,7 +38722,7 @@
       <c r="AR742" s="29"/>
       <c r="AS742" s="29"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="29"/>
       <c r="B743" s="29"/>
       <c r="C743" s="29"/>
@@ -38786,7 +38769,7 @@
       <c r="AR743" s="29"/>
       <c r="AS743" s="29"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="29"/>
       <c r="B744" s="29"/>
       <c r="C744" s="29"/>
@@ -38833,7 +38816,7 @@
       <c r="AR744" s="29"/>
       <c r="AS744" s="29"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="29"/>
       <c r="B745" s="29"/>
       <c r="C745" s="29"/>
@@ -38880,7 +38863,7 @@
       <c r="AR745" s="29"/>
       <c r="AS745" s="29"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="29"/>
       <c r="B746" s="29"/>
       <c r="C746" s="29"/>
@@ -38927,7 +38910,7 @@
       <c r="AR746" s="29"/>
       <c r="AS746" s="29"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="29"/>
       <c r="B747" s="29"/>
       <c r="C747" s="29"/>
@@ -38974,7 +38957,7 @@
       <c r="AR747" s="29"/>
       <c r="AS747" s="29"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="29"/>
       <c r="B748" s="29"/>
       <c r="C748" s="29"/>
@@ -39021,7 +39004,7 @@
       <c r="AR748" s="29"/>
       <c r="AS748" s="29"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="29"/>
       <c r="B749" s="29"/>
       <c r="C749" s="29"/>
@@ -39068,7 +39051,7 @@
       <c r="AR749" s="29"/>
       <c r="AS749" s="29"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="29"/>
       <c r="B750" s="29"/>
       <c r="C750" s="29"/>
@@ -39115,7 +39098,7 @@
       <c r="AR750" s="29"/>
       <c r="AS750" s="29"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="29"/>
       <c r="B751" s="29"/>
       <c r="C751" s="29"/>
@@ -39162,7 +39145,7 @@
       <c r="AR751" s="29"/>
       <c r="AS751" s="29"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="29"/>
       <c r="B752" s="29"/>
       <c r="C752" s="29"/>
@@ -39209,7 +39192,7 @@
       <c r="AR752" s="29"/>
       <c r="AS752" s="29"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="29"/>
       <c r="B753" s="29"/>
       <c r="C753" s="29"/>
@@ -39256,7 +39239,7 @@
       <c r="AR753" s="29"/>
       <c r="AS753" s="29"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="29"/>
       <c r="B754" s="29"/>
       <c r="C754" s="29"/>
@@ -39303,7 +39286,7 @@
       <c r="AR754" s="29"/>
       <c r="AS754" s="29"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="29"/>
       <c r="B755" s="29"/>
       <c r="C755" s="29"/>
@@ -39350,7 +39333,7 @@
       <c r="AR755" s="29"/>
       <c r="AS755" s="29"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="29"/>
       <c r="B756" s="29"/>
       <c r="C756" s="29"/>
@@ -39397,7 +39380,7 @@
       <c r="AR756" s="29"/>
       <c r="AS756" s="29"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="29"/>
       <c r="B757" s="29"/>
       <c r="C757" s="29"/>
@@ -39444,7 +39427,7 @@
       <c r="AR757" s="29"/>
       <c r="AS757" s="29"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="29"/>
       <c r="B758" s="29"/>
       <c r="C758" s="29"/>
@@ -39491,7 +39474,7 @@
       <c r="AR758" s="29"/>
       <c r="AS758" s="29"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="29"/>
       <c r="B759" s="29"/>
       <c r="C759" s="29"/>
@@ -39538,7 +39521,7 @@
       <c r="AR759" s="29"/>
       <c r="AS759" s="29"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="29"/>
       <c r="B760" s="29"/>
       <c r="C760" s="29"/>
@@ -39585,7 +39568,7 @@
       <c r="AR760" s="29"/>
       <c r="AS760" s="29"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="29"/>
       <c r="B761" s="29"/>
       <c r="C761" s="29"/>
@@ -39632,7 +39615,7 @@
       <c r="AR761" s="29"/>
       <c r="AS761" s="29"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="29"/>
       <c r="B762" s="29"/>
       <c r="C762" s="29"/>
@@ -39679,7 +39662,7 @@
       <c r="AR762" s="29"/>
       <c r="AS762" s="29"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="29"/>
       <c r="B763" s="29"/>
       <c r="C763" s="29"/>
@@ -39726,7 +39709,7 @@
       <c r="AR763" s="29"/>
       <c r="AS763" s="29"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="29"/>
       <c r="B764" s="29"/>
       <c r="C764" s="29"/>
@@ -39773,7 +39756,7 @@
       <c r="AR764" s="29"/>
       <c r="AS764" s="29"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="29"/>
       <c r="B765" s="29"/>
       <c r="C765" s="29"/>
@@ -39820,7 +39803,7 @@
       <c r="AR765" s="29"/>
       <c r="AS765" s="29"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="29"/>
       <c r="B766" s="29"/>
       <c r="C766" s="29"/>
@@ -39867,7 +39850,7 @@
       <c r="AR766" s="29"/>
       <c r="AS766" s="29"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="29"/>
       <c r="B767" s="29"/>
       <c r="C767" s="29"/>
@@ -39914,7 +39897,7 @@
       <c r="AR767" s="29"/>
       <c r="AS767" s="29"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="29"/>
       <c r="B768" s="29"/>
       <c r="C768" s="29"/>
@@ -39961,7 +39944,7 @@
       <c r="AR768" s="29"/>
       <c r="AS768" s="29"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="29"/>
       <c r="B769" s="29"/>
       <c r="C769" s="29"/>
@@ -40008,7 +39991,7 @@
       <c r="AR769" s="29"/>
       <c r="AS769" s="29"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="29"/>
       <c r="B770" s="29"/>
       <c r="C770" s="29"/>
@@ -40055,7 +40038,7 @@
       <c r="AR770" s="29"/>
       <c r="AS770" s="29"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="29"/>
       <c r="B771" s="29"/>
       <c r="C771" s="29"/>
@@ -40102,7 +40085,7 @@
       <c r="AR771" s="29"/>
       <c r="AS771" s="29"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="29"/>
       <c r="B772" s="29"/>
       <c r="C772" s="29"/>
@@ -40149,7 +40132,7 @@
       <c r="AR772" s="29"/>
       <c r="AS772" s="29"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="29"/>
       <c r="B773" s="29"/>
       <c r="C773" s="29"/>
@@ -40196,7 +40179,7 @@
       <c r="AR773" s="29"/>
       <c r="AS773" s="29"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="29"/>
       <c r="B774" s="29"/>
       <c r="C774" s="29"/>
@@ -40243,7 +40226,7 @@
       <c r="AR774" s="29"/>
       <c r="AS774" s="29"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="29"/>
       <c r="B775" s="29"/>
       <c r="C775" s="29"/>
@@ -40290,7 +40273,7 @@
       <c r="AR775" s="29"/>
       <c r="AS775" s="29"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="29"/>
       <c r="B776" s="29"/>
       <c r="C776" s="29"/>
@@ -40337,7 +40320,7 @@
       <c r="AR776" s="29"/>
       <c r="AS776" s="29"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="29"/>
       <c r="B777" s="29"/>
       <c r="C777" s="29"/>
@@ -40384,7 +40367,7 @@
       <c r="AR777" s="29"/>
       <c r="AS777" s="29"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="29"/>
       <c r="B778" s="29"/>
       <c r="C778" s="29"/>
@@ -40431,7 +40414,7 @@
       <c r="AR778" s="29"/>
       <c r="AS778" s="29"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="29"/>
       <c r="B779" s="29"/>
       <c r="C779" s="29"/>
@@ -40478,7 +40461,7 @@
       <c r="AR779" s="29"/>
       <c r="AS779" s="29"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="29"/>
       <c r="B780" s="29"/>
       <c r="C780" s="29"/>
@@ -40525,7 +40508,7 @@
       <c r="AR780" s="29"/>
       <c r="AS780" s="29"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="29"/>
       <c r="B781" s="29"/>
       <c r="C781" s="29"/>
@@ -40572,7 +40555,7 @@
       <c r="AR781" s="29"/>
       <c r="AS781" s="29"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="29"/>
       <c r="B782" s="29"/>
       <c r="C782" s="29"/>
@@ -40619,7 +40602,7 @@
       <c r="AR782" s="29"/>
       <c r="AS782" s="29"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="29"/>
       <c r="B783" s="29"/>
       <c r="C783" s="29"/>
@@ -40666,7 +40649,7 @@
       <c r="AR783" s="29"/>
       <c r="AS783" s="29"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="29"/>
       <c r="B784" s="29"/>
       <c r="C784" s="29"/>
@@ -40713,7 +40696,7 @@
       <c r="AR784" s="29"/>
       <c r="AS784" s="29"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="29"/>
       <c r="B785" s="29"/>
       <c r="C785" s="29"/>
@@ -40760,7 +40743,7 @@
       <c r="AR785" s="29"/>
       <c r="AS785" s="29"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="29"/>
       <c r="B786" s="29"/>
       <c r="C786" s="29"/>
@@ -40807,7 +40790,7 @@
       <c r="AR786" s="29"/>
       <c r="AS786" s="29"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="29"/>
       <c r="B787" s="29"/>
       <c r="C787" s="29"/>
@@ -40854,7 +40837,7 @@
       <c r="AR787" s="29"/>
       <c r="AS787" s="29"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="29"/>
       <c r="B788" s="29"/>
       <c r="C788" s="29"/>
@@ -40901,7 +40884,7 @@
       <c r="AR788" s="29"/>
       <c r="AS788" s="29"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="29"/>
       <c r="B789" s="29"/>
       <c r="C789" s="29"/>
@@ -40948,7 +40931,7 @@
       <c r="AR789" s="29"/>
       <c r="AS789" s="29"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="29"/>
       <c r="B790" s="29"/>
       <c r="C790" s="29"/>
@@ -40995,7 +40978,7 @@
       <c r="AR790" s="29"/>
       <c r="AS790" s="29"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="29"/>
       <c r="B791" s="29"/>
       <c r="C791" s="29"/>
@@ -41042,7 +41025,7 @@
       <c r="AR791" s="29"/>
       <c r="AS791" s="29"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="29"/>
       <c r="B792" s="29"/>
       <c r="C792" s="29"/>
@@ -41089,7 +41072,7 @@
       <c r="AR792" s="29"/>
       <c r="AS792" s="29"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="29"/>
       <c r="B793" s="29"/>
       <c r="C793" s="29"/>
@@ -41136,7 +41119,7 @@
       <c r="AR793" s="29"/>
       <c r="AS793" s="29"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="29"/>
       <c r="B794" s="29"/>
       <c r="C794" s="29"/>
@@ -41183,7 +41166,7 @@
       <c r="AR794" s="29"/>
       <c r="AS794" s="29"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="29"/>
       <c r="B795" s="29"/>
       <c r="C795" s="29"/>
@@ -41230,7 +41213,7 @@
       <c r="AR795" s="29"/>
       <c r="AS795" s="29"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="29"/>
       <c r="B796" s="29"/>
       <c r="C796" s="29"/>
@@ -41277,7 +41260,7 @@
       <c r="AR796" s="29"/>
       <c r="AS796" s="29"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="29"/>
       <c r="B797" s="29"/>
       <c r="C797" s="29"/>
@@ -41324,7 +41307,7 @@
       <c r="AR797" s="29"/>
       <c r="AS797" s="29"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="29"/>
       <c r="B798" s="29"/>
       <c r="C798" s="29"/>
@@ -41371,7 +41354,7 @@
       <c r="AR798" s="29"/>
       <c r="AS798" s="29"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="29"/>
       <c r="B799" s="29"/>
       <c r="C799" s="29"/>
@@ -41418,7 +41401,7 @@
       <c r="AR799" s="29"/>
       <c r="AS799" s="29"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="29"/>
       <c r="B800" s="29"/>
       <c r="C800" s="29"/>
@@ -41465,7 +41448,7 @@
       <c r="AR800" s="29"/>
       <c r="AS800" s="29"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="29"/>
       <c r="B801" s="29"/>
       <c r="C801" s="29"/>
@@ -41512,7 +41495,7 @@
       <c r="AR801" s="29"/>
       <c r="AS801" s="29"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="29"/>
       <c r="B802" s="29"/>
       <c r="C802" s="29"/>
@@ -41559,7 +41542,7 @@
       <c r="AR802" s="29"/>
       <c r="AS802" s="29"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="29"/>
       <c r="B803" s="29"/>
       <c r="C803" s="29"/>
@@ -41606,7 +41589,7 @@
       <c r="AR803" s="29"/>
       <c r="AS803" s="29"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="29"/>
       <c r="B804" s="29"/>
       <c r="C804" s="29"/>
@@ -41653,7 +41636,7 @@
       <c r="AR804" s="29"/>
       <c r="AS804" s="29"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="29"/>
       <c r="B805" s="29"/>
       <c r="C805" s="29"/>
@@ -41700,7 +41683,7 @@
       <c r="AR805" s="29"/>
       <c r="AS805" s="29"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="29"/>
       <c r="B806" s="29"/>
       <c r="C806" s="29"/>
@@ -41747,7 +41730,7 @@
       <c r="AR806" s="29"/>
       <c r="AS806" s="29"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="29"/>
       <c r="B807" s="29"/>
       <c r="C807" s="29"/>
@@ -41794,7 +41777,7 @@
       <c r="AR807" s="29"/>
       <c r="AS807" s="29"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="29"/>
       <c r="B808" s="29"/>
       <c r="C808" s="29"/>
@@ -41841,7 +41824,7 @@
       <c r="AR808" s="29"/>
       <c r="AS808" s="29"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="29"/>
       <c r="B809" s="29"/>
       <c r="C809" s="29"/>
@@ -41888,7 +41871,7 @@
       <c r="AR809" s="29"/>
       <c r="AS809" s="29"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="29"/>
       <c r="B810" s="29"/>
       <c r="C810" s="29"/>
@@ -41935,7 +41918,7 @@
       <c r="AR810" s="29"/>
       <c r="AS810" s="29"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="29"/>
       <c r="B811" s="29"/>
       <c r="C811" s="29"/>
@@ -41982,7 +41965,7 @@
       <c r="AR811" s="29"/>
       <c r="AS811" s="29"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="29"/>
       <c r="B812" s="29"/>
       <c r="C812" s="29"/>
@@ -42029,7 +42012,7 @@
       <c r="AR812" s="29"/>
       <c r="AS812" s="29"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="29"/>
       <c r="B813" s="29"/>
       <c r="C813" s="29"/>
@@ -42076,7 +42059,7 @@
       <c r="AR813" s="29"/>
       <c r="AS813" s="29"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="29"/>
       <c r="B814" s="29"/>
       <c r="C814" s="29"/>
@@ -42123,7 +42106,7 @@
       <c r="AR814" s="29"/>
       <c r="AS814" s="29"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="29"/>
       <c r="B815" s="29"/>
       <c r="C815" s="29"/>
@@ -42170,7 +42153,7 @@
       <c r="AR815" s="29"/>
       <c r="AS815" s="29"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="29"/>
       <c r="B816" s="29"/>
       <c r="C816" s="29"/>
@@ -42217,7 +42200,7 @@
       <c r="AR816" s="29"/>
       <c r="AS816" s="29"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="29"/>
       <c r="B817" s="29"/>
       <c r="C817" s="29"/>
@@ -42264,7 +42247,7 @@
       <c r="AR817" s="29"/>
       <c r="AS817" s="29"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="29"/>
       <c r="B818" s="29"/>
       <c r="C818" s="29"/>
@@ -42311,7 +42294,7 @@
       <c r="AR818" s="29"/>
       <c r="AS818" s="29"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="29"/>
       <c r="B819" s="29"/>
       <c r="C819" s="29"/>
@@ -42358,7 +42341,7 @@
       <c r="AR819" s="29"/>
       <c r="AS819" s="29"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="29"/>
       <c r="B820" s="29"/>
       <c r="C820" s="29"/>
@@ -42405,7 +42388,7 @@
       <c r="AR820" s="29"/>
       <c r="AS820" s="29"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="29"/>
       <c r="B821" s="29"/>
       <c r="C821" s="29"/>
@@ -42452,7 +42435,7 @@
       <c r="AR821" s="29"/>
       <c r="AS821" s="29"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="29"/>
       <c r="B822" s="29"/>
       <c r="C822" s="29"/>
@@ -42499,7 +42482,7 @@
       <c r="AR822" s="29"/>
       <c r="AS822" s="29"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="29"/>
       <c r="B823" s="29"/>
       <c r="C823" s="29"/>
@@ -42546,7 +42529,7 @@
       <c r="AR823" s="29"/>
       <c r="AS823" s="29"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="29"/>
       <c r="B824" s="29"/>
       <c r="C824" s="29"/>
@@ -42593,7 +42576,7 @@
       <c r="AR824" s="29"/>
       <c r="AS824" s="29"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="29"/>
       <c r="B825" s="29"/>
       <c r="C825" s="29"/>
@@ -42640,7 +42623,7 @@
       <c r="AR825" s="29"/>
       <c r="AS825" s="29"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="29"/>
       <c r="B826" s="29"/>
       <c r="C826" s="29"/>
@@ -42687,7 +42670,7 @@
       <c r="AR826" s="29"/>
       <c r="AS826" s="29"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="29"/>
       <c r="B827" s="29"/>
       <c r="C827" s="29"/>
@@ -42734,7 +42717,7 @@
       <c r="AR827" s="29"/>
       <c r="AS827" s="29"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="29"/>
       <c r="B828" s="29"/>
       <c r="C828" s="29"/>
@@ -42781,7 +42764,7 @@
       <c r="AR828" s="29"/>
       <c r="AS828" s="29"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="29"/>
       <c r="B829" s="29"/>
       <c r="C829" s="29"/>
@@ -42828,7 +42811,7 @@
       <c r="AR829" s="29"/>
       <c r="AS829" s="29"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="29"/>
       <c r="B830" s="29"/>
       <c r="C830" s="29"/>
@@ -42875,7 +42858,7 @@
       <c r="AR830" s="29"/>
       <c r="AS830" s="29"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="29"/>
       <c r="B831" s="29"/>
       <c r="C831" s="29"/>
@@ -42922,7 +42905,7 @@
       <c r="AR831" s="29"/>
       <c r="AS831" s="29"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="29"/>
       <c r="B832" s="29"/>
       <c r="C832" s="29"/>
@@ -42969,7 +42952,7 @@
       <c r="AR832" s="29"/>
       <c r="AS832" s="29"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="29"/>
       <c r="B833" s="29"/>
       <c r="C833" s="29"/>
@@ -43016,7 +42999,7 @@
       <c r="AR833" s="29"/>
       <c r="AS833" s="29"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="29"/>
       <c r="B834" s="29"/>
       <c r="C834" s="29"/>
@@ -43063,7 +43046,7 @@
       <c r="AR834" s="29"/>
       <c r="AS834" s="29"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="29"/>
       <c r="B835" s="29"/>
       <c r="C835" s="29"/>
@@ -43110,7 +43093,7 @@
       <c r="AR835" s="29"/>
       <c r="AS835" s="29"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="29"/>
       <c r="B836" s="29"/>
       <c r="C836" s="29"/>
@@ -43157,7 +43140,7 @@
       <c r="AR836" s="29"/>
       <c r="AS836" s="29"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="29"/>
       <c r="B837" s="29"/>
       <c r="C837" s="29"/>
@@ -43204,7 +43187,7 @@
       <c r="AR837" s="29"/>
       <c r="AS837" s="29"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="29"/>
       <c r="B838" s="29"/>
       <c r="C838" s="29"/>
@@ -43251,7 +43234,7 @@
       <c r="AR838" s="29"/>
       <c r="AS838" s="29"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="29"/>
       <c r="B839" s="29"/>
       <c r="C839" s="29"/>
@@ -43298,7 +43281,7 @@
       <c r="AR839" s="29"/>
       <c r="AS839" s="29"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="29"/>
       <c r="B840" s="29"/>
       <c r="C840" s="29"/>
@@ -43345,7 +43328,7 @@
       <c r="AR840" s="29"/>
       <c r="AS840" s="29"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="29"/>
       <c r="B841" s="29"/>
       <c r="C841" s="29"/>
@@ -43392,7 +43375,7 @@
       <c r="AR841" s="29"/>
       <c r="AS841" s="29"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="29"/>
       <c r="B842" s="29"/>
       <c r="C842" s="29"/>
@@ -43439,7 +43422,7 @@
       <c r="AR842" s="29"/>
       <c r="AS842" s="29"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="29"/>
       <c r="B843" s="29"/>
       <c r="C843" s="29"/>
@@ -43486,7 +43469,7 @@
       <c r="AR843" s="29"/>
       <c r="AS843" s="29"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="29"/>
       <c r="B844" s="29"/>
       <c r="C844" s="29"/>
@@ -43533,7 +43516,7 @@
       <c r="AR844" s="29"/>
       <c r="AS844" s="29"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="29"/>
       <c r="B845" s="29"/>
       <c r="C845" s="29"/>
@@ -43580,7 +43563,7 @@
       <c r="AR845" s="29"/>
       <c r="AS845" s="29"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="29"/>
       <c r="B846" s="29"/>
       <c r="C846" s="29"/>
@@ -43627,7 +43610,7 @@
       <c r="AR846" s="29"/>
       <c r="AS846" s="29"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="29"/>
       <c r="B847" s="29"/>
       <c r="C847" s="29"/>
@@ -43674,7 +43657,7 @@
       <c r="AR847" s="29"/>
       <c r="AS847" s="29"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="29"/>
       <c r="B848" s="29"/>
       <c r="C848" s="29"/>
@@ -43721,7 +43704,7 @@
       <c r="AR848" s="29"/>
       <c r="AS848" s="29"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="29"/>
       <c r="B849" s="29"/>
       <c r="C849" s="29"/>
@@ -43768,7 +43751,7 @@
       <c r="AR849" s="29"/>
       <c r="AS849" s="29"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="29"/>
       <c r="B850" s="29"/>
       <c r="C850" s="29"/>
@@ -43815,7 +43798,7 @@
       <c r="AR850" s="29"/>
       <c r="AS850" s="29"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="29"/>
       <c r="B851" s="29"/>
       <c r="C851" s="29"/>
@@ -43862,7 +43845,7 @@
       <c r="AR851" s="29"/>
       <c r="AS851" s="29"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="29"/>
       <c r="B852" s="29"/>
       <c r="C852" s="29"/>
@@ -43909,7 +43892,7 @@
       <c r="AR852" s="29"/>
       <c r="AS852" s="29"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="29"/>
       <c r="B853" s="29"/>
       <c r="C853" s="29"/>
@@ -43956,7 +43939,7 @@
       <c r="AR853" s="29"/>
       <c r="AS853" s="29"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="29"/>
       <c r="B854" s="29"/>
       <c r="C854" s="29"/>
@@ -44003,7 +43986,7 @@
       <c r="AR854" s="29"/>
       <c r="AS854" s="29"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="29"/>
       <c r="B855" s="29"/>
       <c r="C855" s="29"/>
@@ -44050,7 +44033,7 @@
       <c r="AR855" s="29"/>
       <c r="AS855" s="29"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="29"/>
       <c r="B856" s="29"/>
       <c r="C856" s="29"/>
@@ -44097,7 +44080,7 @@
       <c r="AR856" s="29"/>
       <c r="AS856" s="29"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="29"/>
       <c r="B857" s="29"/>
       <c r="C857" s="29"/>
@@ -44144,7 +44127,7 @@
       <c r="AR857" s="29"/>
       <c r="AS857" s="29"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="29"/>
       <c r="B858" s="29"/>
       <c r="C858" s="29"/>
@@ -44191,7 +44174,7 @@
       <c r="AR858" s="29"/>
       <c r="AS858" s="29"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="29"/>
       <c r="B859" s="29"/>
       <c r="C859" s="29"/>
@@ -44238,7 +44221,7 @@
       <c r="AR859" s="29"/>
       <c r="AS859" s="29"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="29"/>
       <c r="B860" s="29"/>
       <c r="C860" s="29"/>
@@ -44285,7 +44268,7 @@
       <c r="AR860" s="29"/>
       <c r="AS860" s="29"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="29"/>
       <c r="B861" s="29"/>
       <c r="C861" s="29"/>
@@ -44332,7 +44315,7 @@
       <c r="AR861" s="29"/>
       <c r="AS861" s="29"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="29"/>
       <c r="B862" s="29"/>
       <c r="C862" s="29"/>
@@ -44379,7 +44362,7 @@
       <c r="AR862" s="29"/>
       <c r="AS862" s="29"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="29"/>
       <c r="B863" s="29"/>
       <c r="C863" s="29"/>
@@ -44426,7 +44409,7 @@
       <c r="AR863" s="29"/>
       <c r="AS863" s="29"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="29"/>
       <c r="B864" s="29"/>
       <c r="C864" s="29"/>
@@ -44473,7 +44456,7 @@
       <c r="AR864" s="29"/>
       <c r="AS864" s="29"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="29"/>
       <c r="B865" s="29"/>
       <c r="C865" s="29"/>
@@ -44520,7 +44503,7 @@
       <c r="AR865" s="29"/>
       <c r="AS865" s="29"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="29"/>
       <c r="B866" s="29"/>
       <c r="C866" s="29"/>
@@ -44567,7 +44550,7 @@
       <c r="AR866" s="29"/>
       <c r="AS866" s="29"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="29"/>
       <c r="B867" s="29"/>
       <c r="C867" s="29"/>
@@ -44614,7 +44597,7 @@
       <c r="AR867" s="29"/>
       <c r="AS867" s="29"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="29"/>
       <c r="B868" s="29"/>
       <c r="C868" s="29"/>
@@ -44661,7 +44644,7 @@
       <c r="AR868" s="29"/>
       <c r="AS868" s="29"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="29"/>
       <c r="B869" s="29"/>
       <c r="C869" s="29"/>
@@ -44708,7 +44691,7 @@
       <c r="AR869" s="29"/>
       <c r="AS869" s="29"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="29"/>
       <c r="B870" s="29"/>
       <c r="C870" s="29"/>
@@ -44755,7 +44738,7 @@
       <c r="AR870" s="29"/>
       <c r="AS870" s="29"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="29"/>
       <c r="B871" s="29"/>
       <c r="C871" s="29"/>
@@ -44802,7 +44785,7 @@
       <c r="AR871" s="29"/>
       <c r="AS871" s="29"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="29"/>
       <c r="B872" s="29"/>
       <c r="C872" s="29"/>
@@ -44849,7 +44832,7 @@
       <c r="AR872" s="29"/>
       <c r="AS872" s="29"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="29"/>
       <c r="B873" s="29"/>
       <c r="C873" s="29"/>
@@ -44896,7 +44879,7 @@
       <c r="AR873" s="29"/>
       <c r="AS873" s="29"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="29"/>
       <c r="B874" s="29"/>
       <c r="C874" s="29"/>
@@ -44943,7 +44926,7 @@
       <c r="AR874" s="29"/>
       <c r="AS874" s="29"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="29"/>
       <c r="B875" s="29"/>
       <c r="C875" s="29"/>
@@ -44990,7 +44973,7 @@
       <c r="AR875" s="29"/>
       <c r="AS875" s="29"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="29"/>
       <c r="B876" s="29"/>
       <c r="C876" s="29"/>
@@ -45037,7 +45020,7 @@
       <c r="AR876" s="29"/>
       <c r="AS876" s="29"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="29"/>
       <c r="B877" s="29"/>
       <c r="C877" s="29"/>
@@ -45084,7 +45067,7 @@
       <c r="AR877" s="29"/>
       <c r="AS877" s="29"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="29"/>
       <c r="B878" s="29"/>
       <c r="C878" s="29"/>
@@ -45131,7 +45114,7 @@
       <c r="AR878" s="29"/>
       <c r="AS878" s="29"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="29"/>
       <c r="B879" s="29"/>
       <c r="C879" s="29"/>
@@ -45178,7 +45161,7 @@
       <c r="AR879" s="29"/>
       <c r="AS879" s="29"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="29"/>
       <c r="B880" s="29"/>
       <c r="C880" s="29"/>
@@ -45225,7 +45208,7 @@
       <c r="AR880" s="29"/>
       <c r="AS880" s="29"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="29"/>
       <c r="B881" s="29"/>
       <c r="C881" s="29"/>
@@ -45272,7 +45255,7 @@
       <c r="AR881" s="29"/>
       <c r="AS881" s="29"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="29"/>
       <c r="B882" s="29"/>
       <c r="C882" s="29"/>
@@ -45319,7 +45302,7 @@
       <c r="AR882" s="29"/>
       <c r="AS882" s="29"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="29"/>
       <c r="B883" s="29"/>
       <c r="C883" s="29"/>
@@ -45366,7 +45349,7 @@
       <c r="AR883" s="29"/>
       <c r="AS883" s="29"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="29"/>
       <c r="B884" s="29"/>
       <c r="C884" s="29"/>
@@ -45413,7 +45396,7 @@
       <c r="AR884" s="29"/>
       <c r="AS884" s="29"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="29"/>
       <c r="B885" s="29"/>
       <c r="C885" s="29"/>
@@ -45460,7 +45443,7 @@
       <c r="AR885" s="29"/>
       <c r="AS885" s="29"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="29"/>
       <c r="B886" s="29"/>
       <c r="C886" s="29"/>
@@ -45507,7 +45490,7 @@
       <c r="AR886" s="29"/>
       <c r="AS886" s="29"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="29"/>
       <c r="B887" s="29"/>
       <c r="C887" s="29"/>
@@ -45554,7 +45537,7 @@
       <c r="AR887" s="29"/>
       <c r="AS887" s="29"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="29"/>
       <c r="B888" s="29"/>
       <c r="C888" s="29"/>
@@ -45601,7 +45584,7 @@
       <c r="AR888" s="29"/>
       <c r="AS888" s="29"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="29"/>
       <c r="B889" s="29"/>
       <c r="C889" s="29"/>
@@ -45648,7 +45631,7 @@
       <c r="AR889" s="29"/>
       <c r="AS889" s="29"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="29"/>
       <c r="B890" s="29"/>
       <c r="C890" s="29"/>
@@ -45695,7 +45678,7 @@
       <c r="AR890" s="29"/>
       <c r="AS890" s="29"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="29"/>
       <c r="B891" s="29"/>
       <c r="C891" s="29"/>
@@ -45742,7 +45725,7 @@
       <c r="AR891" s="29"/>
       <c r="AS891" s="29"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="29"/>
       <c r="B892" s="29"/>
       <c r="C892" s="29"/>
@@ -45789,7 +45772,7 @@
       <c r="AR892" s="29"/>
       <c r="AS892" s="29"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="29"/>
       <c r="B893" s="29"/>
       <c r="C893" s="29"/>
@@ -45836,7 +45819,7 @@
       <c r="AR893" s="29"/>
       <c r="AS893" s="29"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="29"/>
       <c r="B894" s="29"/>
       <c r="C894" s="29"/>
@@ -45883,7 +45866,7 @@
       <c r="AR894" s="29"/>
       <c r="AS894" s="29"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="29"/>
       <c r="B895" s="29"/>
       <c r="C895" s="29"/>
@@ -45930,7 +45913,7 @@
       <c r="AR895" s="29"/>
       <c r="AS895" s="29"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="29"/>
       <c r="B896" s="29"/>
       <c r="C896" s="29"/>
@@ -45977,7 +45960,7 @@
       <c r="AR896" s="29"/>
       <c r="AS896" s="29"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="29"/>
       <c r="B897" s="29"/>
       <c r="C897" s="29"/>
@@ -46024,7 +46007,7 @@
       <c r="AR897" s="29"/>
       <c r="AS897" s="29"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="29"/>
       <c r="B898" s="29"/>
       <c r="C898" s="29"/>
@@ -46071,7 +46054,7 @@
       <c r="AR898" s="29"/>
       <c r="AS898" s="29"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="29"/>
       <c r="B899" s="29"/>
       <c r="C899" s="29"/>
@@ -46118,7 +46101,7 @@
       <c r="AR899" s="29"/>
       <c r="AS899" s="29"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="29"/>
       <c r="B900" s="29"/>
       <c r="C900" s="29"/>
@@ -46165,7 +46148,7 @@
       <c r="AR900" s="29"/>
       <c r="AS900" s="29"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="29"/>
       <c r="B901" s="29"/>
       <c r="C901" s="29"/>
@@ -46212,7 +46195,7 @@
       <c r="AR901" s="29"/>
       <c r="AS901" s="29"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="29"/>
       <c r="B902" s="29"/>
       <c r="C902" s="29"/>
@@ -46259,7 +46242,7 @@
       <c r="AR902" s="29"/>
       <c r="AS902" s="29"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="29"/>
       <c r="B903" s="29"/>
       <c r="C903" s="29"/>
@@ -46306,7 +46289,7 @@
       <c r="AR903" s="29"/>
       <c r="AS903" s="29"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="29"/>
       <c r="B904" s="29"/>
       <c r="C904" s="29"/>
@@ -46353,7 +46336,7 @@
       <c r="AR904" s="29"/>
       <c r="AS904" s="29"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="29"/>
       <c r="B905" s="29"/>
       <c r="C905" s="29"/>
@@ -46400,7 +46383,7 @@
       <c r="AR905" s="29"/>
       <c r="AS905" s="29"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="29"/>
       <c r="B906" s="29"/>
       <c r="C906" s="29"/>
@@ -46447,7 +46430,7 @@
       <c r="AR906" s="29"/>
       <c r="AS906" s="29"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="29"/>
       <c r="B907" s="29"/>
       <c r="C907" s="29"/>
@@ -46494,7 +46477,7 @@
       <c r="AR907" s="29"/>
       <c r="AS907" s="29"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="29"/>
       <c r="B908" s="29"/>
       <c r="C908" s="29"/>
@@ -46541,7 +46524,7 @@
       <c r="AR908" s="29"/>
       <c r="AS908" s="29"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="29"/>
       <c r="B909" s="29"/>
       <c r="C909" s="29"/>
@@ -46588,7 +46571,7 @@
       <c r="AR909" s="29"/>
       <c r="AS909" s="29"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="29"/>
       <c r="B910" s="29"/>
       <c r="C910" s="29"/>
@@ -46635,7 +46618,7 @@
       <c r="AR910" s="29"/>
       <c r="AS910" s="29"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="29"/>
       <c r="B911" s="29"/>
       <c r="C911" s="29"/>
@@ -46682,7 +46665,7 @@
       <c r="AR911" s="29"/>
       <c r="AS911" s="29"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="29"/>
       <c r="B912" s="29"/>
       <c r="C912" s="29"/>
@@ -46729,7 +46712,7 @@
       <c r="AR912" s="29"/>
       <c r="AS912" s="29"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="29"/>
       <c r="B913" s="29"/>
       <c r="C913" s="29"/>
@@ -46776,7 +46759,7 @@
       <c r="AR913" s="29"/>
       <c r="AS913" s="29"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="29"/>
       <c r="B914" s="29"/>
       <c r="C914" s="29"/>
@@ -46823,7 +46806,7 @@
       <c r="AR914" s="29"/>
       <c r="AS914" s="29"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="29"/>
       <c r="B915" s="29"/>
       <c r="C915" s="29"/>
@@ -46870,7 +46853,7 @@
       <c r="AR915" s="29"/>
       <c r="AS915" s="29"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="29"/>
       <c r="B916" s="29"/>
       <c r="C916" s="29"/>
@@ -46917,7 +46900,7 @@
       <c r="AR916" s="29"/>
       <c r="AS916" s="29"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="29"/>
       <c r="B917" s="29"/>
       <c r="C917" s="29"/>
@@ -46964,7 +46947,7 @@
       <c r="AR917" s="29"/>
       <c r="AS917" s="29"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="29"/>
       <c r="B918" s="29"/>
       <c r="C918" s="29"/>
@@ -47011,7 +46994,7 @@
       <c r="AR918" s="29"/>
       <c r="AS918" s="29"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="29"/>
       <c r="B919" s="29"/>
       <c r="C919" s="29"/>
@@ -47058,7 +47041,7 @@
       <c r="AR919" s="29"/>
       <c r="AS919" s="29"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="29"/>
       <c r="B920" s="29"/>
       <c r="C920" s="29"/>
@@ -47105,7 +47088,7 @@
       <c r="AR920" s="29"/>
       <c r="AS920" s="29"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="29"/>
       <c r="B921" s="29"/>
       <c r="C921" s="29"/>
@@ -47152,7 +47135,7 @@
       <c r="AR921" s="29"/>
       <c r="AS921" s="29"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="29"/>
       <c r="B922" s="29"/>
       <c r="C922" s="29"/>
@@ -47199,7 +47182,7 @@
       <c r="AR922" s="29"/>
       <c r="AS922" s="29"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="29"/>
       <c r="B923" s="29"/>
       <c r="C923" s="29"/>
@@ -47246,7 +47229,7 @@
       <c r="AR923" s="29"/>
       <c r="AS923" s="29"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="29"/>
       <c r="B924" s="29"/>
       <c r="C924" s="29"/>
@@ -47293,7 +47276,7 @@
       <c r="AR924" s="29"/>
       <c r="AS924" s="29"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="29"/>
       <c r="B925" s="29"/>
       <c r="C925" s="29"/>
@@ -47340,7 +47323,7 @@
       <c r="AR925" s="29"/>
       <c r="AS925" s="29"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="29"/>
       <c r="B926" s="29"/>
       <c r="C926" s="29"/>
@@ -47387,7 +47370,7 @@
       <c r="AR926" s="29"/>
       <c r="AS926" s="29"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="29"/>
       <c r="B927" s="29"/>
       <c r="C927" s="29"/>
@@ -47434,7 +47417,7 @@
       <c r="AR927" s="29"/>
       <c r="AS927" s="29"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="29"/>
       <c r="B928" s="29"/>
       <c r="C928" s="29"/>
@@ -47481,7 +47464,7 @@
       <c r="AR928" s="29"/>
       <c r="AS928" s="29"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="29"/>
       <c r="B929" s="29"/>
       <c r="C929" s="29"/>
@@ -47528,7 +47511,7 @@
       <c r="AR929" s="29"/>
       <c r="AS929" s="29"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="29"/>
       <c r="B930" s="29"/>
       <c r="C930" s="29"/>
@@ -47575,7 +47558,7 @@
       <c r="AR930" s="29"/>
       <c r="AS930" s="29"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="29"/>
       <c r="B931" s="29"/>
       <c r="C931" s="29"/>
@@ -47622,7 +47605,7 @@
       <c r="AR931" s="29"/>
       <c r="AS931" s="29"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="29"/>
       <c r="B932" s="29"/>
       <c r="C932" s="29"/>
@@ -47669,7 +47652,7 @@
       <c r="AR932" s="29"/>
       <c r="AS932" s="29"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="29"/>
       <c r="B933" s="29"/>
       <c r="C933" s="29"/>
@@ -47716,7 +47699,7 @@
       <c r="AR933" s="29"/>
       <c r="AS933" s="29"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="29"/>
       <c r="B934" s="29"/>
       <c r="C934" s="29"/>
@@ -47763,7 +47746,7 @@
       <c r="AR934" s="29"/>
       <c r="AS934" s="29"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="29"/>
       <c r="B935" s="29"/>
       <c r="C935" s="29"/>
@@ -47810,7 +47793,7 @@
       <c r="AR935" s="29"/>
       <c r="AS935" s="29"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="29"/>
       <c r="B936" s="29"/>
       <c r="C936" s="29"/>
@@ -47857,7 +47840,7 @@
       <c r="AR936" s="29"/>
       <c r="AS936" s="29"/>
     </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="29"/>
       <c r="B937" s="29"/>
       <c r="C937" s="29"/>
@@ -47904,7 +47887,7 @@
       <c r="AR937" s="29"/>
       <c r="AS937" s="29"/>
     </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="29"/>
       <c r="B938" s="29"/>
       <c r="C938" s="29"/>
@@ -47951,7 +47934,7 @@
       <c r="AR938" s="29"/>
       <c r="AS938" s="29"/>
     </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="29"/>
       <c r="B939" s="29"/>
       <c r="C939" s="29"/>
@@ -47998,7 +47981,7 @@
       <c r="AR939" s="29"/>
       <c r="AS939" s="29"/>
     </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="29"/>
       <c r="B940" s="29"/>
       <c r="C940" s="29"/>
@@ -48045,7 +48028,7 @@
       <c r="AR940" s="29"/>
       <c r="AS940" s="29"/>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="29"/>
       <c r="B941" s="29"/>
       <c r="C941" s="29"/>
@@ -48092,7 +48075,7 @@
       <c r="AR941" s="29"/>
       <c r="AS941" s="29"/>
     </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="29"/>
       <c r="B942" s="29"/>
       <c r="C942" s="29"/>
@@ -48139,7 +48122,7 @@
       <c r="AR942" s="29"/>
       <c r="AS942" s="29"/>
     </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="29"/>
       <c r="B943" s="29"/>
       <c r="C943" s="29"/>
@@ -48186,7 +48169,7 @@
       <c r="AR943" s="29"/>
       <c r="AS943" s="29"/>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="29"/>
       <c r="B944" s="29"/>
       <c r="C944" s="29"/>
@@ -48233,7 +48216,7 @@
       <c r="AR944" s="29"/>
       <c r="AS944" s="29"/>
     </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="29"/>
       <c r="B945" s="29"/>
       <c r="C945" s="29"/>
@@ -48280,7 +48263,7 @@
       <c r="AR945" s="29"/>
       <c r="AS945" s="29"/>
     </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="29"/>
       <c r="B946" s="29"/>
       <c r="C946" s="29"/>
@@ -48327,7 +48310,7 @@
       <c r="AR946" s="29"/>
       <c r="AS946" s="29"/>
     </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="29"/>
       <c r="B947" s="29"/>
       <c r="C947" s="29"/>
@@ -48374,7 +48357,7 @@
       <c r="AR947" s="29"/>
       <c r="AS947" s="29"/>
     </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="29"/>
       <c r="B948" s="29"/>
       <c r="C948" s="29"/>
@@ -48421,7 +48404,7 @@
       <c r="AR948" s="29"/>
       <c r="AS948" s="29"/>
     </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="29"/>
       <c r="B949" s="29"/>
       <c r="C949" s="29"/>
@@ -48468,7 +48451,7 @@
       <c r="AR949" s="29"/>
       <c r="AS949" s="29"/>
     </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="29"/>
       <c r="B950" s="29"/>
       <c r="C950" s="29"/>
@@ -48515,7 +48498,7 @@
       <c r="AR950" s="29"/>
       <c r="AS950" s="29"/>
     </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="29"/>
       <c r="B951" s="29"/>
       <c r="C951" s="29"/>
@@ -48562,7 +48545,7 @@
       <c r="AR951" s="29"/>
       <c r="AS951" s="29"/>
     </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="29"/>
       <c r="B952" s="29"/>
       <c r="C952" s="29"/>
@@ -48609,7 +48592,7 @@
       <c r="AR952" s="29"/>
       <c r="AS952" s="29"/>
     </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="29"/>
       <c r="B953" s="29"/>
       <c r="C953" s="29"/>
@@ -48656,7 +48639,7 @@
       <c r="AR953" s="29"/>
       <c r="AS953" s="29"/>
     </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="29"/>
       <c r="B954" s="29"/>
       <c r="C954" s="29"/>
@@ -48703,7 +48686,7 @@
       <c r="AR954" s="29"/>
       <c r="AS954" s="29"/>
     </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="29"/>
       <c r="B955" s="29"/>
       <c r="C955" s="29"/>
@@ -48750,7 +48733,7 @@
       <c r="AR955" s="29"/>
       <c r="AS955" s="29"/>
     </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="29"/>
       <c r="B956" s="29"/>
       <c r="C956" s="29"/>
@@ -48797,7 +48780,7 @@
       <c r="AR956" s="29"/>
       <c r="AS956" s="29"/>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="29"/>
       <c r="B957" s="29"/>
       <c r="C957" s="29"/>
@@ -48844,7 +48827,7 @@
       <c r="AR957" s="29"/>
       <c r="AS957" s="29"/>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="29"/>
       <c r="B958" s="29"/>
       <c r="C958" s="29"/>
@@ -48891,7 +48874,7 @@
       <c r="AR958" s="29"/>
       <c r="AS958" s="29"/>
     </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="29"/>
       <c r="B959" s="29"/>
       <c r="C959" s="29"/>
@@ -48938,7 +48921,7 @@
       <c r="AR959" s="29"/>
       <c r="AS959" s="29"/>
     </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="29"/>
       <c r="B960" s="29"/>
       <c r="C960" s="29"/>
@@ -48985,7 +48968,7 @@
       <c r="AR960" s="29"/>
       <c r="AS960" s="29"/>
     </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="29"/>
       <c r="B961" s="29"/>
       <c r="C961" s="29"/>
@@ -49032,7 +49015,7 @@
       <c r="AR961" s="29"/>
       <c r="AS961" s="29"/>
     </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="29"/>
       <c r="B962" s="29"/>
       <c r="C962" s="29"/>
@@ -49079,7 +49062,7 @@
       <c r="AR962" s="29"/>
       <c r="AS962" s="29"/>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="29"/>
       <c r="B963" s="29"/>
       <c r="C963" s="29"/>
@@ -49126,7 +49109,7 @@
       <c r="AR963" s="29"/>
       <c r="AS963" s="29"/>
     </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="29"/>
       <c r="B964" s="29"/>
       <c r="C964" s="29"/>
@@ -49173,7 +49156,7 @@
       <c r="AR964" s="29"/>
       <c r="AS964" s="29"/>
     </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="29"/>
       <c r="B965" s="29"/>
       <c r="C965" s="29"/>
@@ -49220,7 +49203,7 @@
       <c r="AR965" s="29"/>
       <c r="AS965" s="29"/>
     </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="29"/>
       <c r="B966" s="29"/>
       <c r="C966" s="29"/>
@@ -49267,7 +49250,7 @@
       <c r="AR966" s="29"/>
       <c r="AS966" s="29"/>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="29"/>
       <c r="B967" s="29"/>
       <c r="C967" s="29"/>
@@ -49314,7 +49297,7 @@
       <c r="AR967" s="29"/>
       <c r="AS967" s="29"/>
     </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="29"/>
       <c r="B968" s="29"/>
       <c r="C968" s="29"/>
@@ -49361,7 +49344,7 @@
       <c r="AR968" s="29"/>
       <c r="AS968" s="29"/>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="29"/>
       <c r="B969" s="29"/>
       <c r="C969" s="29"/>
@@ -49408,7 +49391,7 @@
       <c r="AR969" s="29"/>
       <c r="AS969" s="29"/>
     </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="29"/>
       <c r="B970" s="29"/>
       <c r="C970" s="29"/>
@@ -49455,7 +49438,7 @@
       <c r="AR970" s="29"/>
       <c r="AS970" s="29"/>
     </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="29"/>
       <c r="B971" s="29"/>
       <c r="C971" s="29"/>
@@ -49502,7 +49485,7 @@
       <c r="AR971" s="29"/>
       <c r="AS971" s="29"/>
     </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="29"/>
       <c r="B972" s="29"/>
       <c r="C972" s="29"/>
@@ -49549,7 +49532,7 @@
       <c r="AR972" s="29"/>
       <c r="AS972" s="29"/>
     </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="29"/>
       <c r="B973" s="29"/>
       <c r="C973" s="29"/>
@@ -49596,7 +49579,7 @@
       <c r="AR973" s="29"/>
       <c r="AS973" s="29"/>
     </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="29"/>
       <c r="B974" s="29"/>
       <c r="C974" s="29"/>
@@ -49643,7 +49626,7 @@
       <c r="AR974" s="29"/>
       <c r="AS974" s="29"/>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="29"/>
       <c r="B975" s="29"/>
       <c r="C975" s="29"/>
@@ -49690,7 +49673,7 @@
       <c r="AR975" s="29"/>
       <c r="AS975" s="29"/>
     </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="29"/>
       <c r="B976" s="29"/>
       <c r="C976" s="29"/>
@@ -49737,7 +49720,7 @@
       <c r="AR976" s="29"/>
       <c r="AS976" s="29"/>
     </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="29"/>
       <c r="B977" s="29"/>
       <c r="C977" s="29"/>
@@ -49784,7 +49767,7 @@
       <c r="AR977" s="29"/>
       <c r="AS977" s="29"/>
     </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="29"/>
       <c r="B978" s="29"/>
       <c r="C978" s="29"/>
@@ -49831,7 +49814,7 @@
       <c r="AR978" s="29"/>
       <c r="AS978" s="29"/>
     </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="29"/>
       <c r="B979" s="29"/>
       <c r="C979" s="29"/>
@@ -49878,7 +49861,7 @@
       <c r="AR979" s="29"/>
       <c r="AS979" s="29"/>
     </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="29"/>
       <c r="B980" s="29"/>
       <c r="C980" s="29"/>
@@ -49925,7 +49908,7 @@
       <c r="AR980" s="29"/>
       <c r="AS980" s="29"/>
     </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="29"/>
       <c r="B981" s="29"/>
       <c r="C981" s="29"/>
@@ -49972,7 +49955,7 @@
       <c r="AR981" s="29"/>
       <c r="AS981" s="29"/>
     </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="29"/>
       <c r="B982" s="29"/>
       <c r="C982" s="29"/>
@@ -50019,7 +50002,7 @@
       <c r="AR982" s="29"/>
       <c r="AS982" s="29"/>
     </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="29"/>
       <c r="B983" s="29"/>
       <c r="C983" s="29"/>
@@ -50066,7 +50049,7 @@
       <c r="AR983" s="29"/>
       <c r="AS983" s="29"/>
     </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="29"/>
       <c r="B984" s="29"/>
       <c r="C984" s="29"/>
@@ -50113,7 +50096,7 @@
       <c r="AR984" s="29"/>
       <c r="AS984" s="29"/>
     </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="29"/>
       <c r="B985" s="29"/>
       <c r="C985" s="29"/>
@@ -50160,7 +50143,7 @@
       <c r="AR985" s="29"/>
       <c r="AS985" s="29"/>
     </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="29"/>
       <c r="B986" s="29"/>
       <c r="C986" s="29"/>
@@ -50207,7 +50190,7 @@
       <c r="AR986" s="29"/>
       <c r="AS986" s="29"/>
     </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="29"/>
       <c r="B987" s="29"/>
       <c r="C987" s="29"/>
@@ -50254,7 +50237,7 @@
       <c r="AR987" s="29"/>
       <c r="AS987" s="29"/>
     </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="29"/>
       <c r="B988" s="29"/>
       <c r="C988" s="29"/>
@@ -50301,7 +50284,7 @@
       <c r="AR988" s="29"/>
       <c r="AS988" s="29"/>
     </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="29"/>
       <c r="B989" s="29"/>
       <c r="C989" s="29"/>
@@ -50348,7 +50331,7 @@
       <c r="AR989" s="29"/>
       <c r="AS989" s="29"/>
     </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="29"/>
       <c r="B990" s="29"/>
       <c r="C990" s="29"/>
@@ -50395,7 +50378,7 @@
       <c r="AR990" s="29"/>
       <c r="AS990" s="29"/>
     </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="29"/>
       <c r="B991" s="29"/>
       <c r="C991" s="29"/>
@@ -50442,7 +50425,7 @@
       <c r="AR991" s="29"/>
       <c r="AS991" s="29"/>
     </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="29"/>
       <c r="B992" s="29"/>
       <c r="C992" s="29"/>
@@ -50489,7 +50472,7 @@
       <c r="AR992" s="29"/>
       <c r="AS992" s="29"/>
     </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="29"/>
       <c r="B993" s="29"/>
       <c r="C993" s="29"/>
@@ -50536,7 +50519,7 @@
       <c r="AR993" s="29"/>
       <c r="AS993" s="29"/>
     </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="29"/>
       <c r="B994" s="29"/>
       <c r="C994" s="29"/>
@@ -50583,7 +50566,7 @@
       <c r="AR994" s="29"/>
       <c r="AS994" s="29"/>
     </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="29"/>
       <c r="B995" s="29"/>
       <c r="C995" s="29"/>
@@ -50630,7 +50613,7 @@
       <c r="AR995" s="29"/>
       <c r="AS995" s="29"/>
     </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="29"/>
       <c r="B996" s="29"/>
       <c r="C996" s="29"/>
@@ -50677,7 +50660,7 @@
       <c r="AR996" s="29"/>
       <c r="AS996" s="29"/>
     </row>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="29"/>
       <c r="B997" s="29"/>
       <c r="C997" s="29"/>
@@ -50724,7 +50707,7 @@
       <c r="AR997" s="29"/>
       <c r="AS997" s="29"/>
     </row>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="29"/>
       <c r="B998" s="29"/>
       <c r="C998" s="29"/>
@@ -50771,7 +50754,6 @@
       <c r="AR998" s="29"/>
       <c r="AS998" s="29"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="24">

--- a/src/Courses.xlsx
+++ b/src/Courses.xlsx
@@ -1912,15 +1912,15 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AO4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AO1" activeCellId="0" sqref="AO1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG1" activeCellId="0" sqref="AG1:AS1"/>
+      <selection pane="bottomRight" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="39.88"/>
@@ -2056,7 +2056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="301" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="128.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>64</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="266.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="151.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="278" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="301" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="301" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>141</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>163</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>193</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>211</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>229</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="289.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>245</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="646.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>141</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="332" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>274</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4603,7 +4603,7 @@
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4803,7 +4803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>318</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>328</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="128.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>341</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -5211,7 +5211,7 @@
       <c r="AR29" s="29"/>
       <c r="AS29" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -5258,7 +5258,7 @@
       <c r="AR30" s="29"/>
       <c r="AS30" s="29"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -5305,7 +5305,7 @@
       <c r="AR31" s="29"/>
       <c r="AS31" s="29"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -5352,7 +5352,7 @@
       <c r="AR32" s="29"/>
       <c r="AS32" s="29"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -5399,7 +5399,7 @@
       <c r="AR33" s="29"/>
       <c r="AS33" s="29"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -5446,7 +5446,7 @@
       <c r="AR34" s="29"/>
       <c r="AS34" s="29"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -5493,7 +5493,7 @@
       <c r="AR35" s="29"/>
       <c r="AS35" s="29"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -5540,7 +5540,7 @@
       <c r="AR36" s="29"/>
       <c r="AS36" s="29"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -5587,7 +5587,7 @@
       <c r="AR37" s="29"/>
       <c r="AS37" s="29"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -5634,7 +5634,7 @@
       <c r="AR38" s="29"/>
       <c r="AS38" s="29"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -5681,7 +5681,7 @@
       <c r="AR39" s="29"/>
       <c r="AS39" s="29"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -5728,7 +5728,7 @@
       <c r="AR40" s="29"/>
       <c r="AS40" s="29"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -5775,7 +5775,7 @@
       <c r="AR41" s="29"/>
       <c r="AS41" s="29"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -5822,7 +5822,7 @@
       <c r="AR42" s="29"/>
       <c r="AS42" s="29"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -5869,7 +5869,7 @@
       <c r="AR43" s="29"/>
       <c r="AS43" s="29"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -5916,7 +5916,7 @@
       <c r="AR44" s="29"/>
       <c r="AS44" s="29"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -5963,7 +5963,7 @@
       <c r="AR45" s="29"/>
       <c r="AS45" s="29"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -6010,7 +6010,7 @@
       <c r="AR46" s="29"/>
       <c r="AS46" s="29"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -6057,7 +6057,7 @@
       <c r="AR47" s="29"/>
       <c r="AS47" s="29"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -6104,7 +6104,7 @@
       <c r="AR48" s="29"/>
       <c r="AS48" s="29"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -6151,7 +6151,7 @@
       <c r="AR49" s="29"/>
       <c r="AS49" s="29"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -6198,7 +6198,7 @@
       <c r="AR50" s="29"/>
       <c r="AS50" s="29"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -6245,7 +6245,7 @@
       <c r="AR51" s="29"/>
       <c r="AS51" s="29"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -6292,7 +6292,7 @@
       <c r="AR52" s="29"/>
       <c r="AS52" s="29"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -6339,7 +6339,7 @@
       <c r="AR53" s="29"/>
       <c r="AS53" s="29"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -6386,7 +6386,7 @@
       <c r="AR54" s="29"/>
       <c r="AS54" s="29"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -6433,7 +6433,7 @@
       <c r="AR55" s="29"/>
       <c r="AS55" s="29"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -6480,7 +6480,7 @@
       <c r="AR56" s="29"/>
       <c r="AS56" s="29"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -6527,7 +6527,7 @@
       <c r="AR57" s="29"/>
       <c r="AS57" s="29"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -6574,7 +6574,7 @@
       <c r="AR58" s="29"/>
       <c r="AS58" s="29"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -6621,7 +6621,7 @@
       <c r="AR59" s="29"/>
       <c r="AS59" s="29"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -6668,7 +6668,7 @@
       <c r="AR60" s="29"/>
       <c r="AS60" s="29"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -6715,7 +6715,7 @@
       <c r="AR61" s="29"/>
       <c r="AS61" s="29"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -6762,7 +6762,7 @@
       <c r="AR62" s="29"/>
       <c r="AS62" s="29"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -6809,7 +6809,7 @@
       <c r="AR63" s="29"/>
       <c r="AS63" s="29"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -6856,7 +6856,7 @@
       <c r="AR64" s="29"/>
       <c r="AS64" s="29"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -6903,7 +6903,7 @@
       <c r="AR65" s="29"/>
       <c r="AS65" s="29"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -6950,7 +6950,7 @@
       <c r="AR66" s="29"/>
       <c r="AS66" s="29"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -6997,7 +6997,7 @@
       <c r="AR67" s="29"/>
       <c r="AS67" s="29"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -7044,7 +7044,7 @@
       <c r="AR68" s="29"/>
       <c r="AS68" s="29"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -7091,7 +7091,7 @@
       <c r="AR69" s="29"/>
       <c r="AS69" s="29"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -7138,7 +7138,7 @@
       <c r="AR70" s="29"/>
       <c r="AS70" s="29"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -7185,7 +7185,7 @@
       <c r="AR71" s="29"/>
       <c r="AS71" s="29"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -7232,7 +7232,7 @@
       <c r="AR72" s="29"/>
       <c r="AS72" s="29"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -7279,7 +7279,7 @@
       <c r="AR73" s="29"/>
       <c r="AS73" s="29"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -7326,7 +7326,7 @@
       <c r="AR74" s="29"/>
       <c r="AS74" s="29"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -7373,7 +7373,7 @@
       <c r="AR75" s="29"/>
       <c r="AS75" s="29"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -7420,7 +7420,7 @@
       <c r="AR76" s="29"/>
       <c r="AS76" s="29"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -7467,7 +7467,7 @@
       <c r="AR77" s="29"/>
       <c r="AS77" s="29"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -7514,7 +7514,7 @@
       <c r="AR78" s="29"/>
       <c r="AS78" s="29"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -7561,7 +7561,7 @@
       <c r="AR79" s="29"/>
       <c r="AS79" s="29"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -7608,7 +7608,7 @@
       <c r="AR80" s="29"/>
       <c r="AS80" s="29"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -7655,7 +7655,7 @@
       <c r="AR81" s="29"/>
       <c r="AS81" s="29"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -7702,7 +7702,7 @@
       <c r="AR82" s="29"/>
       <c r="AS82" s="29"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -7749,7 +7749,7 @@
       <c r="AR83" s="29"/>
       <c r="AS83" s="29"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -7796,7 +7796,7 @@
       <c r="AR84" s="29"/>
       <c r="AS84" s="29"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -7843,7 +7843,7 @@
       <c r="AR85" s="29"/>
       <c r="AS85" s="29"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -7890,7 +7890,7 @@
       <c r="AR86" s="29"/>
       <c r="AS86" s="29"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -7937,7 +7937,7 @@
       <c r="AR87" s="29"/>
       <c r="AS87" s="29"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -7984,7 +7984,7 @@
       <c r="AR88" s="29"/>
       <c r="AS88" s="29"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -8031,7 +8031,7 @@
       <c r="AR89" s="29"/>
       <c r="AS89" s="29"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -8078,7 +8078,7 @@
       <c r="AR90" s="29"/>
       <c r="AS90" s="29"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -8125,7 +8125,7 @@
       <c r="AR91" s="29"/>
       <c r="AS91" s="29"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -8172,7 +8172,7 @@
       <c r="AR92" s="29"/>
       <c r="AS92" s="29"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -8219,7 +8219,7 @@
       <c r="AR93" s="29"/>
       <c r="AS93" s="29"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -8266,7 +8266,7 @@
       <c r="AR94" s="29"/>
       <c r="AS94" s="29"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="29"/>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
@@ -8313,7 +8313,7 @@
       <c r="AR95" s="29"/>
       <c r="AS95" s="29"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -8360,7 +8360,7 @@
       <c r="AR96" s="29"/>
       <c r="AS96" s="29"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -8407,7 +8407,7 @@
       <c r="AR97" s="29"/>
       <c r="AS97" s="29"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="29"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -8454,7 +8454,7 @@
       <c r="AR98" s="29"/>
       <c r="AS98" s="29"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -8501,7 +8501,7 @@
       <c r="AR99" s="29"/>
       <c r="AS99" s="29"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -8548,7 +8548,7 @@
       <c r="AR100" s="29"/>
       <c r="AS100" s="29"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -8595,7 +8595,7 @@
       <c r="AR101" s="29"/>
       <c r="AS101" s="29"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -8642,7 +8642,7 @@
       <c r="AR102" s="29"/>
       <c r="AS102" s="29"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -8689,7 +8689,7 @@
       <c r="AR103" s="29"/>
       <c r="AS103" s="29"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -8736,7 +8736,7 @@
       <c r="AR104" s="29"/>
       <c r="AS104" s="29"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -8783,7 +8783,7 @@
       <c r="AR105" s="29"/>
       <c r="AS105" s="29"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -8830,7 +8830,7 @@
       <c r="AR106" s="29"/>
       <c r="AS106" s="29"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -8877,7 +8877,7 @@
       <c r="AR107" s="29"/>
       <c r="AS107" s="29"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -8924,7 +8924,7 @@
       <c r="AR108" s="29"/>
       <c r="AS108" s="29"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -8971,7 +8971,7 @@
       <c r="AR109" s="29"/>
       <c r="AS109" s="29"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -9018,7 +9018,7 @@
       <c r="AR110" s="29"/>
       <c r="AS110" s="29"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -9065,7 +9065,7 @@
       <c r="AR111" s="29"/>
       <c r="AS111" s="29"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -9112,7 +9112,7 @@
       <c r="AR112" s="29"/>
       <c r="AS112" s="29"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -9159,7 +9159,7 @@
       <c r="AR113" s="29"/>
       <c r="AS113" s="29"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -9206,7 +9206,7 @@
       <c r="AR114" s="29"/>
       <c r="AS114" s="29"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="29"/>
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
@@ -9253,7 +9253,7 @@
       <c r="AR115" s="29"/>
       <c r="AS115" s="29"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -9300,7 +9300,7 @@
       <c r="AR116" s="29"/>
       <c r="AS116" s="29"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
@@ -9347,7 +9347,7 @@
       <c r="AR117" s="29"/>
       <c r="AS117" s="29"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
@@ -9394,7 +9394,7 @@
       <c r="AR118" s="29"/>
       <c r="AS118" s="29"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
@@ -9441,7 +9441,7 @@
       <c r="AR119" s="29"/>
       <c r="AS119" s="29"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="29"/>
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
@@ -9488,7 +9488,7 @@
       <c r="AR120" s="29"/>
       <c r="AS120" s="29"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="29"/>
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
@@ -9535,7 +9535,7 @@
       <c r="AR121" s="29"/>
       <c r="AS121" s="29"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -9582,7 +9582,7 @@
       <c r="AR122" s="29"/>
       <c r="AS122" s="29"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="29"/>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
@@ -9629,7 +9629,7 @@
       <c r="AR123" s="29"/>
       <c r="AS123" s="29"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="29"/>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -9676,7 +9676,7 @@
       <c r="AR124" s="29"/>
       <c r="AS124" s="29"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="29"/>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -9723,7 +9723,7 @@
       <c r="AR125" s="29"/>
       <c r="AS125" s="29"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -9770,7 +9770,7 @@
       <c r="AR126" s="29"/>
       <c r="AS126" s="29"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -9817,7 +9817,7 @@
       <c r="AR127" s="29"/>
       <c r="AS127" s="29"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="29"/>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -9864,7 +9864,7 @@
       <c r="AR128" s="29"/>
       <c r="AS128" s="29"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="29"/>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -9911,7 +9911,7 @@
       <c r="AR129" s="29"/>
       <c r="AS129" s="29"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="29"/>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -9958,7 +9958,7 @@
       <c r="AR130" s="29"/>
       <c r="AS130" s="29"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="29"/>
       <c r="B131" s="29"/>
       <c r="C131" s="29"/>
@@ -10005,7 +10005,7 @@
       <c r="AR131" s="29"/>
       <c r="AS131" s="29"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -10052,7 +10052,7 @@
       <c r="AR132" s="29"/>
       <c r="AS132" s="29"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -10099,7 +10099,7 @@
       <c r="AR133" s="29"/>
       <c r="AS133" s="29"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="29"/>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -10146,7 +10146,7 @@
       <c r="AR134" s="29"/>
       <c r="AS134" s="29"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -10193,7 +10193,7 @@
       <c r="AR135" s="29"/>
       <c r="AS135" s="29"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="29"/>
       <c r="B136" s="29"/>
       <c r="C136" s="29"/>
@@ -10240,7 +10240,7 @@
       <c r="AR136" s="29"/>
       <c r="AS136" s="29"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="29"/>
       <c r="B137" s="29"/>
       <c r="C137" s="29"/>
@@ -10287,7 +10287,7 @@
       <c r="AR137" s="29"/>
       <c r="AS137" s="29"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="29"/>
       <c r="B138" s="29"/>
       <c r="C138" s="29"/>
@@ -10334,7 +10334,7 @@
       <c r="AR138" s="29"/>
       <c r="AS138" s="29"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="29"/>
       <c r="B139" s="29"/>
       <c r="C139" s="29"/>
@@ -10381,7 +10381,7 @@
       <c r="AR139" s="29"/>
       <c r="AS139" s="29"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -10428,7 +10428,7 @@
       <c r="AR140" s="29"/>
       <c r="AS140" s="29"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -10475,7 +10475,7 @@
       <c r="AR141" s="29"/>
       <c r="AS141" s="29"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
@@ -10522,7 +10522,7 @@
       <c r="AR142" s="29"/>
       <c r="AS142" s="29"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -10569,7 +10569,7 @@
       <c r="AR143" s="29"/>
       <c r="AS143" s="29"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -10616,7 +10616,7 @@
       <c r="AR144" s="29"/>
       <c r="AS144" s="29"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
@@ -10663,7 +10663,7 @@
       <c r="AR145" s="29"/>
       <c r="AS145" s="29"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
@@ -10710,7 +10710,7 @@
       <c r="AR146" s="29"/>
       <c r="AS146" s="29"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="29"/>
       <c r="B147" s="29"/>
       <c r="C147" s="29"/>
@@ -10757,7 +10757,7 @@
       <c r="AR147" s="29"/>
       <c r="AS147" s="29"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="29"/>
       <c r="B148" s="29"/>
       <c r="C148" s="29"/>
@@ -10804,7 +10804,7 @@
       <c r="AR148" s="29"/>
       <c r="AS148" s="29"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="29"/>
@@ -10851,7 +10851,7 @@
       <c r="AR149" s="29"/>
       <c r="AS149" s="29"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="29"/>
       <c r="B150" s="29"/>
       <c r="C150" s="29"/>
@@ -10898,7 +10898,7 @@
       <c r="AR150" s="29"/>
       <c r="AS150" s="29"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="29"/>
@@ -10945,7 +10945,7 @@
       <c r="AR151" s="29"/>
       <c r="AS151" s="29"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="29"/>
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
@@ -10992,7 +10992,7 @@
       <c r="AR152" s="29"/>
       <c r="AS152" s="29"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="29"/>
@@ -11039,7 +11039,7 @@
       <c r="AR153" s="29"/>
       <c r="AS153" s="29"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="29"/>
       <c r="B154" s="29"/>
       <c r="C154" s="29"/>
@@ -11086,7 +11086,7 @@
       <c r="AR154" s="29"/>
       <c r="AS154" s="29"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="29"/>
       <c r="B155" s="29"/>
       <c r="C155" s="29"/>
@@ -11133,7 +11133,7 @@
       <c r="AR155" s="29"/>
       <c r="AS155" s="29"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="29"/>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
@@ -11180,7 +11180,7 @@
       <c r="AR156" s="29"/>
       <c r="AS156" s="29"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -11227,7 +11227,7 @@
       <c r="AR157" s="29"/>
       <c r="AS157" s="29"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -11274,7 +11274,7 @@
       <c r="AR158" s="29"/>
       <c r="AS158" s="29"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="29"/>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
@@ -11321,7 +11321,7 @@
       <c r="AR159" s="29"/>
       <c r="AS159" s="29"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="29"/>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
@@ -11368,7 +11368,7 @@
       <c r="AR160" s="29"/>
       <c r="AS160" s="29"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="C161" s="29"/>
@@ -11415,7 +11415,7 @@
       <c r="AR161" s="29"/>
       <c r="AS161" s="29"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="29"/>
       <c r="B162" s="29"/>
       <c r="C162" s="29"/>
@@ -11462,7 +11462,7 @@
       <c r="AR162" s="29"/>
       <c r="AS162" s="29"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="29"/>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
@@ -11509,7 +11509,7 @@
       <c r="AR163" s="29"/>
       <c r="AS163" s="29"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="29"/>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -11556,7 +11556,7 @@
       <c r="AR164" s="29"/>
       <c r="AS164" s="29"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="29"/>
       <c r="B165" s="29"/>
       <c r="C165" s="29"/>
@@ -11603,7 +11603,7 @@
       <c r="AR165" s="29"/>
       <c r="AS165" s="29"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="29"/>
       <c r="B166" s="29"/>
       <c r="C166" s="29"/>
@@ -11650,7 +11650,7 @@
       <c r="AR166" s="29"/>
       <c r="AS166" s="29"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="29"/>
       <c r="B167" s="29"/>
       <c r="C167" s="29"/>
@@ -11697,7 +11697,7 @@
       <c r="AR167" s="29"/>
       <c r="AS167" s="29"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="29"/>
       <c r="B168" s="29"/>
       <c r="C168" s="29"/>
@@ -11744,7 +11744,7 @@
       <c r="AR168" s="29"/>
       <c r="AS168" s="29"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="29"/>
       <c r="B169" s="29"/>
       <c r="C169" s="29"/>
@@ -11791,7 +11791,7 @@
       <c r="AR169" s="29"/>
       <c r="AS169" s="29"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="29"/>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
@@ -11838,7 +11838,7 @@
       <c r="AR170" s="29"/>
       <c r="AS170" s="29"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="29"/>
       <c r="B171" s="29"/>
       <c r="C171" s="29"/>
@@ -11885,7 +11885,7 @@
       <c r="AR171" s="29"/>
       <c r="AS171" s="29"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
@@ -11932,7 +11932,7 @@
       <c r="AR172" s="29"/>
       <c r="AS172" s="29"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="29"/>
       <c r="B173" s="29"/>
       <c r="C173" s="29"/>
@@ -11979,7 +11979,7 @@
       <c r="AR173" s="29"/>
       <c r="AS173" s="29"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="29"/>
       <c r="B174" s="29"/>
       <c r="C174" s="29"/>
@@ -12026,7 +12026,7 @@
       <c r="AR174" s="29"/>
       <c r="AS174" s="29"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
       <c r="C175" s="29"/>
@@ -12073,7 +12073,7 @@
       <c r="AR175" s="29"/>
       <c r="AS175" s="29"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="29"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
@@ -12120,7 +12120,7 @@
       <c r="AR176" s="29"/>
       <c r="AS176" s="29"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="29"/>
       <c r="B177" s="29"/>
       <c r="C177" s="29"/>
@@ -12167,7 +12167,7 @@
       <c r="AR177" s="29"/>
       <c r="AS177" s="29"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="29"/>
       <c r="B178" s="29"/>
       <c r="C178" s="29"/>
@@ -12214,7 +12214,7 @@
       <c r="AR178" s="29"/>
       <c r="AS178" s="29"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="29"/>
       <c r="B179" s="29"/>
       <c r="C179" s="29"/>
@@ -12261,7 +12261,7 @@
       <c r="AR179" s="29"/>
       <c r="AS179" s="29"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="29"/>
       <c r="B180" s="29"/>
       <c r="C180" s="29"/>
@@ -12308,7 +12308,7 @@
       <c r="AR180" s="29"/>
       <c r="AS180" s="29"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
@@ -12355,7 +12355,7 @@
       <c r="AR181" s="29"/>
       <c r="AS181" s="29"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="29"/>
       <c r="B182" s="29"/>
       <c r="C182" s="29"/>
@@ -12402,7 +12402,7 @@
       <c r="AR182" s="29"/>
       <c r="AS182" s="29"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="29"/>
       <c r="B183" s="29"/>
       <c r="C183" s="29"/>
@@ -12449,7 +12449,7 @@
       <c r="AR183" s="29"/>
       <c r="AS183" s="29"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="29"/>
       <c r="B184" s="29"/>
       <c r="C184" s="29"/>
@@ -12496,7 +12496,7 @@
       <c r="AR184" s="29"/>
       <c r="AS184" s="29"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="29"/>
       <c r="B185" s="29"/>
       <c r="C185" s="29"/>
@@ -12543,7 +12543,7 @@
       <c r="AR185" s="29"/>
       <c r="AS185" s="29"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="29"/>
       <c r="B186" s="29"/>
       <c r="C186" s="29"/>
@@ -12590,7 +12590,7 @@
       <c r="AR186" s="29"/>
       <c r="AS186" s="29"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="29"/>
       <c r="B187" s="29"/>
       <c r="C187" s="29"/>
@@ -12637,7 +12637,7 @@
       <c r="AR187" s="29"/>
       <c r="AS187" s="29"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="29"/>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
@@ -12684,7 +12684,7 @@
       <c r="AR188" s="29"/>
       <c r="AS188" s="29"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="29"/>
       <c r="B189" s="29"/>
       <c r="C189" s="29"/>
@@ -12731,7 +12731,7 @@
       <c r="AR189" s="29"/>
       <c r="AS189" s="29"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="29"/>
       <c r="B190" s="29"/>
       <c r="C190" s="29"/>
@@ -12778,7 +12778,7 @@
       <c r="AR190" s="29"/>
       <c r="AS190" s="29"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="29"/>
       <c r="B191" s="29"/>
       <c r="C191" s="29"/>
@@ -12825,7 +12825,7 @@
       <c r="AR191" s="29"/>
       <c r="AS191" s="29"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="29"/>
@@ -12872,7 +12872,7 @@
       <c r="AR192" s="29"/>
       <c r="AS192" s="29"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
@@ -12919,7 +12919,7 @@
       <c r="AR193" s="29"/>
       <c r="AS193" s="29"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
@@ -12966,7 +12966,7 @@
       <c r="AR194" s="29"/>
       <c r="AS194" s="29"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="29"/>
@@ -13013,7 +13013,7 @@
       <c r="AR195" s="29"/>
       <c r="AS195" s="29"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -13060,7 +13060,7 @@
       <c r="AR196" s="29"/>
       <c r="AS196" s="29"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
@@ -13107,7 +13107,7 @@
       <c r="AR197" s="29"/>
       <c r="AS197" s="29"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
@@ -13154,7 +13154,7 @@
       <c r="AR198" s="29"/>
       <c r="AS198" s="29"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
@@ -13201,7 +13201,7 @@
       <c r="AR199" s="29"/>
       <c r="AS199" s="29"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
@@ -13248,7 +13248,7 @@
       <c r="AR200" s="29"/>
       <c r="AS200" s="29"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="29"/>
@@ -13295,7 +13295,7 @@
       <c r="AR201" s="29"/>
       <c r="AS201" s="29"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
@@ -13342,7 +13342,7 @@
       <c r="AR202" s="29"/>
       <c r="AS202" s="29"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
@@ -13389,7 +13389,7 @@
       <c r="AR203" s="29"/>
       <c r="AS203" s="29"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -13436,7 +13436,7 @@
       <c r="AR204" s="29"/>
       <c r="AS204" s="29"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -13483,7 +13483,7 @@
       <c r="AR205" s="29"/>
       <c r="AS205" s="29"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
@@ -13530,7 +13530,7 @@
       <c r="AR206" s="29"/>
       <c r="AS206" s="29"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
@@ -13577,7 +13577,7 @@
       <c r="AR207" s="29"/>
       <c r="AS207" s="29"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
@@ -13624,7 +13624,7 @@
       <c r="AR208" s="29"/>
       <c r="AS208" s="29"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
@@ -13671,7 +13671,7 @@
       <c r="AR209" s="29"/>
       <c r="AS209" s="29"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
@@ -13718,7 +13718,7 @@
       <c r="AR210" s="29"/>
       <c r="AS210" s="29"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
@@ -13765,7 +13765,7 @@
       <c r="AR211" s="29"/>
       <c r="AS211" s="29"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
@@ -13812,7 +13812,7 @@
       <c r="AR212" s="29"/>
       <c r="AS212" s="29"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="29"/>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
@@ -13859,7 +13859,7 @@
       <c r="AR213" s="29"/>
       <c r="AS213" s="29"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
@@ -13906,7 +13906,7 @@
       <c r="AR214" s="29"/>
       <c r="AS214" s="29"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="29"/>
@@ -13953,7 +13953,7 @@
       <c r="AR215" s="29"/>
       <c r="AS215" s="29"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -14000,7 +14000,7 @@
       <c r="AR216" s="29"/>
       <c r="AS216" s="29"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
@@ -14047,7 +14047,7 @@
       <c r="AR217" s="29"/>
       <c r="AS217" s="29"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="29"/>
@@ -14094,7 +14094,7 @@
       <c r="AR218" s="29"/>
       <c r="AS218" s="29"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="29"/>
@@ -14141,7 +14141,7 @@
       <c r="AR219" s="29"/>
       <c r="AS219" s="29"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
@@ -14188,7 +14188,7 @@
       <c r="AR220" s="29"/>
       <c r="AS220" s="29"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
@@ -14235,7 +14235,7 @@
       <c r="AR221" s="29"/>
       <c r="AS221" s="29"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
@@ -14282,7 +14282,7 @@
       <c r="AR222" s="29"/>
       <c r="AS222" s="29"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
@@ -14329,7 +14329,7 @@
       <c r="AR223" s="29"/>
       <c r="AS223" s="29"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
@@ -14376,7 +14376,7 @@
       <c r="AR224" s="29"/>
       <c r="AS224" s="29"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -14423,7 +14423,7 @@
       <c r="AR225" s="29"/>
       <c r="AS225" s="29"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
@@ -14470,7 +14470,7 @@
       <c r="AR226" s="29"/>
       <c r="AS226" s="29"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
@@ -14517,7 +14517,7 @@
       <c r="AR227" s="29"/>
       <c r="AS227" s="29"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -14564,7 +14564,7 @@
       <c r="AR228" s="29"/>
       <c r="AS228" s="29"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="29"/>
@@ -14611,7 +14611,7 @@
       <c r="AR229" s="29"/>
       <c r="AS229" s="29"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
@@ -14658,7 +14658,7 @@
       <c r="AR230" s="29"/>
       <c r="AS230" s="29"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -14705,7 +14705,7 @@
       <c r="AR231" s="29"/>
       <c r="AS231" s="29"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
@@ -14752,7 +14752,7 @@
       <c r="AR232" s="29"/>
       <c r="AS232" s="29"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
@@ -14799,7 +14799,7 @@
       <c r="AR233" s="29"/>
       <c r="AS233" s="29"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="29"/>
@@ -14846,7 +14846,7 @@
       <c r="AR234" s="29"/>
       <c r="AS234" s="29"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="29"/>
       <c r="B235" s="29"/>
       <c r="C235" s="29"/>
@@ -14893,7 +14893,7 @@
       <c r="AR235" s="29"/>
       <c r="AS235" s="29"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -14940,7 +14940,7 @@
       <c r="AR236" s="29"/>
       <c r="AS236" s="29"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
@@ -14987,7 +14987,7 @@
       <c r="AR237" s="29"/>
       <c r="AS237" s="29"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
@@ -15034,7 +15034,7 @@
       <c r="AR238" s="29"/>
       <c r="AS238" s="29"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="29"/>
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
@@ -15081,7 +15081,7 @@
       <c r="AR239" s="29"/>
       <c r="AS239" s="29"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
@@ -15128,7 +15128,7 @@
       <c r="AR240" s="29"/>
       <c r="AS240" s="29"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
@@ -15175,7 +15175,7 @@
       <c r="AR241" s="29"/>
       <c r="AS241" s="29"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
@@ -15222,7 +15222,7 @@
       <c r="AR242" s="29"/>
       <c r="AS242" s="29"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="29"/>
@@ -15269,7 +15269,7 @@
       <c r="AR243" s="29"/>
       <c r="AS243" s="29"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="29"/>
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
@@ -15316,7 +15316,7 @@
       <c r="AR244" s="29"/>
       <c r="AS244" s="29"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="29"/>
@@ -15363,7 +15363,7 @@
       <c r="AR245" s="29"/>
       <c r="AS245" s="29"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="29"/>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -15410,7 +15410,7 @@
       <c r="AR246" s="29"/>
       <c r="AS246" s="29"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -15457,7 +15457,7 @@
       <c r="AR247" s="29"/>
       <c r="AS247" s="29"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="29"/>
       <c r="B248" s="29"/>
       <c r="C248" s="29"/>
@@ -15504,7 +15504,7 @@
       <c r="AR248" s="29"/>
       <c r="AS248" s="29"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="29"/>
       <c r="B249" s="29"/>
       <c r="C249" s="29"/>
@@ -15551,7 +15551,7 @@
       <c r="AR249" s="29"/>
       <c r="AS249" s="29"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="29"/>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
@@ -15598,7 +15598,7 @@
       <c r="AR250" s="29"/>
       <c r="AS250" s="29"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="29"/>
       <c r="B251" s="29"/>
       <c r="C251" s="29"/>
@@ -15645,7 +15645,7 @@
       <c r="AR251" s="29"/>
       <c r="AS251" s="29"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="29"/>
       <c r="B252" s="29"/>
       <c r="C252" s="29"/>
@@ -15692,7 +15692,7 @@
       <c r="AR252" s="29"/>
       <c r="AS252" s="29"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="29"/>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
@@ -15739,7 +15739,7 @@
       <c r="AR253" s="29"/>
       <c r="AS253" s="29"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="29"/>
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
@@ -15786,7 +15786,7 @@
       <c r="AR254" s="29"/>
       <c r="AS254" s="29"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="29"/>
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
@@ -15833,7 +15833,7 @@
       <c r="AR255" s="29"/>
       <c r="AS255" s="29"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="29"/>
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
@@ -15880,7 +15880,7 @@
       <c r="AR256" s="29"/>
       <c r="AS256" s="29"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="29"/>
@@ -15927,7 +15927,7 @@
       <c r="AR257" s="29"/>
       <c r="AS257" s="29"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="29"/>
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
@@ -15974,7 +15974,7 @@
       <c r="AR258" s="29"/>
       <c r="AS258" s="29"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="29"/>
       <c r="B259" s="29"/>
       <c r="C259" s="29"/>
@@ -16021,7 +16021,7 @@
       <c r="AR259" s="29"/>
       <c r="AS259" s="29"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="29"/>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
@@ -16068,7 +16068,7 @@
       <c r="AR260" s="29"/>
       <c r="AS260" s="29"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="29"/>
       <c r="B261" s="29"/>
       <c r="C261" s="29"/>
@@ -16115,7 +16115,7 @@
       <c r="AR261" s="29"/>
       <c r="AS261" s="29"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="29"/>
       <c r="B262" s="29"/>
       <c r="C262" s="29"/>
@@ -16162,7 +16162,7 @@
       <c r="AR262" s="29"/>
       <c r="AS262" s="29"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="29"/>
       <c r="B263" s="29"/>
       <c r="C263" s="29"/>
@@ -16209,7 +16209,7 @@
       <c r="AR263" s="29"/>
       <c r="AS263" s="29"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="29"/>
       <c r="B264" s="29"/>
       <c r="C264" s="29"/>
@@ -16256,7 +16256,7 @@
       <c r="AR264" s="29"/>
       <c r="AS264" s="29"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="29"/>
       <c r="B265" s="29"/>
       <c r="C265" s="29"/>
@@ -16303,7 +16303,7 @@
       <c r="AR265" s="29"/>
       <c r="AS265" s="29"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="29"/>
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
@@ -16350,7 +16350,7 @@
       <c r="AR266" s="29"/>
       <c r="AS266" s="29"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="29"/>
       <c r="B267" s="29"/>
       <c r="C267" s="29"/>
@@ -16397,7 +16397,7 @@
       <c r="AR267" s="29"/>
       <c r="AS267" s="29"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="29"/>
       <c r="B268" s="29"/>
       <c r="C268" s="29"/>
@@ -16444,7 +16444,7 @@
       <c r="AR268" s="29"/>
       <c r="AS268" s="29"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="29"/>
       <c r="B269" s="29"/>
       <c r="C269" s="29"/>
@@ -16491,7 +16491,7 @@
       <c r="AR269" s="29"/>
       <c r="AS269" s="29"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="29"/>
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
@@ -16538,7 +16538,7 @@
       <c r="AR270" s="29"/>
       <c r="AS270" s="29"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="29"/>
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
@@ -16585,7 +16585,7 @@
       <c r="AR271" s="29"/>
       <c r="AS271" s="29"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="29"/>
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
@@ -16632,7 +16632,7 @@
       <c r="AR272" s="29"/>
       <c r="AS272" s="29"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="29"/>
       <c r="B273" s="29"/>
       <c r="C273" s="29"/>
@@ -16679,7 +16679,7 @@
       <c r="AR273" s="29"/>
       <c r="AS273" s="29"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="29"/>
       <c r="B274" s="29"/>
       <c r="C274" s="29"/>
@@ -16726,7 +16726,7 @@
       <c r="AR274" s="29"/>
       <c r="AS274" s="29"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="29"/>
       <c r="B275" s="29"/>
       <c r="C275" s="29"/>
@@ -16773,7 +16773,7 @@
       <c r="AR275" s="29"/>
       <c r="AS275" s="29"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="29"/>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -16820,7 +16820,7 @@
       <c r="AR276" s="29"/>
       <c r="AS276" s="29"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="29"/>
       <c r="B277" s="29"/>
       <c r="C277" s="29"/>
@@ -16867,7 +16867,7 @@
       <c r="AR277" s="29"/>
       <c r="AS277" s="29"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="29"/>
       <c r="B278" s="29"/>
       <c r="C278" s="29"/>
@@ -16914,7 +16914,7 @@
       <c r="AR278" s="29"/>
       <c r="AS278" s="29"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="29"/>
       <c r="B279" s="29"/>
       <c r="C279" s="29"/>
@@ -16961,7 +16961,7 @@
       <c r="AR279" s="29"/>
       <c r="AS279" s="29"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="29"/>
       <c r="B280" s="29"/>
       <c r="C280" s="29"/>
@@ -17008,7 +17008,7 @@
       <c r="AR280" s="29"/>
       <c r="AS280" s="29"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="29"/>
       <c r="B281" s="29"/>
       <c r="C281" s="29"/>
@@ -17055,7 +17055,7 @@
       <c r="AR281" s="29"/>
       <c r="AS281" s="29"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="29"/>
       <c r="B282" s="29"/>
       <c r="C282" s="29"/>
@@ -17102,7 +17102,7 @@
       <c r="AR282" s="29"/>
       <c r="AS282" s="29"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="29"/>
       <c r="B283" s="29"/>
       <c r="C283" s="29"/>
@@ -17149,7 +17149,7 @@
       <c r="AR283" s="29"/>
       <c r="AS283" s="29"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="29"/>
       <c r="B284" s="29"/>
       <c r="C284" s="29"/>
@@ -17196,7 +17196,7 @@
       <c r="AR284" s="29"/>
       <c r="AS284" s="29"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="29"/>
       <c r="B285" s="29"/>
       <c r="C285" s="29"/>
@@ -17243,7 +17243,7 @@
       <c r="AR285" s="29"/>
       <c r="AS285" s="29"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="29"/>
       <c r="B286" s="29"/>
       <c r="C286" s="29"/>
@@ -17290,7 +17290,7 @@
       <c r="AR286" s="29"/>
       <c r="AS286" s="29"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="29"/>
       <c r="B287" s="29"/>
       <c r="C287" s="29"/>
@@ -17337,7 +17337,7 @@
       <c r="AR287" s="29"/>
       <c r="AS287" s="29"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="29"/>
       <c r="B288" s="29"/>
       <c r="C288" s="29"/>
@@ -17384,7 +17384,7 @@
       <c r="AR288" s="29"/>
       <c r="AS288" s="29"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="29"/>
       <c r="B289" s="29"/>
       <c r="C289" s="29"/>
@@ -17431,7 +17431,7 @@
       <c r="AR289" s="29"/>
       <c r="AS289" s="29"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="29"/>
       <c r="B290" s="29"/>
       <c r="C290" s="29"/>
@@ -17478,7 +17478,7 @@
       <c r="AR290" s="29"/>
       <c r="AS290" s="29"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="29"/>
       <c r="B291" s="29"/>
       <c r="C291" s="29"/>
@@ -17525,7 +17525,7 @@
       <c r="AR291" s="29"/>
       <c r="AS291" s="29"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="29"/>
       <c r="B292" s="29"/>
       <c r="C292" s="29"/>
@@ -17572,7 +17572,7 @@
       <c r="AR292" s="29"/>
       <c r="AS292" s="29"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="29"/>
       <c r="B293" s="29"/>
       <c r="C293" s="29"/>
@@ -17619,7 +17619,7 @@
       <c r="AR293" s="29"/>
       <c r="AS293" s="29"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="29"/>
       <c r="B294" s="29"/>
       <c r="C294" s="29"/>
@@ -17666,7 +17666,7 @@
       <c r="AR294" s="29"/>
       <c r="AS294" s="29"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="29"/>
       <c r="B295" s="29"/>
       <c r="C295" s="29"/>
@@ -17713,7 +17713,7 @@
       <c r="AR295" s="29"/>
       <c r="AS295" s="29"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -17760,7 +17760,7 @@
       <c r="AR296" s="29"/>
       <c r="AS296" s="29"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="29"/>
       <c r="B297" s="29"/>
       <c r="C297" s="29"/>
@@ -17807,7 +17807,7 @@
       <c r="AR297" s="29"/>
       <c r="AS297" s="29"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="29"/>
       <c r="B298" s="29"/>
       <c r="C298" s="29"/>
@@ -17854,7 +17854,7 @@
       <c r="AR298" s="29"/>
       <c r="AS298" s="29"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="29"/>
       <c r="B299" s="29"/>
       <c r="C299" s="29"/>
@@ -17901,7 +17901,7 @@
       <c r="AR299" s="29"/>
       <c r="AS299" s="29"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="29"/>
       <c r="B300" s="29"/>
       <c r="C300" s="29"/>
@@ -17948,7 +17948,7 @@
       <c r="AR300" s="29"/>
       <c r="AS300" s="29"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="29"/>
       <c r="B301" s="29"/>
       <c r="C301" s="29"/>
@@ -17995,7 +17995,7 @@
       <c r="AR301" s="29"/>
       <c r="AS301" s="29"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="29"/>
       <c r="B302" s="29"/>
       <c r="C302" s="29"/>
@@ -18042,7 +18042,7 @@
       <c r="AR302" s="29"/>
       <c r="AS302" s="29"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="29"/>
       <c r="B303" s="29"/>
       <c r="C303" s="29"/>
@@ -18089,7 +18089,7 @@
       <c r="AR303" s="29"/>
       <c r="AS303" s="29"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="29"/>
       <c r="B304" s="29"/>
       <c r="C304" s="29"/>
@@ -18136,7 +18136,7 @@
       <c r="AR304" s="29"/>
       <c r="AS304" s="29"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="29"/>
       <c r="B305" s="29"/>
       <c r="C305" s="29"/>
@@ -18183,7 +18183,7 @@
       <c r="AR305" s="29"/>
       <c r="AS305" s="29"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="29"/>
       <c r="B306" s="29"/>
       <c r="C306" s="29"/>
@@ -18230,7 +18230,7 @@
       <c r="AR306" s="29"/>
       <c r="AS306" s="29"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="29"/>
       <c r="B307" s="29"/>
       <c r="C307" s="29"/>
@@ -18277,7 +18277,7 @@
       <c r="AR307" s="29"/>
       <c r="AS307" s="29"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="29"/>
       <c r="B308" s="29"/>
       <c r="C308" s="29"/>
@@ -18324,7 +18324,7 @@
       <c r="AR308" s="29"/>
       <c r="AS308" s="29"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="29"/>
       <c r="B309" s="29"/>
       <c r="C309" s="29"/>
@@ -18371,7 +18371,7 @@
       <c r="AR309" s="29"/>
       <c r="AS309" s="29"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="29"/>
       <c r="B310" s="29"/>
       <c r="C310" s="29"/>
@@ -18418,7 +18418,7 @@
       <c r="AR310" s="29"/>
       <c r="AS310" s="29"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="29"/>
       <c r="B311" s="29"/>
       <c r="C311" s="29"/>
@@ -18465,7 +18465,7 @@
       <c r="AR311" s="29"/>
       <c r="AS311" s="29"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="29"/>
       <c r="B312" s="29"/>
       <c r="C312" s="29"/>
@@ -18512,7 +18512,7 @@
       <c r="AR312" s="29"/>
       <c r="AS312" s="29"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="29"/>
       <c r="B313" s="29"/>
       <c r="C313" s="29"/>
@@ -18559,7 +18559,7 @@
       <c r="AR313" s="29"/>
       <c r="AS313" s="29"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="29"/>
       <c r="B314" s="29"/>
       <c r="C314" s="29"/>
@@ -18606,7 +18606,7 @@
       <c r="AR314" s="29"/>
       <c r="AS314" s="29"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="29"/>
       <c r="B315" s="29"/>
       <c r="C315" s="29"/>
@@ -18653,7 +18653,7 @@
       <c r="AR315" s="29"/>
       <c r="AS315" s="29"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="29"/>
       <c r="B316" s="29"/>
       <c r="C316" s="29"/>
@@ -18700,7 +18700,7 @@
       <c r="AR316" s="29"/>
       <c r="AS316" s="29"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="29"/>
       <c r="B317" s="29"/>
       <c r="C317" s="29"/>
@@ -18747,7 +18747,7 @@
       <c r="AR317" s="29"/>
       <c r="AS317" s="29"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="29"/>
       <c r="B318" s="29"/>
       <c r="C318" s="29"/>
@@ -18794,7 +18794,7 @@
       <c r="AR318" s="29"/>
       <c r="AS318" s="29"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="29"/>
       <c r="B319" s="29"/>
       <c r="C319" s="29"/>
@@ -18841,7 +18841,7 @@
       <c r="AR319" s="29"/>
       <c r="AS319" s="29"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="29"/>
       <c r="B320" s="29"/>
       <c r="C320" s="29"/>
@@ -18888,7 +18888,7 @@
       <c r="AR320" s="29"/>
       <c r="AS320" s="29"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="29"/>
       <c r="B321" s="29"/>
       <c r="C321" s="29"/>
@@ -18935,7 +18935,7 @@
       <c r="AR321" s="29"/>
       <c r="AS321" s="29"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="29"/>
       <c r="B322" s="29"/>
       <c r="C322" s="29"/>
@@ -18982,7 +18982,7 @@
       <c r="AR322" s="29"/>
       <c r="AS322" s="29"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="29"/>
       <c r="B323" s="29"/>
       <c r="C323" s="29"/>
@@ -19029,7 +19029,7 @@
       <c r="AR323" s="29"/>
       <c r="AS323" s="29"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="29"/>
       <c r="B324" s="29"/>
       <c r="C324" s="29"/>
@@ -19076,7 +19076,7 @@
       <c r="AR324" s="29"/>
       <c r="AS324" s="29"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="29"/>
       <c r="B325" s="29"/>
       <c r="C325" s="29"/>
@@ -19123,7 +19123,7 @@
       <c r="AR325" s="29"/>
       <c r="AS325" s="29"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="29"/>
       <c r="B326" s="29"/>
       <c r="C326" s="29"/>
@@ -19170,7 +19170,7 @@
       <c r="AR326" s="29"/>
       <c r="AS326" s="29"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="29"/>
       <c r="B327" s="29"/>
       <c r="C327" s="29"/>
@@ -19217,7 +19217,7 @@
       <c r="AR327" s="29"/>
       <c r="AS327" s="29"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="29"/>
       <c r="B328" s="29"/>
       <c r="C328" s="29"/>
@@ -19264,7 +19264,7 @@
       <c r="AR328" s="29"/>
       <c r="AS328" s="29"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="29"/>
       <c r="B329" s="29"/>
       <c r="C329" s="29"/>
@@ -19311,7 +19311,7 @@
       <c r="AR329" s="29"/>
       <c r="AS329" s="29"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="29"/>
       <c r="B330" s="29"/>
       <c r="C330" s="29"/>
@@ -19358,7 +19358,7 @@
       <c r="AR330" s="29"/>
       <c r="AS330" s="29"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="29"/>
       <c r="B331" s="29"/>
       <c r="C331" s="29"/>
@@ -19405,7 +19405,7 @@
       <c r="AR331" s="29"/>
       <c r="AS331" s="29"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="29"/>
       <c r="B332" s="29"/>
       <c r="C332" s="29"/>
@@ -19452,7 +19452,7 @@
       <c r="AR332" s="29"/>
       <c r="AS332" s="29"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="29"/>
       <c r="B333" s="29"/>
       <c r="C333" s="29"/>
@@ -19499,7 +19499,7 @@
       <c r="AR333" s="29"/>
       <c r="AS333" s="29"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="29"/>
       <c r="B334" s="29"/>
       <c r="C334" s="29"/>
@@ -19546,7 +19546,7 @@
       <c r="AR334" s="29"/>
       <c r="AS334" s="29"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="29"/>
       <c r="B335" s="29"/>
       <c r="C335" s="29"/>
@@ -19593,7 +19593,7 @@
       <c r="AR335" s="29"/>
       <c r="AS335" s="29"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="29"/>
       <c r="B336" s="29"/>
       <c r="C336" s="29"/>
@@ -19640,7 +19640,7 @@
       <c r="AR336" s="29"/>
       <c r="AS336" s="29"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="29"/>
       <c r="B337" s="29"/>
       <c r="C337" s="29"/>
@@ -19687,7 +19687,7 @@
       <c r="AR337" s="29"/>
       <c r="AS337" s="29"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="29"/>
       <c r="B338" s="29"/>
       <c r="C338" s="29"/>
@@ -19734,7 +19734,7 @@
       <c r="AR338" s="29"/>
       <c r="AS338" s="29"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="29"/>
       <c r="B339" s="29"/>
       <c r="C339" s="29"/>
@@ -19781,7 +19781,7 @@
       <c r="AR339" s="29"/>
       <c r="AS339" s="29"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="29"/>
       <c r="B340" s="29"/>
       <c r="C340" s="29"/>
@@ -19828,7 +19828,7 @@
       <c r="AR340" s="29"/>
       <c r="AS340" s="29"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="29"/>
       <c r="B341" s="29"/>
       <c r="C341" s="29"/>
@@ -19875,7 +19875,7 @@
       <c r="AR341" s="29"/>
       <c r="AS341" s="29"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="29"/>
       <c r="B342" s="29"/>
       <c r="C342" s="29"/>
@@ -19922,7 +19922,7 @@
       <c r="AR342" s="29"/>
       <c r="AS342" s="29"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="29"/>
       <c r="B343" s="29"/>
       <c r="C343" s="29"/>
@@ -19969,7 +19969,7 @@
       <c r="AR343" s="29"/>
       <c r="AS343" s="29"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="29"/>
       <c r="B344" s="29"/>
       <c r="C344" s="29"/>
@@ -20016,7 +20016,7 @@
       <c r="AR344" s="29"/>
       <c r="AS344" s="29"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="29"/>
       <c r="B345" s="29"/>
       <c r="C345" s="29"/>
@@ -20063,7 +20063,7 @@
       <c r="AR345" s="29"/>
       <c r="AS345" s="29"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="29"/>
       <c r="B346" s="29"/>
       <c r="C346" s="29"/>
@@ -20110,7 +20110,7 @@
       <c r="AR346" s="29"/>
       <c r="AS346" s="29"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="29"/>
       <c r="B347" s="29"/>
       <c r="C347" s="29"/>
@@ -20157,7 +20157,7 @@
       <c r="AR347" s="29"/>
       <c r="AS347" s="29"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="29"/>
       <c r="B348" s="29"/>
       <c r="C348" s="29"/>
@@ -20204,7 +20204,7 @@
       <c r="AR348" s="29"/>
       <c r="AS348" s="29"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="29"/>
       <c r="B349" s="29"/>
       <c r="C349" s="29"/>
@@ -20251,7 +20251,7 @@
       <c r="AR349" s="29"/>
       <c r="AS349" s="29"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="29"/>
       <c r="B350" s="29"/>
       <c r="C350" s="29"/>
@@ -20298,7 +20298,7 @@
       <c r="AR350" s="29"/>
       <c r="AS350" s="29"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="29"/>
       <c r="B351" s="29"/>
       <c r="C351" s="29"/>
@@ -20345,7 +20345,7 @@
       <c r="AR351" s="29"/>
       <c r="AS351" s="29"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="29"/>
       <c r="B352" s="29"/>
       <c r="C352" s="29"/>
@@ -20392,7 +20392,7 @@
       <c r="AR352" s="29"/>
       <c r="AS352" s="29"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="29"/>
       <c r="B353" s="29"/>
       <c r="C353" s="29"/>
@@ -20439,7 +20439,7 @@
       <c r="AR353" s="29"/>
       <c r="AS353" s="29"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="29"/>
       <c r="B354" s="29"/>
       <c r="C354" s="29"/>
@@ -20486,7 +20486,7 @@
       <c r="AR354" s="29"/>
       <c r="AS354" s="29"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="29"/>
       <c r="B355" s="29"/>
       <c r="C355" s="29"/>
@@ -20533,7 +20533,7 @@
       <c r="AR355" s="29"/>
       <c r="AS355" s="29"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="29"/>
       <c r="B356" s="29"/>
       <c r="C356" s="29"/>
@@ -20580,7 +20580,7 @@
       <c r="AR356" s="29"/>
       <c r="AS356" s="29"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="29"/>
       <c r="B357" s="29"/>
       <c r="C357" s="29"/>
@@ -20627,7 +20627,7 @@
       <c r="AR357" s="29"/>
       <c r="AS357" s="29"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="29"/>
       <c r="B358" s="29"/>
       <c r="C358" s="29"/>
@@ -20674,7 +20674,7 @@
       <c r="AR358" s="29"/>
       <c r="AS358" s="29"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="29"/>
       <c r="B359" s="29"/>
       <c r="C359" s="29"/>
@@ -20721,7 +20721,7 @@
       <c r="AR359" s="29"/>
       <c r="AS359" s="29"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="29"/>
       <c r="B360" s="29"/>
       <c r="C360" s="29"/>
@@ -20768,7 +20768,7 @@
       <c r="AR360" s="29"/>
       <c r="AS360" s="29"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="29"/>
       <c r="B361" s="29"/>
       <c r="C361" s="29"/>
@@ -20815,7 +20815,7 @@
       <c r="AR361" s="29"/>
       <c r="AS361" s="29"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="29"/>
       <c r="B362" s="29"/>
       <c r="C362" s="29"/>
@@ -20862,7 +20862,7 @@
       <c r="AR362" s="29"/>
       <c r="AS362" s="29"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="29"/>
       <c r="B363" s="29"/>
       <c r="C363" s="29"/>
@@ -20909,7 +20909,7 @@
       <c r="AR363" s="29"/>
       <c r="AS363" s="29"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="29"/>
       <c r="B364" s="29"/>
       <c r="C364" s="29"/>
@@ -20956,7 +20956,7 @@
       <c r="AR364" s="29"/>
       <c r="AS364" s="29"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="29"/>
       <c r="B365" s="29"/>
       <c r="C365" s="29"/>
@@ -21003,7 +21003,7 @@
       <c r="AR365" s="29"/>
       <c r="AS365" s="29"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="29"/>
       <c r="B366" s="29"/>
       <c r="C366" s="29"/>
@@ -21050,7 +21050,7 @@
       <c r="AR366" s="29"/>
       <c r="AS366" s="29"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="29"/>
       <c r="B367" s="29"/>
       <c r="C367" s="29"/>
@@ -21097,7 +21097,7 @@
       <c r="AR367" s="29"/>
       <c r="AS367" s="29"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="29"/>
       <c r="B368" s="29"/>
       <c r="C368" s="29"/>
@@ -21144,7 +21144,7 @@
       <c r="AR368" s="29"/>
       <c r="AS368" s="29"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="29"/>
       <c r="B369" s="29"/>
       <c r="C369" s="29"/>
@@ -21191,7 +21191,7 @@
       <c r="AR369" s="29"/>
       <c r="AS369" s="29"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="29"/>
       <c r="B370" s="29"/>
       <c r="C370" s="29"/>
@@ -21238,7 +21238,7 @@
       <c r="AR370" s="29"/>
       <c r="AS370" s="29"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="29"/>
       <c r="B371" s="29"/>
       <c r="C371" s="29"/>
@@ -21285,7 +21285,7 @@
       <c r="AR371" s="29"/>
       <c r="AS371" s="29"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="29"/>
       <c r="B372" s="29"/>
       <c r="C372" s="29"/>
@@ -21332,7 +21332,7 @@
       <c r="AR372" s="29"/>
       <c r="AS372" s="29"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="29"/>
       <c r="B373" s="29"/>
       <c r="C373" s="29"/>
@@ -21379,7 +21379,7 @@
       <c r="AR373" s="29"/>
       <c r="AS373" s="29"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="29"/>
       <c r="B374" s="29"/>
       <c r="C374" s="29"/>
@@ -21426,7 +21426,7 @@
       <c r="AR374" s="29"/>
       <c r="AS374" s="29"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="29"/>
       <c r="B375" s="29"/>
       <c r="C375" s="29"/>
@@ -21473,7 +21473,7 @@
       <c r="AR375" s="29"/>
       <c r="AS375" s="29"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="29"/>
       <c r="B376" s="29"/>
       <c r="C376" s="29"/>
@@ -21520,7 +21520,7 @@
       <c r="AR376" s="29"/>
       <c r="AS376" s="29"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="29"/>
       <c r="B377" s="29"/>
       <c r="C377" s="29"/>
@@ -21567,7 +21567,7 @@
       <c r="AR377" s="29"/>
       <c r="AS377" s="29"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="29"/>
       <c r="B378" s="29"/>
       <c r="C378" s="29"/>
@@ -21614,7 +21614,7 @@
       <c r="AR378" s="29"/>
       <c r="AS378" s="29"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="29"/>
       <c r="B379" s="29"/>
       <c r="C379" s="29"/>
@@ -21661,7 +21661,7 @@
       <c r="AR379" s="29"/>
       <c r="AS379" s="29"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="29"/>
       <c r="B380" s="29"/>
       <c r="C380" s="29"/>
@@ -21708,7 +21708,7 @@
       <c r="AR380" s="29"/>
       <c r="AS380" s="29"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="29"/>
       <c r="B381" s="29"/>
       <c r="C381" s="29"/>
@@ -21755,7 +21755,7 @@
       <c r="AR381" s="29"/>
       <c r="AS381" s="29"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="29"/>
       <c r="B382" s="29"/>
       <c r="C382" s="29"/>
@@ -21802,7 +21802,7 @@
       <c r="AR382" s="29"/>
       <c r="AS382" s="29"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="29"/>
       <c r="B383" s="29"/>
       <c r="C383" s="29"/>
@@ -21849,7 +21849,7 @@
       <c r="AR383" s="29"/>
       <c r="AS383" s="29"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="29"/>
       <c r="B384" s="29"/>
       <c r="C384" s="29"/>
@@ -21896,7 +21896,7 @@
       <c r="AR384" s="29"/>
       <c r="AS384" s="29"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="29"/>
       <c r="B385" s="29"/>
       <c r="C385" s="29"/>
@@ -21943,7 +21943,7 @@
       <c r="AR385" s="29"/>
       <c r="AS385" s="29"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="29"/>
       <c r="B386" s="29"/>
       <c r="C386" s="29"/>
@@ -21990,7 +21990,7 @@
       <c r="AR386" s="29"/>
       <c r="AS386" s="29"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="29"/>
       <c r="B387" s="29"/>
       <c r="C387" s="29"/>
@@ -22037,7 +22037,7 @@
       <c r="AR387" s="29"/>
       <c r="AS387" s="29"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="29"/>
       <c r="B388" s="29"/>
       <c r="C388" s="29"/>
@@ -22084,7 +22084,7 @@
       <c r="AR388" s="29"/>
       <c r="AS388" s="29"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="29"/>
       <c r="B389" s="29"/>
       <c r="C389" s="29"/>
@@ -22131,7 +22131,7 @@
       <c r="AR389" s="29"/>
       <c r="AS389" s="29"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="29"/>
       <c r="B390" s="29"/>
       <c r="C390" s="29"/>
@@ -22178,7 +22178,7 @@
       <c r="AR390" s="29"/>
       <c r="AS390" s="29"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="29"/>
       <c r="B391" s="29"/>
       <c r="C391" s="29"/>
@@ -22225,7 +22225,7 @@
       <c r="AR391" s="29"/>
       <c r="AS391" s="29"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="29"/>
       <c r="B392" s="29"/>
       <c r="C392" s="29"/>
@@ -22272,7 +22272,7 @@
       <c r="AR392" s="29"/>
       <c r="AS392" s="29"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="29"/>
       <c r="B393" s="29"/>
       <c r="C393" s="29"/>
@@ -22319,7 +22319,7 @@
       <c r="AR393" s="29"/>
       <c r="AS393" s="29"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="29"/>
       <c r="B394" s="29"/>
       <c r="C394" s="29"/>
@@ -22366,7 +22366,7 @@
       <c r="AR394" s="29"/>
       <c r="AS394" s="29"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="29"/>
       <c r="B395" s="29"/>
       <c r="C395" s="29"/>
@@ -22413,7 +22413,7 @@
       <c r="AR395" s="29"/>
       <c r="AS395" s="29"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="29"/>
       <c r="B396" s="29"/>
       <c r="C396" s="29"/>
@@ -22460,7 +22460,7 @@
       <c r="AR396" s="29"/>
       <c r="AS396" s="29"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="29"/>
       <c r="B397" s="29"/>
       <c r="C397" s="29"/>
@@ -22507,7 +22507,7 @@
       <c r="AR397" s="29"/>
       <c r="AS397" s="29"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="29"/>
       <c r="B398" s="29"/>
       <c r="C398" s="29"/>
@@ -22554,7 +22554,7 @@
       <c r="AR398" s="29"/>
       <c r="AS398" s="29"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="29"/>
       <c r="B399" s="29"/>
       <c r="C399" s="29"/>
@@ -22601,7 +22601,7 @@
       <c r="AR399" s="29"/>
       <c r="AS399" s="29"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="29"/>
       <c r="B400" s="29"/>
       <c r="C400" s="29"/>
@@ -22648,7 +22648,7 @@
       <c r="AR400" s="29"/>
       <c r="AS400" s="29"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="29"/>
       <c r="B401" s="29"/>
       <c r="C401" s="29"/>
@@ -22695,7 +22695,7 @@
       <c r="AR401" s="29"/>
       <c r="AS401" s="29"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="29"/>
       <c r="B402" s="29"/>
       <c r="C402" s="29"/>
@@ -22742,7 +22742,7 @@
       <c r="AR402" s="29"/>
       <c r="AS402" s="29"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="29"/>
       <c r="B403" s="29"/>
       <c r="C403" s="29"/>
@@ -22789,7 +22789,7 @@
       <c r="AR403" s="29"/>
       <c r="AS403" s="29"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="29"/>
       <c r="B404" s="29"/>
       <c r="C404" s="29"/>
@@ -22836,7 +22836,7 @@
       <c r="AR404" s="29"/>
       <c r="AS404" s="29"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="29"/>
       <c r="B405" s="29"/>
       <c r="C405" s="29"/>
@@ -22883,7 +22883,7 @@
       <c r="AR405" s="29"/>
       <c r="AS405" s="29"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="29"/>
       <c r="B406" s="29"/>
       <c r="C406" s="29"/>
@@ -22930,7 +22930,7 @@
       <c r="AR406" s="29"/>
       <c r="AS406" s="29"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="29"/>
       <c r="B407" s="29"/>
       <c r="C407" s="29"/>
@@ -22977,7 +22977,7 @@
       <c r="AR407" s="29"/>
       <c r="AS407" s="29"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="29"/>
       <c r="B408" s="29"/>
       <c r="C408" s="29"/>
@@ -23024,7 +23024,7 @@
       <c r="AR408" s="29"/>
       <c r="AS408" s="29"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="29"/>
       <c r="B409" s="29"/>
       <c r="C409" s="29"/>
@@ -23071,7 +23071,7 @@
       <c r="AR409" s="29"/>
       <c r="AS409" s="29"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="29"/>
       <c r="B410" s="29"/>
       <c r="C410" s="29"/>
@@ -23118,7 +23118,7 @@
       <c r="AR410" s="29"/>
       <c r="AS410" s="29"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="29"/>
       <c r="B411" s="29"/>
       <c r="C411" s="29"/>
@@ -23165,7 +23165,7 @@
       <c r="AR411" s="29"/>
       <c r="AS411" s="29"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="29"/>
       <c r="B412" s="29"/>
       <c r="C412" s="29"/>
@@ -23212,7 +23212,7 @@
       <c r="AR412" s="29"/>
       <c r="AS412" s="29"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="29"/>
       <c r="B413" s="29"/>
       <c r="C413" s="29"/>
@@ -23259,7 +23259,7 @@
       <c r="AR413" s="29"/>
       <c r="AS413" s="29"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="29"/>
       <c r="B414" s="29"/>
       <c r="C414" s="29"/>
@@ -23306,7 +23306,7 @@
       <c r="AR414" s="29"/>
       <c r="AS414" s="29"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="29"/>
       <c r="B415" s="29"/>
       <c r="C415" s="29"/>
@@ -23353,7 +23353,7 @@
       <c r="AR415" s="29"/>
       <c r="AS415" s="29"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="29"/>
       <c r="B416" s="29"/>
       <c r="C416" s="29"/>
@@ -23400,7 +23400,7 @@
       <c r="AR416" s="29"/>
       <c r="AS416" s="29"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="29"/>
       <c r="B417" s="29"/>
       <c r="C417" s="29"/>
@@ -23447,7 +23447,7 @@
       <c r="AR417" s="29"/>
       <c r="AS417" s="29"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="29"/>
       <c r="B418" s="29"/>
       <c r="C418" s="29"/>
@@ -23494,7 +23494,7 @@
       <c r="AR418" s="29"/>
       <c r="AS418" s="29"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="29"/>
       <c r="B419" s="29"/>
       <c r="C419" s="29"/>
@@ -23541,7 +23541,7 @@
       <c r="AR419" s="29"/>
       <c r="AS419" s="29"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="29"/>
       <c r="B420" s="29"/>
       <c r="C420" s="29"/>
@@ -23588,7 +23588,7 @@
       <c r="AR420" s="29"/>
       <c r="AS420" s="29"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="29"/>
       <c r="B421" s="29"/>
       <c r="C421" s="29"/>
@@ -23635,7 +23635,7 @@
       <c r="AR421" s="29"/>
       <c r="AS421" s="29"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="29"/>
       <c r="B422" s="29"/>
       <c r="C422" s="29"/>
@@ -23682,7 +23682,7 @@
       <c r="AR422" s="29"/>
       <c r="AS422" s="29"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="29"/>
       <c r="B423" s="29"/>
       <c r="C423" s="29"/>
@@ -23729,7 +23729,7 @@
       <c r="AR423" s="29"/>
       <c r="AS423" s="29"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="29"/>
       <c r="B424" s="29"/>
       <c r="C424" s="29"/>
@@ -23776,7 +23776,7 @@
       <c r="AR424" s="29"/>
       <c r="AS424" s="29"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="29"/>
       <c r="B425" s="29"/>
       <c r="C425" s="29"/>
@@ -23823,7 +23823,7 @@
       <c r="AR425" s="29"/>
       <c r="AS425" s="29"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="29"/>
       <c r="B426" s="29"/>
       <c r="C426" s="29"/>
@@ -23870,7 +23870,7 @@
       <c r="AR426" s="29"/>
       <c r="AS426" s="29"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="29"/>
       <c r="B427" s="29"/>
       <c r="C427" s="29"/>
@@ -23917,7 +23917,7 @@
       <c r="AR427" s="29"/>
       <c r="AS427" s="29"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="29"/>
       <c r="B428" s="29"/>
       <c r="C428" s="29"/>
@@ -23964,7 +23964,7 @@
       <c r="AR428" s="29"/>
       <c r="AS428" s="29"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="29"/>
       <c r="B429" s="29"/>
       <c r="C429" s="29"/>
@@ -24011,7 +24011,7 @@
       <c r="AR429" s="29"/>
       <c r="AS429" s="29"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="29"/>
       <c r="B430" s="29"/>
       <c r="C430" s="29"/>
@@ -24058,7 +24058,7 @@
       <c r="AR430" s="29"/>
       <c r="AS430" s="29"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="29"/>
       <c r="B431" s="29"/>
       <c r="C431" s="29"/>
@@ -24105,7 +24105,7 @@
       <c r="AR431" s="29"/>
       <c r="AS431" s="29"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="29"/>
       <c r="B432" s="29"/>
       <c r="C432" s="29"/>
@@ -24152,7 +24152,7 @@
       <c r="AR432" s="29"/>
       <c r="AS432" s="29"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="29"/>
       <c r="B433" s="29"/>
       <c r="C433" s="29"/>
@@ -24199,7 +24199,7 @@
       <c r="AR433" s="29"/>
       <c r="AS433" s="29"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="29"/>
       <c r="B434" s="29"/>
       <c r="C434" s="29"/>
@@ -24246,7 +24246,7 @@
       <c r="AR434" s="29"/>
       <c r="AS434" s="29"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="29"/>
       <c r="B435" s="29"/>
       <c r="C435" s="29"/>
@@ -24293,7 +24293,7 @@
       <c r="AR435" s="29"/>
       <c r="AS435" s="29"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="29"/>
       <c r="B436" s="29"/>
       <c r="C436" s="29"/>
@@ -24340,7 +24340,7 @@
       <c r="AR436" s="29"/>
       <c r="AS436" s="29"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="29"/>
       <c r="B437" s="29"/>
       <c r="C437" s="29"/>
@@ -24387,7 +24387,7 @@
       <c r="AR437" s="29"/>
       <c r="AS437" s="29"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="29"/>
       <c r="B438" s="29"/>
       <c r="C438" s="29"/>
@@ -24434,7 +24434,7 @@
       <c r="AR438" s="29"/>
       <c r="AS438" s="29"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="29"/>
       <c r="B439" s="29"/>
       <c r="C439" s="29"/>
@@ -24481,7 +24481,7 @@
       <c r="AR439" s="29"/>
       <c r="AS439" s="29"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="29"/>
       <c r="B440" s="29"/>
       <c r="C440" s="29"/>
@@ -24528,7 +24528,7 @@
       <c r="AR440" s="29"/>
       <c r="AS440" s="29"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="29"/>
       <c r="B441" s="29"/>
       <c r="C441" s="29"/>
@@ -24575,7 +24575,7 @@
       <c r="AR441" s="29"/>
       <c r="AS441" s="29"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="29"/>
       <c r="B442" s="29"/>
       <c r="C442" s="29"/>
@@ -24622,7 +24622,7 @@
       <c r="AR442" s="29"/>
       <c r="AS442" s="29"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="29"/>
       <c r="B443" s="29"/>
       <c r="C443" s="29"/>
@@ -24669,7 +24669,7 @@
       <c r="AR443" s="29"/>
       <c r="AS443" s="29"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="29"/>
       <c r="B444" s="29"/>
       <c r="C444" s="29"/>
@@ -24716,7 +24716,7 @@
       <c r="AR444" s="29"/>
       <c r="AS444" s="29"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="29"/>
       <c r="B445" s="29"/>
       <c r="C445" s="29"/>
@@ -24763,7 +24763,7 @@
       <c r="AR445" s="29"/>
       <c r="AS445" s="29"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="29"/>
       <c r="B446" s="29"/>
       <c r="C446" s="29"/>
@@ -24810,7 +24810,7 @@
       <c r="AR446" s="29"/>
       <c r="AS446" s="29"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="29"/>
       <c r="B447" s="29"/>
       <c r="C447" s="29"/>
@@ -24857,7 +24857,7 @@
       <c r="AR447" s="29"/>
       <c r="AS447" s="29"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="29"/>
       <c r="B448" s="29"/>
       <c r="C448" s="29"/>
@@ -24904,7 +24904,7 @@
       <c r="AR448" s="29"/>
       <c r="AS448" s="29"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="29"/>
       <c r="B449" s="29"/>
       <c r="C449" s="29"/>
@@ -24951,7 +24951,7 @@
       <c r="AR449" s="29"/>
       <c r="AS449" s="29"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="29"/>
       <c r="B450" s="29"/>
       <c r="C450" s="29"/>
@@ -24998,7 +24998,7 @@
       <c r="AR450" s="29"/>
       <c r="AS450" s="29"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="29"/>
       <c r="B451" s="29"/>
       <c r="C451" s="29"/>
@@ -25045,7 +25045,7 @@
       <c r="AR451" s="29"/>
       <c r="AS451" s="29"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="29"/>
       <c r="B452" s="29"/>
       <c r="C452" s="29"/>
@@ -25092,7 +25092,7 @@
       <c r="AR452" s="29"/>
       <c r="AS452" s="29"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="29"/>
       <c r="B453" s="29"/>
       <c r="C453" s="29"/>
@@ -25139,7 +25139,7 @@
       <c r="AR453" s="29"/>
       <c r="AS453" s="29"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="29"/>
       <c r="B454" s="29"/>
       <c r="C454" s="29"/>
@@ -25186,7 +25186,7 @@
       <c r="AR454" s="29"/>
       <c r="AS454" s="29"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="29"/>
       <c r="B455" s="29"/>
       <c r="C455" s="29"/>
@@ -25233,7 +25233,7 @@
       <c r="AR455" s="29"/>
       <c r="AS455" s="29"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="29"/>
       <c r="B456" s="29"/>
       <c r="C456" s="29"/>
@@ -25280,7 +25280,7 @@
       <c r="AR456" s="29"/>
       <c r="AS456" s="29"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="29"/>
       <c r="B457" s="29"/>
       <c r="C457" s="29"/>
@@ -25327,7 +25327,7 @@
       <c r="AR457" s="29"/>
       <c r="AS457" s="29"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="29"/>
       <c r="B458" s="29"/>
       <c r="C458" s="29"/>
@@ -25374,7 +25374,7 @@
       <c r="AR458" s="29"/>
       <c r="AS458" s="29"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="29"/>
       <c r="B459" s="29"/>
       <c r="C459" s="29"/>
@@ -25421,7 +25421,7 @@
       <c r="AR459" s="29"/>
       <c r="AS459" s="29"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="29"/>
       <c r="B460" s="29"/>
       <c r="C460" s="29"/>
@@ -25468,7 +25468,7 @@
       <c r="AR460" s="29"/>
       <c r="AS460" s="29"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="29"/>
       <c r="B461" s="29"/>
       <c r="C461" s="29"/>
@@ -25515,7 +25515,7 @@
       <c r="AR461" s="29"/>
       <c r="AS461" s="29"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="29"/>
       <c r="B462" s="29"/>
       <c r="C462" s="29"/>
@@ -25562,7 +25562,7 @@
       <c r="AR462" s="29"/>
       <c r="AS462" s="29"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="29"/>
       <c r="B463" s="29"/>
       <c r="C463" s="29"/>
@@ -25609,7 +25609,7 @@
       <c r="AR463" s="29"/>
       <c r="AS463" s="29"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="29"/>
       <c r="B464" s="29"/>
       <c r="C464" s="29"/>
@@ -25656,7 +25656,7 @@
       <c r="AR464" s="29"/>
       <c r="AS464" s="29"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="29"/>
       <c r="B465" s="29"/>
       <c r="C465" s="29"/>
@@ -25703,7 +25703,7 @@
       <c r="AR465" s="29"/>
       <c r="AS465" s="29"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="29"/>
       <c r="B466" s="29"/>
       <c r="C466" s="29"/>
@@ -25750,7 +25750,7 @@
       <c r="AR466" s="29"/>
       <c r="AS466" s="29"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="29"/>
       <c r="B467" s="29"/>
       <c r="C467" s="29"/>
@@ -25797,7 +25797,7 @@
       <c r="AR467" s="29"/>
       <c r="AS467" s="29"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="29"/>
       <c r="B468" s="29"/>
       <c r="C468" s="29"/>
@@ -25844,7 +25844,7 @@
       <c r="AR468" s="29"/>
       <c r="AS468" s="29"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="29"/>
       <c r="B469" s="29"/>
       <c r="C469" s="29"/>
@@ -25891,7 +25891,7 @@
       <c r="AR469" s="29"/>
       <c r="AS469" s="29"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="29"/>
       <c r="B470" s="29"/>
       <c r="C470" s="29"/>
@@ -25938,7 +25938,7 @@
       <c r="AR470" s="29"/>
       <c r="AS470" s="29"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="29"/>
       <c r="B471" s="29"/>
       <c r="C471" s="29"/>
@@ -25985,7 +25985,7 @@
       <c r="AR471" s="29"/>
       <c r="AS471" s="29"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="29"/>
       <c r="B472" s="29"/>
       <c r="C472" s="29"/>
@@ -26032,7 +26032,7 @@
       <c r="AR472" s="29"/>
       <c r="AS472" s="29"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="29"/>
       <c r="B473" s="29"/>
       <c r="C473" s="29"/>
@@ -26079,7 +26079,7 @@
       <c r="AR473" s="29"/>
       <c r="AS473" s="29"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="29"/>
       <c r="B474" s="29"/>
       <c r="C474" s="29"/>
@@ -26126,7 +26126,7 @@
       <c r="AR474" s="29"/>
       <c r="AS474" s="29"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="29"/>
       <c r="B475" s="29"/>
       <c r="C475" s="29"/>
@@ -26173,7 +26173,7 @@
       <c r="AR475" s="29"/>
       <c r="AS475" s="29"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="29"/>
       <c r="B476" s="29"/>
       <c r="C476" s="29"/>
@@ -26220,7 +26220,7 @@
       <c r="AR476" s="29"/>
       <c r="AS476" s="29"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="29"/>
       <c r="B477" s="29"/>
       <c r="C477" s="29"/>
@@ -26267,7 +26267,7 @@
       <c r="AR477" s="29"/>
       <c r="AS477" s="29"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="29"/>
       <c r="B478" s="29"/>
       <c r="C478" s="29"/>
@@ -26314,7 +26314,7 @@
       <c r="AR478" s="29"/>
       <c r="AS478" s="29"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="29"/>
       <c r="B479" s="29"/>
       <c r="C479" s="29"/>
@@ -26361,7 +26361,7 @@
       <c r="AR479" s="29"/>
       <c r="AS479" s="29"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="29"/>
       <c r="B480" s="29"/>
       <c r="C480" s="29"/>
@@ -26408,7 +26408,7 @@
       <c r="AR480" s="29"/>
       <c r="AS480" s="29"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="29"/>
       <c r="B481" s="29"/>
       <c r="C481" s="29"/>
@@ -26455,7 +26455,7 @@
       <c r="AR481" s="29"/>
       <c r="AS481" s="29"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="29"/>
       <c r="B482" s="29"/>
       <c r="C482" s="29"/>
@@ -26502,7 +26502,7 @@
       <c r="AR482" s="29"/>
       <c r="AS482" s="29"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="29"/>
       <c r="B483" s="29"/>
       <c r="C483" s="29"/>
@@ -26549,7 +26549,7 @@
       <c r="AR483" s="29"/>
       <c r="AS483" s="29"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="29"/>
       <c r="B484" s="29"/>
       <c r="C484" s="29"/>
@@ -26596,7 +26596,7 @@
       <c r="AR484" s="29"/>
       <c r="AS484" s="29"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="29"/>
       <c r="B485" s="29"/>
       <c r="C485" s="29"/>
@@ -26643,7 +26643,7 @@
       <c r="AR485" s="29"/>
       <c r="AS485" s="29"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="29"/>
       <c r="B486" s="29"/>
       <c r="C486" s="29"/>
@@ -26690,7 +26690,7 @@
       <c r="AR486" s="29"/>
       <c r="AS486" s="29"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="29"/>
       <c r="B487" s="29"/>
       <c r="C487" s="29"/>
@@ -26737,7 +26737,7 @@
       <c r="AR487" s="29"/>
       <c r="AS487" s="29"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="29"/>
       <c r="B488" s="29"/>
       <c r="C488" s="29"/>
@@ -26784,7 +26784,7 @@
       <c r="AR488" s="29"/>
       <c r="AS488" s="29"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="29"/>
       <c r="B489" s="29"/>
       <c r="C489" s="29"/>
@@ -26831,7 +26831,7 @@
       <c r="AR489" s="29"/>
       <c r="AS489" s="29"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="29"/>
       <c r="B490" s="29"/>
       <c r="C490" s="29"/>
@@ -26878,7 +26878,7 @@
       <c r="AR490" s="29"/>
       <c r="AS490" s="29"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="29"/>
       <c r="B491" s="29"/>
       <c r="C491" s="29"/>
@@ -26925,7 +26925,7 @@
       <c r="AR491" s="29"/>
       <c r="AS491" s="29"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="29"/>
       <c r="B492" s="29"/>
       <c r="C492" s="29"/>
@@ -26972,7 +26972,7 @@
       <c r="AR492" s="29"/>
       <c r="AS492" s="29"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="29"/>
       <c r="B493" s="29"/>
       <c r="C493" s="29"/>
@@ -27019,7 +27019,7 @@
       <c r="AR493" s="29"/>
       <c r="AS493" s="29"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="29"/>
       <c r="B494" s="29"/>
       <c r="C494" s="29"/>
@@ -27066,7 +27066,7 @@
       <c r="AR494" s="29"/>
       <c r="AS494" s="29"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="29"/>
       <c r="B495" s="29"/>
       <c r="C495" s="29"/>
@@ -27113,7 +27113,7 @@
       <c r="AR495" s="29"/>
       <c r="AS495" s="29"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="29"/>
       <c r="B496" s="29"/>
       <c r="C496" s="29"/>
@@ -27160,7 +27160,7 @@
       <c r="AR496" s="29"/>
       <c r="AS496" s="29"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="29"/>
       <c r="B497" s="29"/>
       <c r="C497" s="29"/>
@@ -27207,7 +27207,7 @@
       <c r="AR497" s="29"/>
       <c r="AS497" s="29"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="29"/>
       <c r="B498" s="29"/>
       <c r="C498" s="29"/>
@@ -27254,7 +27254,7 @@
       <c r="AR498" s="29"/>
       <c r="AS498" s="29"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="29"/>
       <c r="B499" s="29"/>
       <c r="C499" s="29"/>
@@ -27301,7 +27301,7 @@
       <c r="AR499" s="29"/>
       <c r="AS499" s="29"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="29"/>
       <c r="B500" s="29"/>
       <c r="C500" s="29"/>
@@ -27348,7 +27348,7 @@
       <c r="AR500" s="29"/>
       <c r="AS500" s="29"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="29"/>
       <c r="B501" s="29"/>
       <c r="C501" s="29"/>
@@ -27395,7 +27395,7 @@
       <c r="AR501" s="29"/>
       <c r="AS501" s="29"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="29"/>
       <c r="B502" s="29"/>
       <c r="C502" s="29"/>
@@ -27442,7 +27442,7 @@
       <c r="AR502" s="29"/>
       <c r="AS502" s="29"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="29"/>
       <c r="B503" s="29"/>
       <c r="C503" s="29"/>
@@ -27489,7 +27489,7 @@
       <c r="AR503" s="29"/>
       <c r="AS503" s="29"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="29"/>
       <c r="B504" s="29"/>
       <c r="C504" s="29"/>
@@ -27536,7 +27536,7 @@
       <c r="AR504" s="29"/>
       <c r="AS504" s="29"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="29"/>
       <c r="B505" s="29"/>
       <c r="C505" s="29"/>
@@ -27583,7 +27583,7 @@
       <c r="AR505" s="29"/>
       <c r="AS505" s="29"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="29"/>
       <c r="B506" s="29"/>
       <c r="C506" s="29"/>
@@ -27630,7 +27630,7 @@
       <c r="AR506" s="29"/>
       <c r="AS506" s="29"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="29"/>
       <c r="B507" s="29"/>
       <c r="C507" s="29"/>
@@ -27677,7 +27677,7 @@
       <c r="AR507" s="29"/>
       <c r="AS507" s="29"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="29"/>
       <c r="B508" s="29"/>
       <c r="C508" s="29"/>
@@ -27724,7 +27724,7 @@
       <c r="AR508" s="29"/>
       <c r="AS508" s="29"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="29"/>
       <c r="B509" s="29"/>
       <c r="C509" s="29"/>
@@ -27771,7 +27771,7 @@
       <c r="AR509" s="29"/>
       <c r="AS509" s="29"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="29"/>
       <c r="B510" s="29"/>
       <c r="C510" s="29"/>
@@ -27818,7 +27818,7 @@
       <c r="AR510" s="29"/>
       <c r="AS510" s="29"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="29"/>
       <c r="B511" s="29"/>
       <c r="C511" s="29"/>
@@ -27865,7 +27865,7 @@
       <c r="AR511" s="29"/>
       <c r="AS511" s="29"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="29"/>
       <c r="B512" s="29"/>
       <c r="C512" s="29"/>
@@ -27912,7 +27912,7 @@
       <c r="AR512" s="29"/>
       <c r="AS512" s="29"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="29"/>
       <c r="B513" s="29"/>
       <c r="C513" s="29"/>
@@ -27959,7 +27959,7 @@
       <c r="AR513" s="29"/>
       <c r="AS513" s="29"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="29"/>
       <c r="B514" s="29"/>
       <c r="C514" s="29"/>
@@ -28006,7 +28006,7 @@
       <c r="AR514" s="29"/>
       <c r="AS514" s="29"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="29"/>
       <c r="B515" s="29"/>
       <c r="C515" s="29"/>
@@ -28053,7 +28053,7 @@
       <c r="AR515" s="29"/>
       <c r="AS515" s="29"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="29"/>
       <c r="B516" s="29"/>
       <c r="C516" s="29"/>
@@ -28100,7 +28100,7 @@
       <c r="AR516" s="29"/>
       <c r="AS516" s="29"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="29"/>
       <c r="B517" s="29"/>
       <c r="C517" s="29"/>
@@ -28147,7 +28147,7 @@
       <c r="AR517" s="29"/>
       <c r="AS517" s="29"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="29"/>
       <c r="B518" s="29"/>
       <c r="C518" s="29"/>
@@ -28194,7 +28194,7 @@
       <c r="AR518" s="29"/>
       <c r="AS518" s="29"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="29"/>
       <c r="B519" s="29"/>
       <c r="C519" s="29"/>
@@ -28241,7 +28241,7 @@
       <c r="AR519" s="29"/>
       <c r="AS519" s="29"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="29"/>
       <c r="B520" s="29"/>
       <c r="C520" s="29"/>
@@ -28288,7 +28288,7 @@
       <c r="AR520" s="29"/>
       <c r="AS520" s="29"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="29"/>
       <c r="B521" s="29"/>
       <c r="C521" s="29"/>
@@ -28335,7 +28335,7 @@
       <c r="AR521" s="29"/>
       <c r="AS521" s="29"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="29"/>
       <c r="B522" s="29"/>
       <c r="C522" s="29"/>
@@ -28382,7 +28382,7 @@
       <c r="AR522" s="29"/>
       <c r="AS522" s="29"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="29"/>
       <c r="B523" s="29"/>
       <c r="C523" s="29"/>
@@ -28429,7 +28429,7 @@
       <c r="AR523" s="29"/>
       <c r="AS523" s="29"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="29"/>
       <c r="B524" s="29"/>
       <c r="C524" s="29"/>
@@ -28476,7 +28476,7 @@
       <c r="AR524" s="29"/>
       <c r="AS524" s="29"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="29"/>
       <c r="B525" s="29"/>
       <c r="C525" s="29"/>
@@ -28523,7 +28523,7 @@
       <c r="AR525" s="29"/>
       <c r="AS525" s="29"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="29"/>
       <c r="B526" s="29"/>
       <c r="C526" s="29"/>
@@ -28570,7 +28570,7 @@
       <c r="AR526" s="29"/>
       <c r="AS526" s="29"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="29"/>
       <c r="B527" s="29"/>
       <c r="C527" s="29"/>
@@ -28617,7 +28617,7 @@
       <c r="AR527" s="29"/>
       <c r="AS527" s="29"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="29"/>
       <c r="B528" s="29"/>
       <c r="C528" s="29"/>
@@ -28664,7 +28664,7 @@
       <c r="AR528" s="29"/>
       <c r="AS528" s="29"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="29"/>
       <c r="B529" s="29"/>
       <c r="C529" s="29"/>
@@ -28711,7 +28711,7 @@
       <c r="AR529" s="29"/>
       <c r="AS529" s="29"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="29"/>
       <c r="B530" s="29"/>
       <c r="C530" s="29"/>
@@ -28758,7 +28758,7 @@
       <c r="AR530" s="29"/>
       <c r="AS530" s="29"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="29"/>
       <c r="B531" s="29"/>
       <c r="C531" s="29"/>
@@ -28805,7 +28805,7 @@
       <c r="AR531" s="29"/>
       <c r="AS531" s="29"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="29"/>
       <c r="B532" s="29"/>
       <c r="C532" s="29"/>
@@ -28852,7 +28852,7 @@
       <c r="AR532" s="29"/>
       <c r="AS532" s="29"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="29"/>
       <c r="B533" s="29"/>
       <c r="C533" s="29"/>
@@ -28899,7 +28899,7 @@
       <c r="AR533" s="29"/>
       <c r="AS533" s="29"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="29"/>
       <c r="B534" s="29"/>
       <c r="C534" s="29"/>
@@ -28946,7 +28946,7 @@
       <c r="AR534" s="29"/>
       <c r="AS534" s="29"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="29"/>
       <c r="B535" s="29"/>
       <c r="C535" s="29"/>
@@ -28993,7 +28993,7 @@
       <c r="AR535" s="29"/>
       <c r="AS535" s="29"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="29"/>
       <c r="B536" s="29"/>
       <c r="C536" s="29"/>
@@ -29040,7 +29040,7 @@
       <c r="AR536" s="29"/>
       <c r="AS536" s="29"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="29"/>
       <c r="B537" s="29"/>
       <c r="C537" s="29"/>
@@ -29087,7 +29087,7 @@
       <c r="AR537" s="29"/>
       <c r="AS537" s="29"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="29"/>
       <c r="B538" s="29"/>
       <c r="C538" s="29"/>
@@ -29134,7 +29134,7 @@
       <c r="AR538" s="29"/>
       <c r="AS538" s="29"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="29"/>
       <c r="B539" s="29"/>
       <c r="C539" s="29"/>
@@ -29181,7 +29181,7 @@
       <c r="AR539" s="29"/>
       <c r="AS539" s="29"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="29"/>
       <c r="B540" s="29"/>
       <c r="C540" s="29"/>
@@ -29228,7 +29228,7 @@
       <c r="AR540" s="29"/>
       <c r="AS540" s="29"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="29"/>
       <c r="B541" s="29"/>
       <c r="C541" s="29"/>
@@ -29275,7 +29275,7 @@
       <c r="AR541" s="29"/>
       <c r="AS541" s="29"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="29"/>
       <c r="B542" s="29"/>
       <c r="C542" s="29"/>
@@ -29322,7 +29322,7 @@
       <c r="AR542" s="29"/>
       <c r="AS542" s="29"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="29"/>
       <c r="B543" s="29"/>
       <c r="C543" s="29"/>
@@ -29369,7 +29369,7 @@
       <c r="AR543" s="29"/>
       <c r="AS543" s="29"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="29"/>
       <c r="B544" s="29"/>
       <c r="C544" s="29"/>
@@ -29416,7 +29416,7 @@
       <c r="AR544" s="29"/>
       <c r="AS544" s="29"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="29"/>
       <c r="B545" s="29"/>
       <c r="C545" s="29"/>
@@ -29463,7 +29463,7 @@
       <c r="AR545" s="29"/>
       <c r="AS545" s="29"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="29"/>
       <c r="B546" s="29"/>
       <c r="C546" s="29"/>
@@ -29510,7 +29510,7 @@
       <c r="AR546" s="29"/>
       <c r="AS546" s="29"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="29"/>
       <c r="B547" s="29"/>
       <c r="C547" s="29"/>
@@ -29557,7 +29557,7 @@
       <c r="AR547" s="29"/>
       <c r="AS547" s="29"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="29"/>
       <c r="B548" s="29"/>
       <c r="C548" s="29"/>
@@ -29604,7 +29604,7 @@
       <c r="AR548" s="29"/>
       <c r="AS548" s="29"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="29"/>
       <c r="B549" s="29"/>
       <c r="C549" s="29"/>
@@ -29651,7 +29651,7 @@
       <c r="AR549" s="29"/>
       <c r="AS549" s="29"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="29"/>
       <c r="B550" s="29"/>
       <c r="C550" s="29"/>
@@ -29698,7 +29698,7 @@
       <c r="AR550" s="29"/>
       <c r="AS550" s="29"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="29"/>
       <c r="B551" s="29"/>
       <c r="C551" s="29"/>
@@ -29745,7 +29745,7 @@
       <c r="AR551" s="29"/>
       <c r="AS551" s="29"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="29"/>
       <c r="B552" s="29"/>
       <c r="C552" s="29"/>
@@ -29792,7 +29792,7 @@
       <c r="AR552" s="29"/>
       <c r="AS552" s="29"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="29"/>
       <c r="B553" s="29"/>
       <c r="C553" s="29"/>
@@ -29839,7 +29839,7 @@
       <c r="AR553" s="29"/>
       <c r="AS553" s="29"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="29"/>
       <c r="B554" s="29"/>
       <c r="C554" s="29"/>
@@ -29886,7 +29886,7 @@
       <c r="AR554" s="29"/>
       <c r="AS554" s="29"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="29"/>
       <c r="B555" s="29"/>
       <c r="C555" s="29"/>
@@ -29933,7 +29933,7 @@
       <c r="AR555" s="29"/>
       <c r="AS555" s="29"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="29"/>
       <c r="B556" s="29"/>
       <c r="C556" s="29"/>
@@ -29980,7 +29980,7 @@
       <c r="AR556" s="29"/>
       <c r="AS556" s="29"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="29"/>
       <c r="B557" s="29"/>
       <c r="C557" s="29"/>
@@ -30027,7 +30027,7 @@
       <c r="AR557" s="29"/>
       <c r="AS557" s="29"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="29"/>
       <c r="B558" s="29"/>
       <c r="C558" s="29"/>
@@ -30074,7 +30074,7 @@
       <c r="AR558" s="29"/>
       <c r="AS558" s="29"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="29"/>
       <c r="B559" s="29"/>
       <c r="C559" s="29"/>
@@ -30121,7 +30121,7 @@
       <c r="AR559" s="29"/>
       <c r="AS559" s="29"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="29"/>
       <c r="B560" s="29"/>
       <c r="C560" s="29"/>
@@ -30168,7 +30168,7 @@
       <c r="AR560" s="29"/>
       <c r="AS560" s="29"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="29"/>
       <c r="B561" s="29"/>
       <c r="C561" s="29"/>
@@ -30215,7 +30215,7 @@
       <c r="AR561" s="29"/>
       <c r="AS561" s="29"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="29"/>
       <c r="B562" s="29"/>
       <c r="C562" s="29"/>
@@ -30262,7 +30262,7 @@
       <c r="AR562" s="29"/>
       <c r="AS562" s="29"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="29"/>
       <c r="B563" s="29"/>
       <c r="C563" s="29"/>
@@ -30309,7 +30309,7 @@
       <c r="AR563" s="29"/>
       <c r="AS563" s="29"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="29"/>
       <c r="B564" s="29"/>
       <c r="C564" s="29"/>
@@ -30356,7 +30356,7 @@
       <c r="AR564" s="29"/>
       <c r="AS564" s="29"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="29"/>
       <c r="B565" s="29"/>
       <c r="C565" s="29"/>
@@ -30403,7 +30403,7 @@
       <c r="AR565" s="29"/>
       <c r="AS565" s="29"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="29"/>
       <c r="B566" s="29"/>
       <c r="C566" s="29"/>
@@ -30450,7 +30450,7 @@
       <c r="AR566" s="29"/>
       <c r="AS566" s="29"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="29"/>
       <c r="B567" s="29"/>
       <c r="C567" s="29"/>
@@ -30497,7 +30497,7 @@
       <c r="AR567" s="29"/>
       <c r="AS567" s="29"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="29"/>
       <c r="B568" s="29"/>
       <c r="C568" s="29"/>
@@ -30544,7 +30544,7 @@
       <c r="AR568" s="29"/>
       <c r="AS568" s="29"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="29"/>
       <c r="B569" s="29"/>
       <c r="C569" s="29"/>
@@ -30591,7 +30591,7 @@
       <c r="AR569" s="29"/>
       <c r="AS569" s="29"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="29"/>
       <c r="B570" s="29"/>
       <c r="C570" s="29"/>
@@ -30638,7 +30638,7 @@
       <c r="AR570" s="29"/>
       <c r="AS570" s="29"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="29"/>
       <c r="B571" s="29"/>
       <c r="C571" s="29"/>
@@ -30685,7 +30685,7 @@
       <c r="AR571" s="29"/>
       <c r="AS571" s="29"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="29"/>
       <c r="B572" s="29"/>
       <c r="C572" s="29"/>
@@ -30732,7 +30732,7 @@
       <c r="AR572" s="29"/>
       <c r="AS572" s="29"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="29"/>
       <c r="B573" s="29"/>
       <c r="C573" s="29"/>
@@ -30779,7 +30779,7 @@
       <c r="AR573" s="29"/>
       <c r="AS573" s="29"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="29"/>
       <c r="B574" s="29"/>
       <c r="C574" s="29"/>
@@ -30826,7 +30826,7 @@
       <c r="AR574" s="29"/>
       <c r="AS574" s="29"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="29"/>
       <c r="B575" s="29"/>
       <c r="C575" s="29"/>
@@ -30873,7 +30873,7 @@
       <c r="AR575" s="29"/>
       <c r="AS575" s="29"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="29"/>
       <c r="B576" s="29"/>
       <c r="C576" s="29"/>
@@ -30920,7 +30920,7 @@
       <c r="AR576" s="29"/>
       <c r="AS576" s="29"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="29"/>
       <c r="B577" s="29"/>
       <c r="C577" s="29"/>
@@ -30967,7 +30967,7 @@
       <c r="AR577" s="29"/>
       <c r="AS577" s="29"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="29"/>
       <c r="B578" s="29"/>
       <c r="C578" s="29"/>
@@ -31014,7 +31014,7 @@
       <c r="AR578" s="29"/>
       <c r="AS578" s="29"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="29"/>
       <c r="B579" s="29"/>
       <c r="C579" s="29"/>
@@ -31061,7 +31061,7 @@
       <c r="AR579" s="29"/>
       <c r="AS579" s="29"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="29"/>
       <c r="B580" s="29"/>
       <c r="C580" s="29"/>
@@ -31108,7 +31108,7 @@
       <c r="AR580" s="29"/>
       <c r="AS580" s="29"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="29"/>
       <c r="B581" s="29"/>
       <c r="C581" s="29"/>
@@ -31155,7 +31155,7 @@
       <c r="AR581" s="29"/>
       <c r="AS581" s="29"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="29"/>
       <c r="B582" s="29"/>
       <c r="C582" s="29"/>
@@ -31202,7 +31202,7 @@
       <c r="AR582" s="29"/>
       <c r="AS582" s="29"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="29"/>
       <c r="B583" s="29"/>
       <c r="C583" s="29"/>
@@ -31249,7 +31249,7 @@
       <c r="AR583" s="29"/>
       <c r="AS583" s="29"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="29"/>
       <c r="B584" s="29"/>
       <c r="C584" s="29"/>
@@ -31296,7 +31296,7 @@
       <c r="AR584" s="29"/>
       <c r="AS584" s="29"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="29"/>
       <c r="B585" s="29"/>
       <c r="C585" s="29"/>
@@ -31343,7 +31343,7 @@
       <c r="AR585" s="29"/>
       <c r="AS585" s="29"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="29"/>
       <c r="B586" s="29"/>
       <c r="C586" s="29"/>
@@ -31390,7 +31390,7 @@
       <c r="AR586" s="29"/>
       <c r="AS586" s="29"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="29"/>
       <c r="B587" s="29"/>
       <c r="C587" s="29"/>
@@ -31437,7 +31437,7 @@
       <c r="AR587" s="29"/>
       <c r="AS587" s="29"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="29"/>
       <c r="B588" s="29"/>
       <c r="C588" s="29"/>
@@ -31484,7 +31484,7 @@
       <c r="AR588" s="29"/>
       <c r="AS588" s="29"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="29"/>
       <c r="B589" s="29"/>
       <c r="C589" s="29"/>
@@ -31531,7 +31531,7 @@
       <c r="AR589" s="29"/>
       <c r="AS589" s="29"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="29"/>
       <c r="B590" s="29"/>
       <c r="C590" s="29"/>
@@ -31578,7 +31578,7 @@
       <c r="AR590" s="29"/>
       <c r="AS590" s="29"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="29"/>
       <c r="B591" s="29"/>
       <c r="C591" s="29"/>
@@ -31625,7 +31625,7 @@
       <c r="AR591" s="29"/>
       <c r="AS591" s="29"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="29"/>
       <c r="B592" s="29"/>
       <c r="C592" s="29"/>
@@ -31672,7 +31672,7 @@
       <c r="AR592" s="29"/>
       <c r="AS592" s="29"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="29"/>
       <c r="B593" s="29"/>
       <c r="C593" s="29"/>
@@ -31719,7 +31719,7 @@
       <c r="AR593" s="29"/>
       <c r="AS593" s="29"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="29"/>
       <c r="B594" s="29"/>
       <c r="C594" s="29"/>
@@ -31766,7 +31766,7 @@
       <c r="AR594" s="29"/>
       <c r="AS594" s="29"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="29"/>
       <c r="B595" s="29"/>
       <c r="C595" s="29"/>
@@ -31813,7 +31813,7 @@
       <c r="AR595" s="29"/>
       <c r="AS595" s="29"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="29"/>
       <c r="B596" s="29"/>
       <c r="C596" s="29"/>
@@ -31860,7 +31860,7 @@
       <c r="AR596" s="29"/>
       <c r="AS596" s="29"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="29"/>
       <c r="B597" s="29"/>
       <c r="C597" s="29"/>
@@ -31907,7 +31907,7 @@
       <c r="AR597" s="29"/>
       <c r="AS597" s="29"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="29"/>
       <c r="B598" s="29"/>
       <c r="C598" s="29"/>
@@ -31954,7 +31954,7 @@
       <c r="AR598" s="29"/>
       <c r="AS598" s="29"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="29"/>
       <c r="B599" s="29"/>
       <c r="C599" s="29"/>
@@ -32001,7 +32001,7 @@
       <c r="AR599" s="29"/>
       <c r="AS599" s="29"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="29"/>
       <c r="B600" s="29"/>
       <c r="C600" s="29"/>
@@ -32048,7 +32048,7 @@
       <c r="AR600" s="29"/>
       <c r="AS600" s="29"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="29"/>
       <c r="B601" s="29"/>
       <c r="C601" s="29"/>
@@ -32095,7 +32095,7 @@
       <c r="AR601" s="29"/>
       <c r="AS601" s="29"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="29"/>
       <c r="B602" s="29"/>
       <c r="C602" s="29"/>
@@ -32142,7 +32142,7 @@
       <c r="AR602" s="29"/>
       <c r="AS602" s="29"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="29"/>
       <c r="B603" s="29"/>
       <c r="C603" s="29"/>
@@ -32189,7 +32189,7 @@
       <c r="AR603" s="29"/>
       <c r="AS603" s="29"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="29"/>
       <c r="B604" s="29"/>
       <c r="C604" s="29"/>
@@ -32236,7 +32236,7 @@
       <c r="AR604" s="29"/>
       <c r="AS604" s="29"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="29"/>
       <c r="B605" s="29"/>
       <c r="C605" s="29"/>
@@ -32283,7 +32283,7 @@
       <c r="AR605" s="29"/>
       <c r="AS605" s="29"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="29"/>
       <c r="B606" s="29"/>
       <c r="C606" s="29"/>
@@ -32330,7 +32330,7 @@
       <c r="AR606" s="29"/>
       <c r="AS606" s="29"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="29"/>
       <c r="B607" s="29"/>
       <c r="C607" s="29"/>
@@ -32377,7 +32377,7 @@
       <c r="AR607" s="29"/>
       <c r="AS607" s="29"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="29"/>
       <c r="B608" s="29"/>
       <c r="C608" s="29"/>
@@ -32424,7 +32424,7 @@
       <c r="AR608" s="29"/>
       <c r="AS608" s="29"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="29"/>
       <c r="B609" s="29"/>
       <c r="C609" s="29"/>
@@ -32471,7 +32471,7 @@
       <c r="AR609" s="29"/>
       <c r="AS609" s="29"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="29"/>
       <c r="B610" s="29"/>
       <c r="C610" s="29"/>
@@ -32518,7 +32518,7 @@
       <c r="AR610" s="29"/>
       <c r="AS610" s="29"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="29"/>
       <c r="B611" s="29"/>
       <c r="C611" s="29"/>
@@ -32565,7 +32565,7 @@
       <c r="AR611" s="29"/>
       <c r="AS611" s="29"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="29"/>
       <c r="B612" s="29"/>
       <c r="C612" s="29"/>
@@ -32612,7 +32612,7 @@
       <c r="AR612" s="29"/>
       <c r="AS612" s="29"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="29"/>
       <c r="B613" s="29"/>
       <c r="C613" s="29"/>
@@ -32659,7 +32659,7 @@
       <c r="AR613" s="29"/>
       <c r="AS613" s="29"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="29"/>
       <c r="B614" s="29"/>
       <c r="C614" s="29"/>
@@ -32706,7 +32706,7 @@
       <c r="AR614" s="29"/>
       <c r="AS614" s="29"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="29"/>
       <c r="B615" s="29"/>
       <c r="C615" s="29"/>
@@ -32753,7 +32753,7 @@
       <c r="AR615" s="29"/>
       <c r="AS615" s="29"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="29"/>
       <c r="B616" s="29"/>
       <c r="C616" s="29"/>
@@ -32800,7 +32800,7 @@
       <c r="AR616" s="29"/>
       <c r="AS616" s="29"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="29"/>
       <c r="B617" s="29"/>
       <c r="C617" s="29"/>
@@ -32847,7 +32847,7 @@
       <c r="AR617" s="29"/>
       <c r="AS617" s="29"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="29"/>
       <c r="B618" s="29"/>
       <c r="C618" s="29"/>
@@ -32894,7 +32894,7 @@
       <c r="AR618" s="29"/>
       <c r="AS618" s="29"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="29"/>
       <c r="B619" s="29"/>
       <c r="C619" s="29"/>
@@ -32941,7 +32941,7 @@
       <c r="AR619" s="29"/>
       <c r="AS619" s="29"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="29"/>
       <c r="B620" s="29"/>
       <c r="C620" s="29"/>
@@ -32988,7 +32988,7 @@
       <c r="AR620" s="29"/>
       <c r="AS620" s="29"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="29"/>
       <c r="B621" s="29"/>
       <c r="C621" s="29"/>
@@ -33035,7 +33035,7 @@
       <c r="AR621" s="29"/>
       <c r="AS621" s="29"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="29"/>
       <c r="B622" s="29"/>
       <c r="C622" s="29"/>
@@ -33082,7 +33082,7 @@
       <c r="AR622" s="29"/>
       <c r="AS622" s="29"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="29"/>
       <c r="B623" s="29"/>
       <c r="C623" s="29"/>
@@ -33129,7 +33129,7 @@
       <c r="AR623" s="29"/>
       <c r="AS623" s="29"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="29"/>
       <c r="B624" s="29"/>
       <c r="C624" s="29"/>
@@ -33176,7 +33176,7 @@
       <c r="AR624" s="29"/>
       <c r="AS624" s="29"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="29"/>
       <c r="B625" s="29"/>
       <c r="C625" s="29"/>
@@ -33223,7 +33223,7 @@
       <c r="AR625" s="29"/>
       <c r="AS625" s="29"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="29"/>
       <c r="B626" s="29"/>
       <c r="C626" s="29"/>
@@ -33270,7 +33270,7 @@
       <c r="AR626" s="29"/>
       <c r="AS626" s="29"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="29"/>
       <c r="B627" s="29"/>
       <c r="C627" s="29"/>
@@ -33317,7 +33317,7 @@
       <c r="AR627" s="29"/>
       <c r="AS627" s="29"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="29"/>
       <c r="B628" s="29"/>
       <c r="C628" s="29"/>
@@ -33364,7 +33364,7 @@
       <c r="AR628" s="29"/>
       <c r="AS628" s="29"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="29"/>
       <c r="B629" s="29"/>
       <c r="C629" s="29"/>
@@ -33411,7 +33411,7 @@
       <c r="AR629" s="29"/>
       <c r="AS629" s="29"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="29"/>
       <c r="B630" s="29"/>
       <c r="C630" s="29"/>
@@ -33458,7 +33458,7 @@
       <c r="AR630" s="29"/>
       <c r="AS630" s="29"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="29"/>
       <c r="B631" s="29"/>
       <c r="C631" s="29"/>
@@ -33505,7 +33505,7 @@
       <c r="AR631" s="29"/>
       <c r="AS631" s="29"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="29"/>
       <c r="B632" s="29"/>
       <c r="C632" s="29"/>
@@ -33552,7 +33552,7 @@
       <c r="AR632" s="29"/>
       <c r="AS632" s="29"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="29"/>
       <c r="B633" s="29"/>
       <c r="C633" s="29"/>
@@ -33599,7 +33599,7 @@
       <c r="AR633" s="29"/>
       <c r="AS633" s="29"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="29"/>
       <c r="B634" s="29"/>
       <c r="C634" s="29"/>
@@ -33646,7 +33646,7 @@
       <c r="AR634" s="29"/>
       <c r="AS634" s="29"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="29"/>
       <c r="B635" s="29"/>
       <c r="C635" s="29"/>
@@ -33693,7 +33693,7 @@
       <c r="AR635" s="29"/>
       <c r="AS635" s="29"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="29"/>
       <c r="B636" s="29"/>
       <c r="C636" s="29"/>
@@ -33740,7 +33740,7 @@
       <c r="AR636" s="29"/>
       <c r="AS636" s="29"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="29"/>
       <c r="B637" s="29"/>
       <c r="C637" s="29"/>
@@ -33787,7 +33787,7 @@
       <c r="AR637" s="29"/>
       <c r="AS637" s="29"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="29"/>
       <c r="B638" s="29"/>
       <c r="C638" s="29"/>
@@ -33834,7 +33834,7 @@
       <c r="AR638" s="29"/>
       <c r="AS638" s="29"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="29"/>
       <c r="B639" s="29"/>
       <c r="C639" s="29"/>
@@ -33881,7 +33881,7 @@
       <c r="AR639" s="29"/>
       <c r="AS639" s="29"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="29"/>
       <c r="B640" s="29"/>
       <c r="C640" s="29"/>
@@ -33928,7 +33928,7 @@
       <c r="AR640" s="29"/>
       <c r="AS640" s="29"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="29"/>
       <c r="B641" s="29"/>
       <c r="C641" s="29"/>
@@ -33975,7 +33975,7 @@
       <c r="AR641" s="29"/>
       <c r="AS641" s="29"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="29"/>
       <c r="B642" s="29"/>
       <c r="C642" s="29"/>
@@ -34022,7 +34022,7 @@
       <c r="AR642" s="29"/>
       <c r="AS642" s="29"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="29"/>
       <c r="B643" s="29"/>
       <c r="C643" s="29"/>
@@ -34069,7 +34069,7 @@
       <c r="AR643" s="29"/>
       <c r="AS643" s="29"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="29"/>
       <c r="B644" s="29"/>
       <c r="C644" s="29"/>
@@ -34116,7 +34116,7 @@
       <c r="AR644" s="29"/>
       <c r="AS644" s="29"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="29"/>
       <c r="B645" s="29"/>
       <c r="C645" s="29"/>
@@ -34163,7 +34163,7 @@
       <c r="AR645" s="29"/>
       <c r="AS645" s="29"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="29"/>
       <c r="B646" s="29"/>
       <c r="C646" s="29"/>
@@ -34210,7 +34210,7 @@
       <c r="AR646" s="29"/>
       <c r="AS646" s="29"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="29"/>
       <c r="B647" s="29"/>
       <c r="C647" s="29"/>
@@ -34257,7 +34257,7 @@
       <c r="AR647" s="29"/>
       <c r="AS647" s="29"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="29"/>
       <c r="B648" s="29"/>
       <c r="C648" s="29"/>
@@ -34304,7 +34304,7 @@
       <c r="AR648" s="29"/>
       <c r="AS648" s="29"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="29"/>
       <c r="B649" s="29"/>
       <c r="C649" s="29"/>
@@ -34351,7 +34351,7 @@
       <c r="AR649" s="29"/>
       <c r="AS649" s="29"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="29"/>
       <c r="B650" s="29"/>
       <c r="C650" s="29"/>
@@ -34398,7 +34398,7 @@
       <c r="AR650" s="29"/>
       <c r="AS650" s="29"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="29"/>
       <c r="B651" s="29"/>
       <c r="C651" s="29"/>
@@ -34445,7 +34445,7 @@
       <c r="AR651" s="29"/>
       <c r="AS651" s="29"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="29"/>
       <c r="B652" s="29"/>
       <c r="C652" s="29"/>
@@ -34492,7 +34492,7 @@
       <c r="AR652" s="29"/>
       <c r="AS652" s="29"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="29"/>
       <c r="B653" s="29"/>
       <c r="C653" s="29"/>
@@ -34539,7 +34539,7 @@
       <c r="AR653" s="29"/>
       <c r="AS653" s="29"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="29"/>
       <c r="B654" s="29"/>
       <c r="C654" s="29"/>
@@ -34586,7 +34586,7 @@
       <c r="AR654" s="29"/>
       <c r="AS654" s="29"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="29"/>
       <c r="B655" s="29"/>
       <c r="C655" s="29"/>
@@ -34633,7 +34633,7 @@
       <c r="AR655" s="29"/>
       <c r="AS655" s="29"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="29"/>
       <c r="B656" s="29"/>
       <c r="C656" s="29"/>
@@ -34680,7 +34680,7 @@
       <c r="AR656" s="29"/>
       <c r="AS656" s="29"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="29"/>
       <c r="B657" s="29"/>
       <c r="C657" s="29"/>
@@ -34727,7 +34727,7 @@
       <c r="AR657" s="29"/>
       <c r="AS657" s="29"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="29"/>
       <c r="B658" s="29"/>
       <c r="C658" s="29"/>
@@ -34774,7 +34774,7 @@
       <c r="AR658" s="29"/>
       <c r="AS658" s="29"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="29"/>
       <c r="B659" s="29"/>
       <c r="C659" s="29"/>
@@ -34821,7 +34821,7 @@
       <c r="AR659" s="29"/>
       <c r="AS659" s="29"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="29"/>
       <c r="B660" s="29"/>
       <c r="C660" s="29"/>
@@ -34868,7 +34868,7 @@
       <c r="AR660" s="29"/>
       <c r="AS660" s="29"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="29"/>
       <c r="B661" s="29"/>
       <c r="C661" s="29"/>
@@ -34915,7 +34915,7 @@
       <c r="AR661" s="29"/>
       <c r="AS661" s="29"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="29"/>
       <c r="B662" s="29"/>
       <c r="C662" s="29"/>
@@ -34962,7 +34962,7 @@
       <c r="AR662" s="29"/>
       <c r="AS662" s="29"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="29"/>
       <c r="B663" s="29"/>
       <c r="C663" s="29"/>
@@ -35009,7 +35009,7 @@
       <c r="AR663" s="29"/>
       <c r="AS663" s="29"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="29"/>
       <c r="B664" s="29"/>
       <c r="C664" s="29"/>
@@ -35056,7 +35056,7 @@
       <c r="AR664" s="29"/>
       <c r="AS664" s="29"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="29"/>
       <c r="B665" s="29"/>
       <c r="C665" s="29"/>
@@ -35103,7 +35103,7 @@
       <c r="AR665" s="29"/>
       <c r="AS665" s="29"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="29"/>
       <c r="B666" s="29"/>
       <c r="C666" s="29"/>
@@ -35150,7 +35150,7 @@
       <c r="AR666" s="29"/>
       <c r="AS666" s="29"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="29"/>
       <c r="B667" s="29"/>
       <c r="C667" s="29"/>
@@ -35197,7 +35197,7 @@
       <c r="AR667" s="29"/>
       <c r="AS667" s="29"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="29"/>
       <c r="B668" s="29"/>
       <c r="C668" s="29"/>
@@ -35244,7 +35244,7 @@
       <c r="AR668" s="29"/>
       <c r="AS668" s="29"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="29"/>
       <c r="B669" s="29"/>
       <c r="C669" s="29"/>
@@ -35291,7 +35291,7 @@
       <c r="AR669" s="29"/>
       <c r="AS669" s="29"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="29"/>
       <c r="B670" s="29"/>
       <c r="C670" s="29"/>
@@ -35338,7 +35338,7 @@
       <c r="AR670" s="29"/>
       <c r="AS670" s="29"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="29"/>
       <c r="B671" s="29"/>
       <c r="C671" s="29"/>
@@ -35385,7 +35385,7 @@
       <c r="AR671" s="29"/>
       <c r="AS671" s="29"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="29"/>
       <c r="B672" s="29"/>
       <c r="C672" s="29"/>
@@ -35432,7 +35432,7 @@
       <c r="AR672" s="29"/>
       <c r="AS672" s="29"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="29"/>
       <c r="B673" s="29"/>
       <c r="C673" s="29"/>
@@ -35479,7 +35479,7 @@
       <c r="AR673" s="29"/>
       <c r="AS673" s="29"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="29"/>
       <c r="B674" s="29"/>
       <c r="C674" s="29"/>
@@ -35526,7 +35526,7 @@
       <c r="AR674" s="29"/>
       <c r="AS674" s="29"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="29"/>
       <c r="B675" s="29"/>
       <c r="C675" s="29"/>
@@ -35573,7 +35573,7 @@
       <c r="AR675" s="29"/>
       <c r="AS675" s="29"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="29"/>
       <c r="B676" s="29"/>
       <c r="C676" s="29"/>
@@ -35620,7 +35620,7 @@
       <c r="AR676" s="29"/>
       <c r="AS676" s="29"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="29"/>
       <c r="B677" s="29"/>
       <c r="C677" s="29"/>
@@ -35667,7 +35667,7 @@
       <c r="AR677" s="29"/>
       <c r="AS677" s="29"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="29"/>
       <c r="B678" s="29"/>
       <c r="C678" s="29"/>
@@ -35714,7 +35714,7 @@
       <c r="AR678" s="29"/>
       <c r="AS678" s="29"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="29"/>
       <c r="B679" s="29"/>
       <c r="C679" s="29"/>
@@ -35761,7 +35761,7 @@
       <c r="AR679" s="29"/>
       <c r="AS679" s="29"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="29"/>
       <c r="B680" s="29"/>
       <c r="C680" s="29"/>
@@ -35808,7 +35808,7 @@
       <c r="AR680" s="29"/>
       <c r="AS680" s="29"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="29"/>
       <c r="B681" s="29"/>
       <c r="C681" s="29"/>
@@ -35855,7 +35855,7 @@
       <c r="AR681" s="29"/>
       <c r="AS681" s="29"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="29"/>
       <c r="B682" s="29"/>
       <c r="C682" s="29"/>
@@ -35902,7 +35902,7 @@
       <c r="AR682" s="29"/>
       <c r="AS682" s="29"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="29"/>
       <c r="B683" s="29"/>
       <c r="C683" s="29"/>
@@ -35949,7 +35949,7 @@
       <c r="AR683" s="29"/>
       <c r="AS683" s="29"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="29"/>
       <c r="B684" s="29"/>
       <c r="C684" s="29"/>
@@ -35996,7 +35996,7 @@
       <c r="AR684" s="29"/>
       <c r="AS684" s="29"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="29"/>
       <c r="B685" s="29"/>
       <c r="C685" s="29"/>
@@ -36043,7 +36043,7 @@
       <c r="AR685" s="29"/>
       <c r="AS685" s="29"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="29"/>
       <c r="B686" s="29"/>
       <c r="C686" s="29"/>
@@ -36090,7 +36090,7 @@
       <c r="AR686" s="29"/>
       <c r="AS686" s="29"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="29"/>
       <c r="B687" s="29"/>
       <c r="C687" s="29"/>
@@ -36137,7 +36137,7 @@
       <c r="AR687" s="29"/>
       <c r="AS687" s="29"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="29"/>
       <c r="B688" s="29"/>
       <c r="C688" s="29"/>
@@ -36184,7 +36184,7 @@
       <c r="AR688" s="29"/>
       <c r="AS688" s="29"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="29"/>
       <c r="B689" s="29"/>
       <c r="C689" s="29"/>
@@ -36231,7 +36231,7 @@
       <c r="AR689" s="29"/>
       <c r="AS689" s="29"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="29"/>
       <c r="B690" s="29"/>
       <c r="C690" s="29"/>
@@ -36278,7 +36278,7 @@
       <c r="AR690" s="29"/>
       <c r="AS690" s="29"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="29"/>
       <c r="B691" s="29"/>
       <c r="C691" s="29"/>
@@ -36325,7 +36325,7 @@
       <c r="AR691" s="29"/>
       <c r="AS691" s="29"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="29"/>
       <c r="B692" s="29"/>
       <c r="C692" s="29"/>
@@ -36372,7 +36372,7 @@
       <c r="AR692" s="29"/>
       <c r="AS692" s="29"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="29"/>
       <c r="B693" s="29"/>
       <c r="C693" s="29"/>
@@ -36419,7 +36419,7 @@
       <c r="AR693" s="29"/>
       <c r="AS693" s="29"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="29"/>
       <c r="B694" s="29"/>
       <c r="C694" s="29"/>
@@ -36466,7 +36466,7 @@
       <c r="AR694" s="29"/>
       <c r="AS694" s="29"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="29"/>
       <c r="B695" s="29"/>
       <c r="C695" s="29"/>
@@ -36513,7 +36513,7 @@
       <c r="AR695" s="29"/>
       <c r="AS695" s="29"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="29"/>
       <c r="B696" s="29"/>
       <c r="C696" s="29"/>
@@ -36560,7 +36560,7 @@
       <c r="AR696" s="29"/>
       <c r="AS696" s="29"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="29"/>
       <c r="B697" s="29"/>
       <c r="C697" s="29"/>
@@ -36607,7 +36607,7 @@
       <c r="AR697" s="29"/>
       <c r="AS697" s="29"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="29"/>
       <c r="B698" s="29"/>
       <c r="C698" s="29"/>
@@ -36654,7 +36654,7 @@
       <c r="AR698" s="29"/>
       <c r="AS698" s="29"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="29"/>
       <c r="B699" s="29"/>
       <c r="C699" s="29"/>
@@ -36701,7 +36701,7 @@
       <c r="AR699" s="29"/>
       <c r="AS699" s="29"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="29"/>
       <c r="B700" s="29"/>
       <c r="C700" s="29"/>
@@ -36748,7 +36748,7 @@
       <c r="AR700" s="29"/>
       <c r="AS700" s="29"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="29"/>
       <c r="B701" s="29"/>
       <c r="C701" s="29"/>
@@ -36795,7 +36795,7 @@
       <c r="AR701" s="29"/>
       <c r="AS701" s="29"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="29"/>
       <c r="B702" s="29"/>
       <c r="C702" s="29"/>
@@ -36842,7 +36842,7 @@
       <c r="AR702" s="29"/>
       <c r="AS702" s="29"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="29"/>
       <c r="B703" s="29"/>
       <c r="C703" s="29"/>
@@ -36889,7 +36889,7 @@
       <c r="AR703" s="29"/>
       <c r="AS703" s="29"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="29"/>
       <c r="B704" s="29"/>
       <c r="C704" s="29"/>
@@ -36936,7 +36936,7 @@
       <c r="AR704" s="29"/>
       <c r="AS704" s="29"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="29"/>
       <c r="B705" s="29"/>
       <c r="C705" s="29"/>
@@ -36983,7 +36983,7 @@
       <c r="AR705" s="29"/>
       <c r="AS705" s="29"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="29"/>
       <c r="B706" s="29"/>
       <c r="C706" s="29"/>
@@ -37030,7 +37030,7 @@
       <c r="AR706" s="29"/>
       <c r="AS706" s="29"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="29"/>
       <c r="B707" s="29"/>
       <c r="C707" s="29"/>
@@ -37077,7 +37077,7 @@
       <c r="AR707" s="29"/>
       <c r="AS707" s="29"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="29"/>
       <c r="B708" s="29"/>
       <c r="C708" s="29"/>
@@ -37124,7 +37124,7 @@
       <c r="AR708" s="29"/>
       <c r="AS708" s="29"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="29"/>
       <c r="B709" s="29"/>
       <c r="C709" s="29"/>
@@ -37171,7 +37171,7 @@
       <c r="AR709" s="29"/>
       <c r="AS709" s="29"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="29"/>
       <c r="B710" s="29"/>
       <c r="C710" s="29"/>
@@ -37218,7 +37218,7 @@
       <c r="AR710" s="29"/>
       <c r="AS710" s="29"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="29"/>
       <c r="B711" s="29"/>
       <c r="C711" s="29"/>
@@ -37265,7 +37265,7 @@
       <c r="AR711" s="29"/>
       <c r="AS711" s="29"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="29"/>
       <c r="B712" s="29"/>
       <c r="C712" s="29"/>
@@ -37312,7 +37312,7 @@
       <c r="AR712" s="29"/>
       <c r="AS712" s="29"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="29"/>
       <c r="B713" s="29"/>
       <c r="C713" s="29"/>
@@ -37359,7 +37359,7 @@
       <c r="AR713" s="29"/>
       <c r="AS713" s="29"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="29"/>
       <c r="B714" s="29"/>
       <c r="C714" s="29"/>
@@ -37406,7 +37406,7 @@
       <c r="AR714" s="29"/>
       <c r="AS714" s="29"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="29"/>
       <c r="B715" s="29"/>
       <c r="C715" s="29"/>
@@ -37453,7 +37453,7 @@
       <c r="AR715" s="29"/>
       <c r="AS715" s="29"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="29"/>
       <c r="B716" s="29"/>
       <c r="C716" s="29"/>
@@ -37500,7 +37500,7 @@
       <c r="AR716" s="29"/>
       <c r="AS716" s="29"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="29"/>
       <c r="B717" s="29"/>
       <c r="C717" s="29"/>
@@ -37547,7 +37547,7 @@
       <c r="AR717" s="29"/>
       <c r="AS717" s="29"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="29"/>
       <c r="B718" s="29"/>
       <c r="C718" s="29"/>
@@ -37594,7 +37594,7 @@
       <c r="AR718" s="29"/>
       <c r="AS718" s="29"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="29"/>
       <c r="B719" s="29"/>
       <c r="C719" s="29"/>
@@ -37641,7 +37641,7 @@
       <c r="AR719" s="29"/>
       <c r="AS719" s="29"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="29"/>
       <c r="B720" s="29"/>
       <c r="C720" s="29"/>
@@ -37688,7 +37688,7 @@
       <c r="AR720" s="29"/>
       <c r="AS720" s="29"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="29"/>
       <c r="B721" s="29"/>
       <c r="C721" s="29"/>
@@ -37735,7 +37735,7 @@
       <c r="AR721" s="29"/>
       <c r="AS721" s="29"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="29"/>
       <c r="B722" s="29"/>
       <c r="C722" s="29"/>
@@ -37782,7 +37782,7 @@
       <c r="AR722" s="29"/>
       <c r="AS722" s="29"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="29"/>
       <c r="B723" s="29"/>
       <c r="C723" s="29"/>
@@ -37829,7 +37829,7 @@
       <c r="AR723" s="29"/>
       <c r="AS723" s="29"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="29"/>
       <c r="B724" s="29"/>
       <c r="C724" s="29"/>
@@ -37876,7 +37876,7 @@
       <c r="AR724" s="29"/>
       <c r="AS724" s="29"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="29"/>
       <c r="B725" s="29"/>
       <c r="C725" s="29"/>
@@ -37923,7 +37923,7 @@
       <c r="AR725" s="29"/>
       <c r="AS725" s="29"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="29"/>
       <c r="B726" s="29"/>
       <c r="C726" s="29"/>
@@ -37970,7 +37970,7 @@
       <c r="AR726" s="29"/>
       <c r="AS726" s="29"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="29"/>
       <c r="B727" s="29"/>
       <c r="C727" s="29"/>
@@ -38017,7 +38017,7 @@
       <c r="AR727" s="29"/>
       <c r="AS727" s="29"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="29"/>
       <c r="B728" s="29"/>
       <c r="C728" s="29"/>
@@ -38064,7 +38064,7 @@
       <c r="AR728" s="29"/>
       <c r="AS728" s="29"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="29"/>
       <c r="B729" s="29"/>
       <c r="C729" s="29"/>
@@ -38111,7 +38111,7 @@
       <c r="AR729" s="29"/>
       <c r="AS729" s="29"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="29"/>
       <c r="B730" s="29"/>
       <c r="C730" s="29"/>
@@ -38158,7 +38158,7 @@
       <c r="AR730" s="29"/>
       <c r="AS730" s="29"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="29"/>
       <c r="B731" s="29"/>
       <c r="C731" s="29"/>
@@ -38205,7 +38205,7 @@
       <c r="AR731" s="29"/>
       <c r="AS731" s="29"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="29"/>
       <c r="B732" s="29"/>
       <c r="C732" s="29"/>
@@ -38252,7 +38252,7 @@
       <c r="AR732" s="29"/>
       <c r="AS732" s="29"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="29"/>
       <c r="B733" s="29"/>
       <c r="C733" s="29"/>
@@ -38299,7 +38299,7 @@
       <c r="AR733" s="29"/>
       <c r="AS733" s="29"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="29"/>
       <c r="B734" s="29"/>
       <c r="C734" s="29"/>
@@ -38346,7 +38346,7 @@
       <c r="AR734" s="29"/>
       <c r="AS734" s="29"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="29"/>
       <c r="B735" s="29"/>
       <c r="C735" s="29"/>
@@ -38393,7 +38393,7 @@
       <c r="AR735" s="29"/>
       <c r="AS735" s="29"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="29"/>
       <c r="B736" s="29"/>
       <c r="C736" s="29"/>
@@ -38440,7 +38440,7 @@
       <c r="AR736" s="29"/>
       <c r="AS736" s="29"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="29"/>
       <c r="B737" s="29"/>
       <c r="C737" s="29"/>
@@ -38487,7 +38487,7 @@
       <c r="AR737" s="29"/>
       <c r="AS737" s="29"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="29"/>
       <c r="B738" s="29"/>
       <c r="C738" s="29"/>
@@ -38534,7 +38534,7 @@
       <c r="AR738" s="29"/>
       <c r="AS738" s="29"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="29"/>
       <c r="B739" s="29"/>
       <c r="C739" s="29"/>
@@ -38581,7 +38581,7 @@
       <c r="AR739" s="29"/>
       <c r="AS739" s="29"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="29"/>
       <c r="B740" s="29"/>
       <c r="C740" s="29"/>
@@ -38628,7 +38628,7 @@
       <c r="AR740" s="29"/>
       <c r="AS740" s="29"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="29"/>
       <c r="B741" s="29"/>
       <c r="C741" s="29"/>
@@ -38675,7 +38675,7 @@
       <c r="AR741" s="29"/>
       <c r="AS741" s="29"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="29"/>
       <c r="B742" s="29"/>
       <c r="C742" s="29"/>
@@ -38722,7 +38722,7 @@
       <c r="AR742" s="29"/>
       <c r="AS742" s="29"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="29"/>
       <c r="B743" s="29"/>
       <c r="C743" s="29"/>
@@ -38769,7 +38769,7 @@
       <c r="AR743" s="29"/>
       <c r="AS743" s="29"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="29"/>
       <c r="B744" s="29"/>
       <c r="C744" s="29"/>
@@ -38816,7 +38816,7 @@
       <c r="AR744" s="29"/>
       <c r="AS744" s="29"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="29"/>
       <c r="B745" s="29"/>
       <c r="C745" s="29"/>
@@ -38863,7 +38863,7 @@
       <c r="AR745" s="29"/>
       <c r="AS745" s="29"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="29"/>
       <c r="B746" s="29"/>
       <c r="C746" s="29"/>
@@ -38910,7 +38910,7 @@
       <c r="AR746" s="29"/>
       <c r="AS746" s="29"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="29"/>
       <c r="B747" s="29"/>
       <c r="C747" s="29"/>
@@ -38957,7 +38957,7 @@
       <c r="AR747" s="29"/>
       <c r="AS747" s="29"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="29"/>
       <c r="B748" s="29"/>
       <c r="C748" s="29"/>
@@ -39004,7 +39004,7 @@
       <c r="AR748" s="29"/>
       <c r="AS748" s="29"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="29"/>
       <c r="B749" s="29"/>
       <c r="C749" s="29"/>
@@ -39051,7 +39051,7 @@
       <c r="AR749" s="29"/>
       <c r="AS749" s="29"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="29"/>
       <c r="B750" s="29"/>
       <c r="C750" s="29"/>
@@ -39098,7 +39098,7 @@
       <c r="AR750" s="29"/>
       <c r="AS750" s="29"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="29"/>
       <c r="B751" s="29"/>
       <c r="C751" s="29"/>
@@ -39145,7 +39145,7 @@
       <c r="AR751" s="29"/>
       <c r="AS751" s="29"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="29"/>
       <c r="B752" s="29"/>
       <c r="C752" s="29"/>
@@ -39192,7 +39192,7 @@
       <c r="AR752" s="29"/>
       <c r="AS752" s="29"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="29"/>
       <c r="B753" s="29"/>
       <c r="C753" s="29"/>
@@ -39239,7 +39239,7 @@
       <c r="AR753" s="29"/>
       <c r="AS753" s="29"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="29"/>
       <c r="B754" s="29"/>
       <c r="C754" s="29"/>
@@ -39286,7 +39286,7 @@
       <c r="AR754" s="29"/>
       <c r="AS754" s="29"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="29"/>
       <c r="B755" s="29"/>
       <c r="C755" s="29"/>
@@ -39333,7 +39333,7 @@
       <c r="AR755" s="29"/>
       <c r="AS755" s="29"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="29"/>
       <c r="B756" s="29"/>
       <c r="C756" s="29"/>
@@ -39380,7 +39380,7 @@
       <c r="AR756" s="29"/>
       <c r="AS756" s="29"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="29"/>
       <c r="B757" s="29"/>
       <c r="C757" s="29"/>
@@ -39427,7 +39427,7 @@
       <c r="AR757" s="29"/>
       <c r="AS757" s="29"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="29"/>
       <c r="B758" s="29"/>
       <c r="C758" s="29"/>
@@ -39474,7 +39474,7 @@
       <c r="AR758" s="29"/>
       <c r="AS758" s="29"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="29"/>
       <c r="B759" s="29"/>
       <c r="C759" s="29"/>
@@ -39521,7 +39521,7 @@
       <c r="AR759" s="29"/>
       <c r="AS759" s="29"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="29"/>
       <c r="B760" s="29"/>
       <c r="C760" s="29"/>
@@ -39568,7 +39568,7 @@
       <c r="AR760" s="29"/>
       <c r="AS760" s="29"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="29"/>
       <c r="B761" s="29"/>
       <c r="C761" s="29"/>
@@ -39615,7 +39615,7 @@
       <c r="AR761" s="29"/>
       <c r="AS761" s="29"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="29"/>
       <c r="B762" s="29"/>
       <c r="C762" s="29"/>
@@ -39662,7 +39662,7 @@
       <c r="AR762" s="29"/>
       <c r="AS762" s="29"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="29"/>
       <c r="B763" s="29"/>
       <c r="C763" s="29"/>
@@ -39709,7 +39709,7 @@
       <c r="AR763" s="29"/>
       <c r="AS763" s="29"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="29"/>
       <c r="B764" s="29"/>
       <c r="C764" s="29"/>
@@ -39756,7 +39756,7 @@
       <c r="AR764" s="29"/>
       <c r="AS764" s="29"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="29"/>
       <c r="B765" s="29"/>
       <c r="C765" s="29"/>
@@ -39803,7 +39803,7 @@
       <c r="AR765" s="29"/>
       <c r="AS765" s="29"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="29"/>
       <c r="B766" s="29"/>
       <c r="C766" s="29"/>
@@ -39850,7 +39850,7 @@
       <c r="AR766" s="29"/>
       <c r="AS766" s="29"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="29"/>
       <c r="B767" s="29"/>
       <c r="C767" s="29"/>
@@ -39897,7 +39897,7 @@
       <c r="AR767" s="29"/>
       <c r="AS767" s="29"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="29"/>
       <c r="B768" s="29"/>
       <c r="C768" s="29"/>
@@ -39944,7 +39944,7 @@
       <c r="AR768" s="29"/>
       <c r="AS768" s="29"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="29"/>
       <c r="B769" s="29"/>
       <c r="C769" s="29"/>
@@ -39991,7 +39991,7 @@
       <c r="AR769" s="29"/>
       <c r="AS769" s="29"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="29"/>
       <c r="B770" s="29"/>
       <c r="C770" s="29"/>
@@ -40038,7 +40038,7 @@
       <c r="AR770" s="29"/>
       <c r="AS770" s="29"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="29"/>
       <c r="B771" s="29"/>
       <c r="C771" s="29"/>
@@ -40085,7 +40085,7 @@
       <c r="AR771" s="29"/>
       <c r="AS771" s="29"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="29"/>
       <c r="B772" s="29"/>
       <c r="C772" s="29"/>
@@ -40132,7 +40132,7 @@
       <c r="AR772" s="29"/>
       <c r="AS772" s="29"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="29"/>
       <c r="B773" s="29"/>
       <c r="C773" s="29"/>
@@ -40179,7 +40179,7 @@
       <c r="AR773" s="29"/>
       <c r="AS773" s="29"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="29"/>
       <c r="B774" s="29"/>
       <c r="C774" s="29"/>
@@ -40226,7 +40226,7 @@
       <c r="AR774" s="29"/>
       <c r="AS774" s="29"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="29"/>
       <c r="B775" s="29"/>
       <c r="C775" s="29"/>
@@ -40273,7 +40273,7 @@
       <c r="AR775" s="29"/>
       <c r="AS775" s="29"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="29"/>
       <c r="B776" s="29"/>
       <c r="C776" s="29"/>
@@ -40320,7 +40320,7 @@
       <c r="AR776" s="29"/>
       <c r="AS776" s="29"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="29"/>
       <c r="B777" s="29"/>
       <c r="C777" s="29"/>
@@ -40367,7 +40367,7 @@
       <c r="AR777" s="29"/>
       <c r="AS777" s="29"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="29"/>
       <c r="B778" s="29"/>
       <c r="C778" s="29"/>
@@ -40414,7 +40414,7 @@
       <c r="AR778" s="29"/>
       <c r="AS778" s="29"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="29"/>
       <c r="B779" s="29"/>
       <c r="C779" s="29"/>
@@ -40461,7 +40461,7 @@
       <c r="AR779" s="29"/>
       <c r="AS779" s="29"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="29"/>
       <c r="B780" s="29"/>
       <c r="C780" s="29"/>
@@ -40508,7 +40508,7 @@
       <c r="AR780" s="29"/>
       <c r="AS780" s="29"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="29"/>
       <c r="B781" s="29"/>
       <c r="C781" s="29"/>
@@ -40555,7 +40555,7 @@
       <c r="AR781" s="29"/>
       <c r="AS781" s="29"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="29"/>
       <c r="B782" s="29"/>
       <c r="C782" s="29"/>
@@ -40602,7 +40602,7 @@
       <c r="AR782" s="29"/>
       <c r="AS782" s="29"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="29"/>
       <c r="B783" s="29"/>
       <c r="C783" s="29"/>
@@ -40649,7 +40649,7 @@
       <c r="AR783" s="29"/>
       <c r="AS783" s="29"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="29"/>
       <c r="B784" s="29"/>
       <c r="C784" s="29"/>
@@ -40696,7 +40696,7 @@
       <c r="AR784" s="29"/>
       <c r="AS784" s="29"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="29"/>
       <c r="B785" s="29"/>
       <c r="C785" s="29"/>
@@ -40743,7 +40743,7 @@
       <c r="AR785" s="29"/>
       <c r="AS785" s="29"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="29"/>
       <c r="B786" s="29"/>
       <c r="C786" s="29"/>
@@ -40790,7 +40790,7 @@
       <c r="AR786" s="29"/>
       <c r="AS786" s="29"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="29"/>
       <c r="B787" s="29"/>
       <c r="C787" s="29"/>
@@ -40837,7 +40837,7 @@
       <c r="AR787" s="29"/>
       <c r="AS787" s="29"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="29"/>
       <c r="B788" s="29"/>
       <c r="C788" s="29"/>
@@ -40884,7 +40884,7 @@
       <c r="AR788" s="29"/>
       <c r="AS788" s="29"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="29"/>
       <c r="B789" s="29"/>
       <c r="C789" s="29"/>
@@ -40931,7 +40931,7 @@
       <c r="AR789" s="29"/>
       <c r="AS789" s="29"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="29"/>
       <c r="B790" s="29"/>
       <c r="C790" s="29"/>
@@ -40978,7 +40978,7 @@
       <c r="AR790" s="29"/>
       <c r="AS790" s="29"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="29"/>
       <c r="B791" s="29"/>
       <c r="C791" s="29"/>
@@ -41025,7 +41025,7 @@
       <c r="AR791" s="29"/>
       <c r="AS791" s="29"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="29"/>
       <c r="B792" s="29"/>
       <c r="C792" s="29"/>
@@ -41072,7 +41072,7 @@
       <c r="AR792" s="29"/>
       <c r="AS792" s="29"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="29"/>
       <c r="B793" s="29"/>
       <c r="C793" s="29"/>
@@ -41119,7 +41119,7 @@
       <c r="AR793" s="29"/>
       <c r="AS793" s="29"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="29"/>
       <c r="B794" s="29"/>
       <c r="C794" s="29"/>
@@ -41166,7 +41166,7 @@
       <c r="AR794" s="29"/>
       <c r="AS794" s="29"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="29"/>
       <c r="B795" s="29"/>
       <c r="C795" s="29"/>
@@ -41213,7 +41213,7 @@
       <c r="AR795" s="29"/>
       <c r="AS795" s="29"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="29"/>
       <c r="B796" s="29"/>
       <c r="C796" s="29"/>
@@ -41260,7 +41260,7 @@
       <c r="AR796" s="29"/>
       <c r="AS796" s="29"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="29"/>
       <c r="B797" s="29"/>
       <c r="C797" s="29"/>
@@ -41307,7 +41307,7 @@
       <c r="AR797" s="29"/>
       <c r="AS797" s="29"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="29"/>
       <c r="B798" s="29"/>
       <c r="C798" s="29"/>
@@ -41354,7 +41354,7 @@
       <c r="AR798" s="29"/>
       <c r="AS798" s="29"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="29"/>
       <c r="B799" s="29"/>
       <c r="C799" s="29"/>
@@ -41401,7 +41401,7 @@
       <c r="AR799" s="29"/>
       <c r="AS799" s="29"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="29"/>
       <c r="B800" s="29"/>
       <c r="C800" s="29"/>
@@ -41448,7 +41448,7 @@
       <c r="AR800" s="29"/>
       <c r="AS800" s="29"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="29"/>
       <c r="B801" s="29"/>
       <c r="C801" s="29"/>
@@ -41495,7 +41495,7 @@
       <c r="AR801" s="29"/>
       <c r="AS801" s="29"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="29"/>
       <c r="B802" s="29"/>
       <c r="C802" s="29"/>
@@ -41542,7 +41542,7 @@
       <c r="AR802" s="29"/>
       <c r="AS802" s="29"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="29"/>
       <c r="B803" s="29"/>
       <c r="C803" s="29"/>
@@ -41589,7 +41589,7 @@
       <c r="AR803" s="29"/>
       <c r="AS803" s="29"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="29"/>
       <c r="B804" s="29"/>
       <c r="C804" s="29"/>
@@ -41636,7 +41636,7 @@
       <c r="AR804" s="29"/>
       <c r="AS804" s="29"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="29"/>
       <c r="B805" s="29"/>
       <c r="C805" s="29"/>
@@ -41683,7 +41683,7 @@
       <c r="AR805" s="29"/>
       <c r="AS805" s="29"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="29"/>
       <c r="B806" s="29"/>
       <c r="C806" s="29"/>
@@ -41730,7 +41730,7 @@
       <c r="AR806" s="29"/>
       <c r="AS806" s="29"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="29"/>
       <c r="B807" s="29"/>
       <c r="C807" s="29"/>
@@ -41777,7 +41777,7 @@
       <c r="AR807" s="29"/>
       <c r="AS807" s="29"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="29"/>
       <c r="B808" s="29"/>
       <c r="C808" s="29"/>
@@ -41824,7 +41824,7 @@
       <c r="AR808" s="29"/>
       <c r="AS808" s="29"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="29"/>
       <c r="B809" s="29"/>
       <c r="C809" s="29"/>
@@ -41871,7 +41871,7 @@
       <c r="AR809" s="29"/>
       <c r="AS809" s="29"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="29"/>
       <c r="B810" s="29"/>
       <c r="C810" s="29"/>
@@ -41918,7 +41918,7 @@
       <c r="AR810" s="29"/>
       <c r="AS810" s="29"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="29"/>
       <c r="B811" s="29"/>
       <c r="C811" s="29"/>
@@ -41965,7 +41965,7 @@
       <c r="AR811" s="29"/>
       <c r="AS811" s="29"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="29"/>
       <c r="B812" s="29"/>
       <c r="C812" s="29"/>
@@ -42012,7 +42012,7 @@
       <c r="AR812" s="29"/>
       <c r="AS812" s="29"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="29"/>
       <c r="B813" s="29"/>
       <c r="C813" s="29"/>
@@ -42059,7 +42059,7 @@
       <c r="AR813" s="29"/>
       <c r="AS813" s="29"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="29"/>
       <c r="B814" s="29"/>
       <c r="C814" s="29"/>
@@ -42106,7 +42106,7 @@
       <c r="AR814" s="29"/>
       <c r="AS814" s="29"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="29"/>
       <c r="B815" s="29"/>
       <c r="C815" s="29"/>
@@ -42153,7 +42153,7 @@
       <c r="AR815" s="29"/>
       <c r="AS815" s="29"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="29"/>
       <c r="B816" s="29"/>
       <c r="C816" s="29"/>
@@ -42200,7 +42200,7 @@
       <c r="AR816" s="29"/>
       <c r="AS816" s="29"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="29"/>
       <c r="B817" s="29"/>
       <c r="C817" s="29"/>
@@ -42247,7 +42247,7 @@
       <c r="AR817" s="29"/>
       <c r="AS817" s="29"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="29"/>
       <c r="B818" s="29"/>
       <c r="C818" s="29"/>
@@ -42294,7 +42294,7 @@
       <c r="AR818" s="29"/>
       <c r="AS818" s="29"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="29"/>
       <c r="B819" s="29"/>
       <c r="C819" s="29"/>
@@ -42341,7 +42341,7 @@
       <c r="AR819" s="29"/>
       <c r="AS819" s="29"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="29"/>
       <c r="B820" s="29"/>
       <c r="C820" s="29"/>
@@ -42388,7 +42388,7 @@
       <c r="AR820" s="29"/>
       <c r="AS820" s="29"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="29"/>
       <c r="B821" s="29"/>
       <c r="C821" s="29"/>
@@ -42435,7 +42435,7 @@
       <c r="AR821" s="29"/>
       <c r="AS821" s="29"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="29"/>
       <c r="B822" s="29"/>
       <c r="C822" s="29"/>
@@ -42482,7 +42482,7 @@
       <c r="AR822" s="29"/>
       <c r="AS822" s="29"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="29"/>
       <c r="B823" s="29"/>
       <c r="C823" s="29"/>
@@ -42529,7 +42529,7 @@
       <c r="AR823" s="29"/>
       <c r="AS823" s="29"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="29"/>
       <c r="B824" s="29"/>
       <c r="C824" s="29"/>
@@ -42576,7 +42576,7 @@
       <c r="AR824" s="29"/>
       <c r="AS824" s="29"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="29"/>
       <c r="B825" s="29"/>
       <c r="C825" s="29"/>
@@ -42623,7 +42623,7 @@
       <c r="AR825" s="29"/>
       <c r="AS825" s="29"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="29"/>
       <c r="B826" s="29"/>
       <c r="C826" s="29"/>
@@ -42670,7 +42670,7 @@
       <c r="AR826" s="29"/>
       <c r="AS826" s="29"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="29"/>
       <c r="B827" s="29"/>
       <c r="C827" s="29"/>
@@ -42717,7 +42717,7 @@
       <c r="AR827" s="29"/>
       <c r="AS827" s="29"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="29"/>
       <c r="B828" s="29"/>
       <c r="C828" s="29"/>
@@ -42764,7 +42764,7 @@
       <c r="AR828" s="29"/>
       <c r="AS828" s="29"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="29"/>
       <c r="B829" s="29"/>
       <c r="C829" s="29"/>
@@ -42811,7 +42811,7 @@
       <c r="AR829" s="29"/>
       <c r="AS829" s="29"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="29"/>
       <c r="B830" s="29"/>
       <c r="C830" s="29"/>
@@ -42858,7 +42858,7 @@
       <c r="AR830" s="29"/>
       <c r="AS830" s="29"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="29"/>
       <c r="B831" s="29"/>
       <c r="C831" s="29"/>
@@ -42905,7 +42905,7 @@
       <c r="AR831" s="29"/>
       <c r="AS831" s="29"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="29"/>
       <c r="B832" s="29"/>
       <c r="C832" s="29"/>
@@ -42952,7 +42952,7 @@
       <c r="AR832" s="29"/>
       <c r="AS832" s="29"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="29"/>
       <c r="B833" s="29"/>
       <c r="C833" s="29"/>
@@ -42999,7 +42999,7 @@
       <c r="AR833" s="29"/>
       <c r="AS833" s="29"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="29"/>
       <c r="B834" s="29"/>
       <c r="C834" s="29"/>
@@ -43046,7 +43046,7 @@
       <c r="AR834" s="29"/>
       <c r="AS834" s="29"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="29"/>
       <c r="B835" s="29"/>
       <c r="C835" s="29"/>
@@ -43093,7 +43093,7 @@
       <c r="AR835" s="29"/>
       <c r="AS835" s="29"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="29"/>
       <c r="B836" s="29"/>
       <c r="C836" s="29"/>
@@ -43140,7 +43140,7 @@
       <c r="AR836" s="29"/>
       <c r="AS836" s="29"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="29"/>
       <c r="B837" s="29"/>
       <c r="C837" s="29"/>
@@ -43187,7 +43187,7 @@
       <c r="AR837" s="29"/>
       <c r="AS837" s="29"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="29"/>
       <c r="B838" s="29"/>
       <c r="C838" s="29"/>
@@ -43234,7 +43234,7 @@
       <c r="AR838" s="29"/>
       <c r="AS838" s="29"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="29"/>
       <c r="B839" s="29"/>
       <c r="C839" s="29"/>
@@ -43281,7 +43281,7 @@
       <c r="AR839" s="29"/>
       <c r="AS839" s="29"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="29"/>
       <c r="B840" s="29"/>
       <c r="C840" s="29"/>
@@ -43328,7 +43328,7 @@
       <c r="AR840" s="29"/>
       <c r="AS840" s="29"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="29"/>
       <c r="B841" s="29"/>
       <c r="C841" s="29"/>
@@ -43375,7 +43375,7 @@
       <c r="AR841" s="29"/>
       <c r="AS841" s="29"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="29"/>
       <c r="B842" s="29"/>
       <c r="C842" s="29"/>
@@ -43422,7 +43422,7 @@
       <c r="AR842" s="29"/>
       <c r="AS842" s="29"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="29"/>
       <c r="B843" s="29"/>
       <c r="C843" s="29"/>
@@ -43469,7 +43469,7 @@
       <c r="AR843" s="29"/>
       <c r="AS843" s="29"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="29"/>
       <c r="B844" s="29"/>
       <c r="C844" s="29"/>
@@ -43516,7 +43516,7 @@
       <c r="AR844" s="29"/>
       <c r="AS844" s="29"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="29"/>
       <c r="B845" s="29"/>
       <c r="C845" s="29"/>
@@ -43563,7 +43563,7 @@
       <c r="AR845" s="29"/>
       <c r="AS845" s="29"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="29"/>
       <c r="B846" s="29"/>
       <c r="C846" s="29"/>
@@ -43610,7 +43610,7 @@
       <c r="AR846" s="29"/>
       <c r="AS846" s="29"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="29"/>
       <c r="B847" s="29"/>
       <c r="C847" s="29"/>
@@ -43657,7 +43657,7 @@
       <c r="AR847" s="29"/>
       <c r="AS847" s="29"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="29"/>
       <c r="B848" s="29"/>
       <c r="C848" s="29"/>
@@ -43704,7 +43704,7 @@
       <c r="AR848" s="29"/>
       <c r="AS848" s="29"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="29"/>
       <c r="B849" s="29"/>
       <c r="C849" s="29"/>
@@ -43751,7 +43751,7 @@
       <c r="AR849" s="29"/>
       <c r="AS849" s="29"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="29"/>
       <c r="B850" s="29"/>
       <c r="C850" s="29"/>
@@ -43798,7 +43798,7 @@
       <c r="AR850" s="29"/>
       <c r="AS850" s="29"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="29"/>
       <c r="B851" s="29"/>
       <c r="C851" s="29"/>
@@ -43845,7 +43845,7 @@
       <c r="AR851" s="29"/>
       <c r="AS851" s="29"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="29"/>
       <c r="B852" s="29"/>
       <c r="C852" s="29"/>
@@ -43892,7 +43892,7 @@
       <c r="AR852" s="29"/>
       <c r="AS852" s="29"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="29"/>
       <c r="B853" s="29"/>
       <c r="C853" s="29"/>
@@ -43939,7 +43939,7 @@
       <c r="AR853" s="29"/>
       <c r="AS853" s="29"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="29"/>
       <c r="B854" s="29"/>
       <c r="C854" s="29"/>
@@ -43986,7 +43986,7 @@
       <c r="AR854" s="29"/>
       <c r="AS854" s="29"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="29"/>
       <c r="B855" s="29"/>
       <c r="C855" s="29"/>
@@ -44033,7 +44033,7 @@
       <c r="AR855" s="29"/>
       <c r="AS855" s="29"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="29"/>
       <c r="B856" s="29"/>
       <c r="C856" s="29"/>
@@ -44080,7 +44080,7 @@
       <c r="AR856" s="29"/>
       <c r="AS856" s="29"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="29"/>
       <c r="B857" s="29"/>
       <c r="C857" s="29"/>
@@ -44127,7 +44127,7 @@
       <c r="AR857" s="29"/>
       <c r="AS857" s="29"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="29"/>
       <c r="B858" s="29"/>
       <c r="C858" s="29"/>
@@ -44174,7 +44174,7 @@
       <c r="AR858" s="29"/>
       <c r="AS858" s="29"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="29"/>
       <c r="B859" s="29"/>
       <c r="C859" s="29"/>
@@ -44221,7 +44221,7 @@
       <c r="AR859" s="29"/>
       <c r="AS859" s="29"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="29"/>
       <c r="B860" s="29"/>
       <c r="C860" s="29"/>
@@ -44268,7 +44268,7 @@
       <c r="AR860" s="29"/>
       <c r="AS860" s="29"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="29"/>
       <c r="B861" s="29"/>
       <c r="C861" s="29"/>
@@ -44315,7 +44315,7 @@
       <c r="AR861" s="29"/>
       <c r="AS861" s="29"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="29"/>
       <c r="B862" s="29"/>
       <c r="C862" s="29"/>
@@ -44362,7 +44362,7 @@
       <c r="AR862" s="29"/>
       <c r="AS862" s="29"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="29"/>
       <c r="B863" s="29"/>
       <c r="C863" s="29"/>
@@ -44409,7 +44409,7 @@
       <c r="AR863" s="29"/>
       <c r="AS863" s="29"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="29"/>
       <c r="B864" s="29"/>
       <c r="C864" s="29"/>
@@ -44456,7 +44456,7 @@
       <c r="AR864" s="29"/>
       <c r="AS864" s="29"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="29"/>
       <c r="B865" s="29"/>
       <c r="C865" s="29"/>
@@ -44503,7 +44503,7 @@
       <c r="AR865" s="29"/>
       <c r="AS865" s="29"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="29"/>
       <c r="B866" s="29"/>
       <c r="C866" s="29"/>
@@ -44550,7 +44550,7 @@
       <c r="AR866" s="29"/>
       <c r="AS866" s="29"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="29"/>
       <c r="B867" s="29"/>
       <c r="C867" s="29"/>
@@ -44597,7 +44597,7 @@
       <c r="AR867" s="29"/>
       <c r="AS867" s="29"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="29"/>
       <c r="B868" s="29"/>
       <c r="C868" s="29"/>
@@ -44644,7 +44644,7 @@
       <c r="AR868" s="29"/>
       <c r="AS868" s="29"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="29"/>
       <c r="B869" s="29"/>
       <c r="C869" s="29"/>
@@ -44691,7 +44691,7 @@
       <c r="AR869" s="29"/>
       <c r="AS869" s="29"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="29"/>
       <c r="B870" s="29"/>
       <c r="C870" s="29"/>
@@ -44738,7 +44738,7 @@
       <c r="AR870" s="29"/>
       <c r="AS870" s="29"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="29"/>
       <c r="B871" s="29"/>
       <c r="C871" s="29"/>
@@ -44785,7 +44785,7 @@
       <c r="AR871" s="29"/>
       <c r="AS871" s="29"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="29"/>
       <c r="B872" s="29"/>
       <c r="C872" s="29"/>
@@ -44832,7 +44832,7 @@
       <c r="AR872" s="29"/>
       <c r="AS872" s="29"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="29"/>
       <c r="B873" s="29"/>
       <c r="C873" s="29"/>
@@ -44879,7 +44879,7 @@
       <c r="AR873" s="29"/>
       <c r="AS873" s="29"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="29"/>
       <c r="B874" s="29"/>
       <c r="C874" s="29"/>
@@ -44926,7 +44926,7 @@
       <c r="AR874" s="29"/>
       <c r="AS874" s="29"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="29"/>
       <c r="B875" s="29"/>
       <c r="C875" s="29"/>
@@ -44973,7 +44973,7 @@
       <c r="AR875" s="29"/>
       <c r="AS875" s="29"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="29"/>
       <c r="B876" s="29"/>
       <c r="C876" s="29"/>
@@ -45020,7 +45020,7 @@
       <c r="AR876" s="29"/>
       <c r="AS876" s="29"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="29"/>
       <c r="B877" s="29"/>
       <c r="C877" s="29"/>
@@ -45067,7 +45067,7 @@
       <c r="AR877" s="29"/>
       <c r="AS877" s="29"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="29"/>
       <c r="B878" s="29"/>
       <c r="C878" s="29"/>
@@ -45114,7 +45114,7 @@
       <c r="AR878" s="29"/>
       <c r="AS878" s="29"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="29"/>
       <c r="B879" s="29"/>
       <c r="C879" s="29"/>
@@ -45161,7 +45161,7 @@
       <c r="AR879" s="29"/>
       <c r="AS879" s="29"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="29"/>
       <c r="B880" s="29"/>
       <c r="C880" s="29"/>
@@ -45208,7 +45208,7 @@
       <c r="AR880" s="29"/>
       <c r="AS880" s="29"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="29"/>
       <c r="B881" s="29"/>
       <c r="C881" s="29"/>
@@ -45255,7 +45255,7 @@
       <c r="AR881" s="29"/>
       <c r="AS881" s="29"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="29"/>
       <c r="B882" s="29"/>
       <c r="C882" s="29"/>
@@ -45302,7 +45302,7 @@
       <c r="AR882" s="29"/>
       <c r="AS882" s="29"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="29"/>
       <c r="B883" s="29"/>
       <c r="C883" s="29"/>
@@ -45349,7 +45349,7 @@
       <c r="AR883" s="29"/>
       <c r="AS883" s="29"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="29"/>
       <c r="B884" s="29"/>
       <c r="C884" s="29"/>
@@ -45396,7 +45396,7 @@
       <c r="AR884" s="29"/>
       <c r="AS884" s="29"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="29"/>
       <c r="B885" s="29"/>
       <c r="C885" s="29"/>
@@ -45443,7 +45443,7 @@
       <c r="AR885" s="29"/>
       <c r="AS885" s="29"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="29"/>
       <c r="B886" s="29"/>
       <c r="C886" s="29"/>
@@ -45490,7 +45490,7 @@
       <c r="AR886" s="29"/>
       <c r="AS886" s="29"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="29"/>
       <c r="B887" s="29"/>
       <c r="C887" s="29"/>
@@ -45537,7 +45537,7 @@
       <c r="AR887" s="29"/>
       <c r="AS887" s="29"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="29"/>
       <c r="B888" s="29"/>
       <c r="C888" s="29"/>
@@ -45584,7 +45584,7 @@
       <c r="AR888" s="29"/>
       <c r="AS888" s="29"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="29"/>
       <c r="B889" s="29"/>
       <c r="C889" s="29"/>
@@ -45631,7 +45631,7 @@
       <c r="AR889" s="29"/>
       <c r="AS889" s="29"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="29"/>
       <c r="B890" s="29"/>
       <c r="C890" s="29"/>
@@ -45678,7 +45678,7 @@
       <c r="AR890" s="29"/>
       <c r="AS890" s="29"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="29"/>
       <c r="B891" s="29"/>
       <c r="C891" s="29"/>
@@ -45725,7 +45725,7 @@
       <c r="AR891" s="29"/>
       <c r="AS891" s="29"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="29"/>
       <c r="B892" s="29"/>
       <c r="C892" s="29"/>
@@ -45772,7 +45772,7 @@
       <c r="AR892" s="29"/>
       <c r="AS892" s="29"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="29"/>
       <c r="B893" s="29"/>
       <c r="C893" s="29"/>
@@ -45819,7 +45819,7 @@
       <c r="AR893" s="29"/>
       <c r="AS893" s="29"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="29"/>
       <c r="B894" s="29"/>
       <c r="C894" s="29"/>
@@ -45866,7 +45866,7 @@
       <c r="AR894" s="29"/>
       <c r="AS894" s="29"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="29"/>
       <c r="B895" s="29"/>
       <c r="C895" s="29"/>
@@ -45913,7 +45913,7 @@
       <c r="AR895" s="29"/>
       <c r="AS895" s="29"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="29"/>
       <c r="B896" s="29"/>
       <c r="C896" s="29"/>
@@ -45960,7 +45960,7 @@
       <c r="AR896" s="29"/>
       <c r="AS896" s="29"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="29"/>
       <c r="B897" s="29"/>
       <c r="C897" s="29"/>
@@ -46007,7 +46007,7 @@
       <c r="AR897" s="29"/>
       <c r="AS897" s="29"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="29"/>
       <c r="B898" s="29"/>
       <c r="C898" s="29"/>
@@ -46054,7 +46054,7 @@
       <c r="AR898" s="29"/>
       <c r="AS898" s="29"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="29"/>
       <c r="B899" s="29"/>
       <c r="C899" s="29"/>
@@ -46101,7 +46101,7 @@
       <c r="AR899" s="29"/>
       <c r="AS899" s="29"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="29"/>
       <c r="B900" s="29"/>
       <c r="C900" s="29"/>
@@ -46148,7 +46148,7 @@
       <c r="AR900" s="29"/>
       <c r="AS900" s="29"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="29"/>
       <c r="B901" s="29"/>
       <c r="C901" s="29"/>
@@ -46195,7 +46195,7 @@
       <c r="AR901" s="29"/>
       <c r="AS901" s="29"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="29"/>
       <c r="B902" s="29"/>
       <c r="C902" s="29"/>
@@ -46242,7 +46242,7 @@
       <c r="AR902" s="29"/>
       <c r="AS902" s="29"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="29"/>
       <c r="B903" s="29"/>
       <c r="C903" s="29"/>
@@ -46289,7 +46289,7 @@
       <c r="AR903" s="29"/>
       <c r="AS903" s="29"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="29"/>
       <c r="B904" s="29"/>
       <c r="C904" s="29"/>
@@ -46336,7 +46336,7 @@
       <c r="AR904" s="29"/>
       <c r="AS904" s="29"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="29"/>
       <c r="B905" s="29"/>
       <c r="C905" s="29"/>
@@ -46383,7 +46383,7 @@
       <c r="AR905" s="29"/>
       <c r="AS905" s="29"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="29"/>
       <c r="B906" s="29"/>
       <c r="C906" s="29"/>
@@ -46430,7 +46430,7 @@
       <c r="AR906" s="29"/>
       <c r="AS906" s="29"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="29"/>
       <c r="B907" s="29"/>
       <c r="C907" s="29"/>
@@ -46477,7 +46477,7 @@
       <c r="AR907" s="29"/>
       <c r="AS907" s="29"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="29"/>
       <c r="B908" s="29"/>
       <c r="C908" s="29"/>
@@ -46524,7 +46524,7 @@
       <c r="AR908" s="29"/>
       <c r="AS908" s="29"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="29"/>
       <c r="B909" s="29"/>
       <c r="C909" s="29"/>
@@ -46571,7 +46571,7 @@
       <c r="AR909" s="29"/>
       <c r="AS909" s="29"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="29"/>
       <c r="B910" s="29"/>
       <c r="C910" s="29"/>
@@ -46618,7 +46618,7 @@
       <c r="AR910" s="29"/>
       <c r="AS910" s="29"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="29"/>
       <c r="B911" s="29"/>
       <c r="C911" s="29"/>
@@ -46665,7 +46665,7 @@
       <c r="AR911" s="29"/>
       <c r="AS911" s="29"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="29"/>
       <c r="B912" s="29"/>
       <c r="C912" s="29"/>
@@ -46712,7 +46712,7 @@
       <c r="AR912" s="29"/>
       <c r="AS912" s="29"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="29"/>
       <c r="B913" s="29"/>
       <c r="C913" s="29"/>
@@ -46759,7 +46759,7 @@
       <c r="AR913" s="29"/>
       <c r="AS913" s="29"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="29"/>
       <c r="B914" s="29"/>
       <c r="C914" s="29"/>
@@ -46806,7 +46806,7 @@
       <c r="AR914" s="29"/>
       <c r="AS914" s="29"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="29"/>
       <c r="B915" s="29"/>
       <c r="C915" s="29"/>
@@ -46853,7 +46853,7 @@
       <c r="AR915" s="29"/>
       <c r="AS915" s="29"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="29"/>
       <c r="B916" s="29"/>
       <c r="C916" s="29"/>
@@ -46900,7 +46900,7 @@
       <c r="AR916" s="29"/>
       <c r="AS916" s="29"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="29"/>
       <c r="B917" s="29"/>
       <c r="C917" s="29"/>
@@ -46947,7 +46947,7 @@
       <c r="AR917" s="29"/>
       <c r="AS917" s="29"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="29"/>
       <c r="B918" s="29"/>
       <c r="C918" s="29"/>
@@ -46994,7 +46994,7 @@
       <c r="AR918" s="29"/>
       <c r="AS918" s="29"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="29"/>
       <c r="B919" s="29"/>
       <c r="C919" s="29"/>
@@ -47041,7 +47041,7 @@
       <c r="AR919" s="29"/>
       <c r="AS919" s="29"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="29"/>
       <c r="B920" s="29"/>
       <c r="C920" s="29"/>
@@ -47088,7 +47088,7 @@
       <c r="AR920" s="29"/>
       <c r="AS920" s="29"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="29"/>
       <c r="B921" s="29"/>
       <c r="C921" s="29"/>
@@ -47135,7 +47135,7 @@
       <c r="AR921" s="29"/>
       <c r="AS921" s="29"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="29"/>
       <c r="B922" s="29"/>
       <c r="C922" s="29"/>
@@ -47182,7 +47182,7 @@
       <c r="AR922" s="29"/>
       <c r="AS922" s="29"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="29"/>
       <c r="B923" s="29"/>
       <c r="C923" s="29"/>
@@ -47229,7 +47229,7 @@
       <c r="AR923" s="29"/>
       <c r="AS923" s="29"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="29"/>
       <c r="B924" s="29"/>
       <c r="C924" s="29"/>
@@ -47276,7 +47276,7 @@
       <c r="AR924" s="29"/>
       <c r="AS924" s="29"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="29"/>
       <c r="B925" s="29"/>
       <c r="C925" s="29"/>
@@ -47323,7 +47323,7 @@
       <c r="AR925" s="29"/>
       <c r="AS925" s="29"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="29"/>
       <c r="B926" s="29"/>
       <c r="C926" s="29"/>
@@ -47370,7 +47370,7 @@
       <c r="AR926" s="29"/>
       <c r="AS926" s="29"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="29"/>
       <c r="B927" s="29"/>
       <c r="C927" s="29"/>
@@ -47417,7 +47417,7 @@
       <c r="AR927" s="29"/>
       <c r="AS927" s="29"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="29"/>
       <c r="B928" s="29"/>
       <c r="C928" s="29"/>
@@ -47464,7 +47464,7 @@
       <c r="AR928" s="29"/>
       <c r="AS928" s="29"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="29"/>
       <c r="B929" s="29"/>
       <c r="C929" s="29"/>
@@ -47511,7 +47511,7 @@
       <c r="AR929" s="29"/>
       <c r="AS929" s="29"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="29"/>
       <c r="B930" s="29"/>
       <c r="C930" s="29"/>
@@ -47558,7 +47558,7 @@
       <c r="AR930" s="29"/>
       <c r="AS930" s="29"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="29"/>
       <c r="B931" s="29"/>
       <c r="C931" s="29"/>
@@ -47605,7 +47605,7 @@
       <c r="AR931" s="29"/>
       <c r="AS931" s="29"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="29"/>
       <c r="B932" s="29"/>
       <c r="C932" s="29"/>
@@ -47652,7 +47652,7 @@
       <c r="AR932" s="29"/>
       <c r="AS932" s="29"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="29"/>
       <c r="B933" s="29"/>
       <c r="C933" s="29"/>
@@ -47699,7 +47699,7 @@
       <c r="AR933" s="29"/>
       <c r="AS933" s="29"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="29"/>
       <c r="B934" s="29"/>
       <c r="C934" s="29"/>
@@ -47746,7 +47746,7 @@
       <c r="AR934" s="29"/>
       <c r="AS934" s="29"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="29"/>
       <c r="B935" s="29"/>
       <c r="C935" s="29"/>
@@ -47793,7 +47793,7 @@
       <c r="AR935" s="29"/>
       <c r="AS935" s="29"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="29"/>
       <c r="B936" s="29"/>
       <c r="C936" s="29"/>
@@ -47840,7 +47840,7 @@
       <c r="AR936" s="29"/>
       <c r="AS936" s="29"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="29"/>
       <c r="B937" s="29"/>
       <c r="C937" s="29"/>
@@ -47887,7 +47887,7 @@
       <c r="AR937" s="29"/>
       <c r="AS937" s="29"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="29"/>
       <c r="B938" s="29"/>
       <c r="C938" s="29"/>
@@ -47934,7 +47934,7 @@
       <c r="AR938" s="29"/>
       <c r="AS938" s="29"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="29"/>
       <c r="B939" s="29"/>
       <c r="C939" s="29"/>
@@ -47981,7 +47981,7 @@
       <c r="AR939" s="29"/>
       <c r="AS939" s="29"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="29"/>
       <c r="B940" s="29"/>
       <c r="C940" s="29"/>
@@ -48028,7 +48028,7 @@
       <c r="AR940" s="29"/>
       <c r="AS940" s="29"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="29"/>
       <c r="B941" s="29"/>
       <c r="C941" s="29"/>
@@ -48075,7 +48075,7 @@
       <c r="AR941" s="29"/>
       <c r="AS941" s="29"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="29"/>
       <c r="B942" s="29"/>
       <c r="C942" s="29"/>
@@ -48122,7 +48122,7 @@
       <c r="AR942" s="29"/>
       <c r="AS942" s="29"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="29"/>
       <c r="B943" s="29"/>
       <c r="C943" s="29"/>
@@ -48169,7 +48169,7 @@
       <c r="AR943" s="29"/>
       <c r="AS943" s="29"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="29"/>
       <c r="B944" s="29"/>
       <c r="C944" s="29"/>
@@ -48216,7 +48216,7 @@
       <c r="AR944" s="29"/>
       <c r="AS944" s="29"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="29"/>
       <c r="B945" s="29"/>
       <c r="C945" s="29"/>
@@ -48263,7 +48263,7 @@
       <c r="AR945" s="29"/>
       <c r="AS945" s="29"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="29"/>
       <c r="B946" s="29"/>
       <c r="C946" s="29"/>
@@ -48310,7 +48310,7 @@
       <c r="AR946" s="29"/>
       <c r="AS946" s="29"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="29"/>
       <c r="B947" s="29"/>
       <c r="C947" s="29"/>
@@ -48357,7 +48357,7 @@
       <c r="AR947" s="29"/>
       <c r="AS947" s="29"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="29"/>
       <c r="B948" s="29"/>
       <c r="C948" s="29"/>
@@ -48404,7 +48404,7 @@
       <c r="AR948" s="29"/>
       <c r="AS948" s="29"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="29"/>
       <c r="B949" s="29"/>
       <c r="C949" s="29"/>
@@ -48451,7 +48451,7 @@
       <c r="AR949" s="29"/>
       <c r="AS949" s="29"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="29"/>
       <c r="B950" s="29"/>
       <c r="C950" s="29"/>
@@ -48498,7 +48498,7 @@
       <c r="AR950" s="29"/>
       <c r="AS950" s="29"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="29"/>
       <c r="B951" s="29"/>
       <c r="C951" s="29"/>
@@ -48545,7 +48545,7 @@
       <c r="AR951" s="29"/>
       <c r="AS951" s="29"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="29"/>
       <c r="B952" s="29"/>
       <c r="C952" s="29"/>
@@ -48592,7 +48592,7 @@
       <c r="AR952" s="29"/>
       <c r="AS952" s="29"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="29"/>
       <c r="B953" s="29"/>
       <c r="C953" s="29"/>
@@ -48639,7 +48639,7 @@
       <c r="AR953" s="29"/>
       <c r="AS953" s="29"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="29"/>
       <c r="B954" s="29"/>
       <c r="C954" s="29"/>
@@ -48686,7 +48686,7 @@
       <c r="AR954" s="29"/>
       <c r="AS954" s="29"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="29"/>
       <c r="B955" s="29"/>
       <c r="C955" s="29"/>
@@ -48733,7 +48733,7 @@
       <c r="AR955" s="29"/>
       <c r="AS955" s="29"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="29"/>
       <c r="B956" s="29"/>
       <c r="C956" s="29"/>
@@ -48780,7 +48780,7 @@
       <c r="AR956" s="29"/>
       <c r="AS956" s="29"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="29"/>
       <c r="B957" s="29"/>
       <c r="C957" s="29"/>
@@ -48827,7 +48827,7 @@
       <c r="AR957" s="29"/>
       <c r="AS957" s="29"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="29"/>
       <c r="B958" s="29"/>
       <c r="C958" s="29"/>
@@ -48874,7 +48874,7 @@
       <c r="AR958" s="29"/>
       <c r="AS958" s="29"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="29"/>
       <c r="B959" s="29"/>
       <c r="C959" s="29"/>
@@ -48921,7 +48921,7 @@
       <c r="AR959" s="29"/>
       <c r="AS959" s="29"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="29"/>
       <c r="B960" s="29"/>
       <c r="C960" s="29"/>
@@ -48968,7 +48968,7 @@
       <c r="AR960" s="29"/>
       <c r="AS960" s="29"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="29"/>
       <c r="B961" s="29"/>
       <c r="C961" s="29"/>
@@ -49015,7 +49015,7 @@
       <c r="AR961" s="29"/>
       <c r="AS961" s="29"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="29"/>
       <c r="B962" s="29"/>
       <c r="C962" s="29"/>
@@ -49062,7 +49062,7 @@
       <c r="AR962" s="29"/>
       <c r="AS962" s="29"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="29"/>
       <c r="B963" s="29"/>
       <c r="C963" s="29"/>
@@ -49109,7 +49109,7 @@
       <c r="AR963" s="29"/>
       <c r="AS963" s="29"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="29"/>
       <c r="B964" s="29"/>
       <c r="C964" s="29"/>
@@ -49156,7 +49156,7 @@
       <c r="AR964" s="29"/>
       <c r="AS964" s="29"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="29"/>
       <c r="B965" s="29"/>
       <c r="C965" s="29"/>
@@ -49203,7 +49203,7 @@
       <c r="AR965" s="29"/>
       <c r="AS965" s="29"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="29"/>
       <c r="B966" s="29"/>
       <c r="C966" s="29"/>
@@ -49250,7 +49250,7 @@
       <c r="AR966" s="29"/>
       <c r="AS966" s="29"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="29"/>
       <c r="B967" s="29"/>
       <c r="C967" s="29"/>
@@ -49297,7 +49297,7 @@
       <c r="AR967" s="29"/>
       <c r="AS967" s="29"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="29"/>
       <c r="B968" s="29"/>
       <c r="C968" s="29"/>
@@ -49344,7 +49344,7 @@
       <c r="AR968" s="29"/>
       <c r="AS968" s="29"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="29"/>
       <c r="B969" s="29"/>
       <c r="C969" s="29"/>
@@ -49391,7 +49391,7 @@
       <c r="AR969" s="29"/>
       <c r="AS969" s="29"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="29"/>
       <c r="B970" s="29"/>
       <c r="C970" s="29"/>
@@ -49438,7 +49438,7 @@
       <c r="AR970" s="29"/>
       <c r="AS970" s="29"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="29"/>
       <c r="B971" s="29"/>
       <c r="C971" s="29"/>
@@ -49485,7 +49485,7 @@
       <c r="AR971" s="29"/>
       <c r="AS971" s="29"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="29"/>
       <c r="B972" s="29"/>
       <c r="C972" s="29"/>
@@ -49532,7 +49532,7 @@
       <c r="AR972" s="29"/>
       <c r="AS972" s="29"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="29"/>
       <c r="B973" s="29"/>
       <c r="C973" s="29"/>
@@ -49579,7 +49579,7 @@
       <c r="AR973" s="29"/>
       <c r="AS973" s="29"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="29"/>
       <c r="B974" s="29"/>
       <c r="C974" s="29"/>
@@ -49626,7 +49626,7 @@
       <c r="AR974" s="29"/>
       <c r="AS974" s="29"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="29"/>
       <c r="B975" s="29"/>
       <c r="C975" s="29"/>
@@ -49673,7 +49673,7 @@
       <c r="AR975" s="29"/>
       <c r="AS975" s="29"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="29"/>
       <c r="B976" s="29"/>
       <c r="C976" s="29"/>
@@ -49720,7 +49720,7 @@
       <c r="AR976" s="29"/>
       <c r="AS976" s="29"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="29"/>
       <c r="B977" s="29"/>
       <c r="C977" s="29"/>
@@ -49767,7 +49767,7 @@
       <c r="AR977" s="29"/>
       <c r="AS977" s="29"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="29"/>
       <c r="B978" s="29"/>
       <c r="C978" s="29"/>
@@ -49814,7 +49814,7 @@
       <c r="AR978" s="29"/>
       <c r="AS978" s="29"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="29"/>
       <c r="B979" s="29"/>
       <c r="C979" s="29"/>
@@ -49861,7 +49861,7 @@
       <c r="AR979" s="29"/>
       <c r="AS979" s="29"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="29"/>
       <c r="B980" s="29"/>
       <c r="C980" s="29"/>
@@ -49908,7 +49908,7 @@
       <c r="AR980" s="29"/>
       <c r="AS980" s="29"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="29"/>
       <c r="B981" s="29"/>
       <c r="C981" s="29"/>
@@ -49955,7 +49955,7 @@
       <c r="AR981" s="29"/>
       <c r="AS981" s="29"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="29"/>
       <c r="B982" s="29"/>
       <c r="C982" s="29"/>
@@ -50002,7 +50002,7 @@
       <c r="AR982" s="29"/>
       <c r="AS982" s="29"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="29"/>
       <c r="B983" s="29"/>
       <c r="C983" s="29"/>
@@ -50049,7 +50049,7 @@
       <c r="AR983" s="29"/>
       <c r="AS983" s="29"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="29"/>
       <c r="B984" s="29"/>
       <c r="C984" s="29"/>
@@ -50096,7 +50096,7 @@
       <c r="AR984" s="29"/>
       <c r="AS984" s="29"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="29"/>
       <c r="B985" s="29"/>
       <c r="C985" s="29"/>
@@ -50143,7 +50143,7 @@
       <c r="AR985" s="29"/>
       <c r="AS985" s="29"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="29"/>
       <c r="B986" s="29"/>
       <c r="C986" s="29"/>
@@ -50190,7 +50190,7 @@
       <c r="AR986" s="29"/>
       <c r="AS986" s="29"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="29"/>
       <c r="B987" s="29"/>
       <c r="C987" s="29"/>
@@ -50237,7 +50237,7 @@
       <c r="AR987" s="29"/>
       <c r="AS987" s="29"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="29"/>
       <c r="B988" s="29"/>
       <c r="C988" s="29"/>
@@ -50284,7 +50284,7 @@
       <c r="AR988" s="29"/>
       <c r="AS988" s="29"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="29"/>
       <c r="B989" s="29"/>
       <c r="C989" s="29"/>
@@ -50331,7 +50331,7 @@
       <c r="AR989" s="29"/>
       <c r="AS989" s="29"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="29"/>
       <c r="B990" s="29"/>
       <c r="C990" s="29"/>
@@ -50378,7 +50378,7 @@
       <c r="AR990" s="29"/>
       <c r="AS990" s="29"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="29"/>
       <c r="B991" s="29"/>
       <c r="C991" s="29"/>
@@ -50425,7 +50425,7 @@
       <c r="AR991" s="29"/>
       <c r="AS991" s="29"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="29"/>
       <c r="B992" s="29"/>
       <c r="C992" s="29"/>
@@ -50472,7 +50472,7 @@
       <c r="AR992" s="29"/>
       <c r="AS992" s="29"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="29"/>
       <c r="B993" s="29"/>
       <c r="C993" s="29"/>
@@ -50519,7 +50519,7 @@
       <c r="AR993" s="29"/>
       <c r="AS993" s="29"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="29"/>
       <c r="B994" s="29"/>
       <c r="C994" s="29"/>
@@ -50566,7 +50566,7 @@
       <c r="AR994" s="29"/>
       <c r="AS994" s="29"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="29"/>
       <c r="B995" s="29"/>
       <c r="C995" s="29"/>
@@ -50613,7 +50613,7 @@
       <c r="AR995" s="29"/>
       <c r="AS995" s="29"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="29"/>
       <c r="B996" s="29"/>
       <c r="C996" s="29"/>
@@ -50660,7 +50660,7 @@
       <c r="AR996" s="29"/>
       <c r="AS996" s="29"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="29"/>
       <c r="B997" s="29"/>
       <c r="C997" s="29"/>
@@ -50707,7 +50707,7 @@
       <c r="AR997" s="29"/>
       <c r="AS997" s="29"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="29"/>
       <c r="B998" s="29"/>
       <c r="C998" s="29"/>
@@ -50754,6 +50754,7 @@
       <c r="AR998" s="29"/>
       <c r="AS998" s="29"/>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="24">
